--- a/Code/Results/Cases/Case_3_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_58/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9675252163915934</v>
+        <v>0.9675252163915954</v>
       </c>
       <c r="D2">
-        <v>0.9899242760834631</v>
+        <v>0.9899242760834649</v>
       </c>
       <c r="E2">
-        <v>0.975929132816172</v>
+        <v>0.9759291328161737</v>
       </c>
       <c r="F2">
-        <v>0.9450747871342781</v>
+        <v>0.9450747871342805</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031407187797428</v>
+        <v>1.031407187797429</v>
       </c>
       <c r="J2">
-        <v>0.9907226115519225</v>
+        <v>0.9907226115519245</v>
       </c>
       <c r="K2">
-        <v>1.001525789709284</v>
+        <v>1.001525789709286</v>
       </c>
       <c r="L2">
-        <v>0.9877343209105959</v>
+        <v>0.9877343209105978</v>
       </c>
       <c r="M2">
-        <v>0.9573563321887171</v>
+        <v>0.9573563321887194</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9784313059829398</v>
+        <v>0.9784313059829388</v>
       </c>
       <c r="D3">
-        <v>0.9987873320996262</v>
+        <v>0.9987873320996257</v>
       </c>
       <c r="E3">
-        <v>0.9853714529180277</v>
+        <v>0.9853714529180272</v>
       </c>
       <c r="F3">
-        <v>0.9596346035242359</v>
+        <v>0.9596346035242357</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.035394266185052</v>
       </c>
       <c r="J3">
-        <v>0.9995277384717605</v>
+        <v>0.9995277384717595</v>
       </c>
       <c r="K3">
-        <v>1.009435752789342</v>
+        <v>1.009435752789341</v>
       </c>
       <c r="L3">
-        <v>0.996194994996259</v>
+        <v>0.9961949949962583</v>
       </c>
       <c r="M3">
-        <v>0.970811419092119</v>
+        <v>0.9708114190921188</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9851517041312994</v>
+        <v>0.9851517041312993</v>
       </c>
       <c r="D4">
         <v>1.004247842867982</v>
       </c>
       <c r="E4">
-        <v>0.9911911233935581</v>
+        <v>0.9911911233935582</v>
       </c>
       <c r="F4">
-        <v>0.9685736177096582</v>
+        <v>0.968573617709659</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -518,13 +518,13 @@
         <v>1.004943011207785</v>
       </c>
       <c r="K4">
-        <v>1.014295269107206</v>
+        <v>1.014295269107207</v>
       </c>
       <c r="L4">
         <v>1.001397039475401</v>
       </c>
       <c r="M4">
-        <v>0.9790667370114745</v>
+        <v>0.9790667370114748</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C5">
-        <v>0.9879036431554674</v>
+        <v>0.9879036431554681</v>
       </c>
       <c r="D5">
-        <v>1.006483536247017</v>
+        <v>1.006483536247018</v>
       </c>
       <c r="E5">
-        <v>0.9935743809475965</v>
+        <v>0.9935743809475971</v>
       </c>
       <c r="F5">
-        <v>0.972227657816821</v>
+        <v>0.9722276578168216</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038821843486595</v>
+        <v>1.038821843486596</v>
       </c>
       <c r="J5">
-        <v>1.007157970933907</v>
+        <v>1.007157970933908</v>
       </c>
       <c r="K5">
-        <v>1.016281682337248</v>
+        <v>1.016281682337249</v>
       </c>
       <c r="L5">
         <v>1.003524416678437</v>
       </c>
       <c r="M5">
-        <v>0.9824398946301134</v>
+        <v>0.9824398946301138</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9883615974876371</v>
+        <v>0.9883615974876383</v>
       </c>
       <c r="D6">
-        <v>1.006855558802705</v>
+        <v>1.006855558802706</v>
       </c>
       <c r="E6">
-        <v>0.9939709879083992</v>
+        <v>0.9939709879084007</v>
       </c>
       <c r="F6">
-        <v>0.9728353935611513</v>
+        <v>0.9728353935611526</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038986639299747</v>
+        <v>1.038986639299748</v>
       </c>
       <c r="J6">
-        <v>1.007526415333469</v>
+        <v>1.00752641533347</v>
       </c>
       <c r="K6">
-        <v>1.016612037527914</v>
+        <v>1.016612037527915</v>
       </c>
       <c r="L6">
-        <v>1.003878269733414</v>
+        <v>1.003878269733415</v>
       </c>
       <c r="M6">
-        <v>0.98300082908914</v>
+        <v>0.9830008290891411</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9851887549724478</v>
+        <v>0.9851887549724473</v>
       </c>
       <c r="D7">
         <v>1.004277944674469</v>
       </c>
       <c r="E7">
-        <v>0.9912232100261716</v>
+        <v>0.9912232100261711</v>
       </c>
       <c r="F7">
-        <v>0.9686228376822579</v>
+        <v>0.9686228376822578</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -638,7 +638,7 @@
         <v>1.001425692739818</v>
       </c>
       <c r="M7">
-        <v>0.9791121791944926</v>
+        <v>0.9791121791944924</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,19 +646,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C8">
-        <v>0.9712854102586629</v>
+        <v>0.9712854102586613</v>
       </c>
       <c r="D8">
-        <v>0.9929802120825857</v>
+        <v>0.9929802120825846</v>
       </c>
       <c r="E8">
-        <v>0.9791842847047303</v>
+        <v>0.9791842847047287</v>
       </c>
       <c r="F8">
-        <v>0.9501027431692392</v>
+        <v>0.9501027431692373</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.032786407781402</v>
       </c>
       <c r="J8">
-        <v>0.993760667224215</v>
+        <v>0.9937606672242136</v>
       </c>
       <c r="K8">
-        <v>1.004256118032629</v>
+        <v>1.004256118032628</v>
       </c>
       <c r="L8">
-        <v>0.9906538010510463</v>
+        <v>0.9906538010510447</v>
       </c>
       <c r="M8">
-        <v>0.9620038901129532</v>
+        <v>0.9620038901129514</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9438072297391804</v>
+        <v>0.943807229739179</v>
       </c>
       <c r="D9">
-        <v>0.9706490732539089</v>
+        <v>0.970649073253908</v>
       </c>
       <c r="E9">
-        <v>0.9554100327276291</v>
+        <v>0.9554100327276279</v>
       </c>
       <c r="F9">
-        <v>0.9131280433771584</v>
+        <v>0.9131280433771579</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.022612261536678</v>
+        <v>1.022612261536677</v>
       </c>
       <c r="J9">
-        <v>0.9715132306561363</v>
+        <v>0.9715132306561349</v>
       </c>
       <c r="K9">
-        <v>0.9842370027000754</v>
+        <v>0.9842370027000746</v>
       </c>
       <c r="L9">
-        <v>0.9692704989193943</v>
+        <v>0.9692704989193931</v>
       </c>
       <c r="M9">
-        <v>0.9278075649966245</v>
+        <v>0.9278075649966241</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9227563216160126</v>
+        <v>0.9227563216160133</v>
       </c>
       <c r="D10">
-        <v>0.9535479842317885</v>
+        <v>0.9535479842317889</v>
       </c>
       <c r="E10">
-        <v>0.9372255876673535</v>
+        <v>0.9372255876673543</v>
       </c>
       <c r="F10">
-        <v>0.884354235256091</v>
+        <v>0.8843542352560911</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.01469337255106</v>
+        <v>1.014693372551061</v>
       </c>
       <c r="J10">
-        <v>0.9544092354356949</v>
+        <v>0.9544092354356952</v>
       </c>
       <c r="K10">
-        <v>0.9688098445295092</v>
+        <v>0.9688098445295095</v>
       </c>
       <c r="L10">
-        <v>0.9528289549038437</v>
+        <v>0.9528289549038443</v>
       </c>
       <c r="M10">
-        <v>0.9011807595211361</v>
+        <v>0.9011807595211362</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9127554957056571</v>
+        <v>0.9127554957056551</v>
       </c>
       <c r="D11">
-        <v>0.94542719593338</v>
+        <v>0.9454271959333781</v>
       </c>
       <c r="E11">
-        <v>0.928598325921051</v>
+        <v>0.9285983259210492</v>
       </c>
       <c r="F11">
-        <v>0.870510508933697</v>
+        <v>0.8705105089336954</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.010901383234871</v>
+        <v>1.01090138323487</v>
       </c>
       <c r="J11">
-        <v>0.946269022119327</v>
+        <v>0.9462690221193248</v>
       </c>
       <c r="K11">
-        <v>0.9614572722902502</v>
+        <v>0.9614572722902487</v>
       </c>
       <c r="L11">
-        <v>0.9450052641502428</v>
+        <v>0.9450052641502409</v>
       </c>
       <c r="M11">
-        <v>0.8883711199161841</v>
+        <v>0.8883711199161826</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9088787674740529</v>
+        <v>0.9088787674740544</v>
       </c>
       <c r="D12">
-        <v>0.942279931945495</v>
+        <v>0.9422799319454963</v>
       </c>
       <c r="E12">
-        <v>0.9252563729066761</v>
+        <v>0.9252563729066779</v>
       </c>
       <c r="F12">
-        <v>0.8651093655189227</v>
+        <v>0.865109365518924</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.00942690369586</v>
+        <v>1.009426903695861</v>
       </c>
       <c r="J12">
-        <v>0.9431113229322252</v>
+        <v>0.9431113229322265</v>
       </c>
       <c r="K12">
-        <v>0.9586033029940425</v>
+        <v>0.9586033029940438</v>
       </c>
       <c r="L12">
-        <v>0.9419707559162477</v>
+        <v>0.9419707559162495</v>
       </c>
       <c r="M12">
-        <v>0.8833742123169473</v>
+        <v>0.8833742123169488</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9097182446886687</v>
+        <v>0.9097182446886664</v>
       </c>
       <c r="D13">
-        <v>0.942961416270824</v>
+        <v>0.9429614162708219</v>
       </c>
       <c r="E13">
-        <v>0.9259799333244735</v>
+        <v>0.925979933324471</v>
       </c>
       <c r="F13">
-        <v>0.866280681247741</v>
+        <v>0.8662806812477385</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.009746397578356</v>
+        <v>1.009746397578355</v>
       </c>
       <c r="J13">
-        <v>0.9437952007788334</v>
+        <v>0.9437952007788311</v>
       </c>
       <c r="K13">
-        <v>0.9592214869825372</v>
+        <v>0.9592214869825354</v>
       </c>
       <c r="L13">
-        <v>0.9426279309126543</v>
+        <v>0.9426279309126518</v>
       </c>
       <c r="M13">
-        <v>0.884457815786854</v>
+        <v>0.8844578157868513</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9124385519162236</v>
+        <v>0.9124385519162255</v>
       </c>
       <c r="D14">
-        <v>0.9451698753602998</v>
+        <v>0.9451698753603014</v>
       </c>
       <c r="E14">
-        <v>0.9283250524432448</v>
+        <v>0.928325052443246</v>
       </c>
       <c r="F14">
-        <v>0.8700696960547685</v>
+        <v>0.8700696960547697</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.010780928482673</v>
+        <v>1.010780928482674</v>
       </c>
       <c r="J14">
-        <v>0.9460109079963643</v>
+        <v>0.9460109079963659</v>
       </c>
       <c r="K14">
-        <v>0.9612240235356376</v>
+        <v>0.9612240235356392</v>
       </c>
       <c r="L14">
-        <v>0.944757210040442</v>
+        <v>0.9447572100404433</v>
       </c>
       <c r="M14">
-        <v>0.8879632784598732</v>
+        <v>0.8879632784598743</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9140921243940923</v>
+        <v>0.9140921243940902</v>
       </c>
       <c r="D15">
-        <v>0.9465124074256376</v>
+        <v>0.9465124074256359</v>
       </c>
       <c r="E15">
-        <v>0.9297508835601799</v>
+        <v>0.9297508835601781</v>
       </c>
       <c r="F15">
-        <v>0.8723680663346218</v>
+        <v>0.8723680663346203</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.011409186582712</v>
+        <v>1.011409186582711</v>
       </c>
       <c r="J15">
-        <v>0.947357462151227</v>
+        <v>0.947357462151225</v>
       </c>
       <c r="K15">
-        <v>0.9624407833086978</v>
+        <v>0.9624407833086961</v>
       </c>
       <c r="L15">
-        <v>0.9460513000757647</v>
+        <v>0.9460513000757627</v>
       </c>
       <c r="M15">
-        <v>0.8900897736254983</v>
+        <v>0.8900897736254967</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9233991296681475</v>
+        <v>0.9233991296681451</v>
       </c>
       <c r="D16">
-        <v>0.9540700370964569</v>
+        <v>0.9540700370964545</v>
       </c>
       <c r="E16">
-        <v>0.9377803901244496</v>
+        <v>0.9377803901244469</v>
       </c>
       <c r="F16">
-        <v>0.8852398875862489</v>
+        <v>0.8852398875862465</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.014936495600907</v>
+        <v>1.014936495600906</v>
       </c>
       <c r="J16">
-        <v>0.9549321558870315</v>
+        <v>0.954932155887029</v>
       </c>
       <c r="K16">
-        <v>0.9692819393584876</v>
+        <v>0.9692819393584853</v>
       </c>
       <c r="L16">
-        <v>0.9533315837293359</v>
+        <v>0.9533315837293336</v>
       </c>
       <c r="M16">
-        <v>0.9020003240663914</v>
+        <v>0.9020003240663893</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9289824558680254</v>
+        <v>0.9289824558680251</v>
       </c>
       <c r="D17">
-        <v>0.9586049158403188</v>
+        <v>0.9586049158403186</v>
       </c>
       <c r="E17">
-        <v>0.9426006554785856</v>
+        <v>0.9426006554785855</v>
       </c>
       <c r="F17">
-        <v>0.8929127655742441</v>
+        <v>0.8929127655742438</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.017044940497611</v>
+        <v>1.01704494049761</v>
       </c>
       <c r="J17">
-        <v>0.959472568722373</v>
+        <v>0.9594725687223727</v>
       </c>
       <c r="K17">
-        <v>0.9733798854355987</v>
+        <v>0.9733798854355984</v>
       </c>
       <c r="L17">
         <v>0.9576959620102967</v>
       </c>
       <c r="M17">
-        <v>0.9091008168945637</v>
+        <v>0.9091008168945636</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9321560215175898</v>
+        <v>0.9321560215175884</v>
       </c>
       <c r="D18">
-        <v>0.9611828597671318</v>
+        <v>0.9611828597671306</v>
       </c>
       <c r="E18">
-        <v>0.945341528754211</v>
+        <v>0.9453415287542093</v>
       </c>
       <c r="F18">
-        <v>0.8972588457593186</v>
+        <v>0.8972588457593164</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.018240662935157</v>
       </c>
       <c r="J18">
-        <v>0.9620520269823346</v>
+        <v>0.9620520269823332</v>
       </c>
       <c r="K18">
-        <v>0.9757070453525845</v>
+        <v>0.975707045352583</v>
       </c>
       <c r="L18">
-        <v>0.9601755096117068</v>
+        <v>0.9601755096117054</v>
       </c>
       <c r="M18">
-        <v>0.9131227398720277</v>
+        <v>0.9131227398720255</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9332247619544796</v>
+        <v>0.9332247619544758</v>
       </c>
       <c r="D19">
-        <v>0.9620510656475193</v>
+        <v>0.962051065647516</v>
       </c>
       <c r="E19">
-        <v>0.9462647156197599</v>
+        <v>0.9462647156197562</v>
       </c>
       <c r="F19">
-        <v>0.898720068280791</v>
+        <v>0.8987200682807873</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.018642877934615</v>
+        <v>1.018642877934614</v>
       </c>
       <c r="J19">
-        <v>0.9629204713408842</v>
+        <v>0.9629204713408805</v>
       </c>
       <c r="K19">
-        <v>0.9764903945531898</v>
+        <v>0.9764903945531863</v>
       </c>
       <c r="L19">
-        <v>0.9610103276373817</v>
+        <v>0.961010327637378</v>
       </c>
       <c r="M19">
-        <v>0.914474970530724</v>
+        <v>0.9144749705307202</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9283921915774689</v>
+        <v>0.9283921915774688</v>
       </c>
       <c r="D20">
-        <v>0.9581254583160694</v>
+        <v>0.9581254583160689</v>
       </c>
       <c r="E20">
-        <v>0.9420909501435263</v>
+        <v>0.9420909501435258</v>
       </c>
       <c r="F20">
-        <v>0.8921032316659283</v>
+        <v>0.8921032316659273</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.01682232178762</v>
       </c>
       <c r="J20">
-        <v>0.9589926978074816</v>
+        <v>0.9589926978074814</v>
       </c>
       <c r="K20">
-        <v>0.9729468766251107</v>
+        <v>0.9729468766251104</v>
       </c>
       <c r="L20">
-        <v>0.9572346846343118</v>
+        <v>0.9572346846343114</v>
       </c>
       <c r="M20">
-        <v>0.9083516638508503</v>
+        <v>0.9083516638508491</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9116422435661704</v>
+        <v>0.911642243566168</v>
       </c>
       <c r="D21">
-        <v>0.9445233792899252</v>
+        <v>0.9445233792899227</v>
       </c>
       <c r="E21">
-        <v>0.9276385032868457</v>
+        <v>0.9276385032868438</v>
       </c>
       <c r="F21">
-        <v>0.8689615812150548</v>
+        <v>0.8689615812150521</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010478217840401</v>
+        <v>1.0104782178404</v>
       </c>
       <c r="J21">
-        <v>0.9453623710649174</v>
+        <v>0.9453623710649151</v>
       </c>
       <c r="K21">
-        <v>0.9606379333816664</v>
+        <v>0.9606379333816641</v>
       </c>
       <c r="L21">
-        <v>0.9441339572862221</v>
+        <v>0.94413395728622</v>
       </c>
       <c r="M21">
-        <v>0.8869380622063679</v>
+        <v>0.8869380622063656</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9001509026667093</v>
+        <v>0.9001509026667119</v>
       </c>
       <c r="D22">
-        <v>0.9351957447347524</v>
+        <v>0.9351957447347541</v>
       </c>
       <c r="E22">
-        <v>0.9177375927824241</v>
+        <v>0.9177375927824261</v>
       </c>
       <c r="F22">
-        <v>0.8528714480814403</v>
+        <v>0.8528714480814426</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.006098714459703</v>
+        <v>1.006098714459704</v>
       </c>
       <c r="J22">
-        <v>0.9359979886958286</v>
+        <v>0.9359979886958307</v>
       </c>
       <c r="K22">
-        <v>0.9521704135867822</v>
+        <v>0.9521704135867839</v>
       </c>
       <c r="L22">
-        <v>0.9351360312681485</v>
+        <v>0.9351360312681506</v>
       </c>
       <c r="M22">
-        <v>0.8720546370112343</v>
+        <v>0.8720546370112365</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9063462718407</v>
+        <v>0.9063462718407016</v>
       </c>
       <c r="D23">
-        <v>0.9402241711553531</v>
+        <v>0.9402241711553544</v>
       </c>
       <c r="E23">
-        <v>0.9230739631864121</v>
+        <v>0.9230739631864134</v>
       </c>
       <c r="F23">
-        <v>0.8615698181234498</v>
+        <v>0.861569818123452</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.008462393699612</v>
+        <v>1.008462393699613</v>
       </c>
       <c r="J23">
-        <v>0.94104789948124</v>
+        <v>0.9410478994812415</v>
       </c>
       <c r="K23">
-        <v>0.9567378026088135</v>
+        <v>0.9567378026088148</v>
       </c>
       <c r="L23">
-        <v>0.9399879836066721</v>
+        <v>0.9399879836066735</v>
       </c>
       <c r="M23">
-        <v>0.8800998973000937</v>
+        <v>0.8800998973000957</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9286591613225018</v>
+        <v>0.9286591613225024</v>
       </c>
       <c r="D24">
-        <v>0.9583423104593725</v>
+        <v>0.9583423104593733</v>
       </c>
       <c r="E24">
         <v>0.9423214808155156</v>
       </c>
       <c r="F24">
-        <v>0.8924694214004646</v>
+        <v>0.8924694214004653</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.016923018157238</v>
+        <v>1.016923018157239</v>
       </c>
       <c r="J24">
-        <v>0.9592097420040521</v>
+        <v>0.9592097420040527</v>
       </c>
       <c r="K24">
-        <v>0.9731427281141973</v>
+        <v>0.973142728114198</v>
       </c>
       <c r="L24">
-        <v>0.9574433187414226</v>
+        <v>0.9574433187414227</v>
       </c>
       <c r="M24">
-        <v>0.9086905403922912</v>
+        <v>0.9086905403922918</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9513284136742848</v>
+        <v>0.9513284136742859</v>
       </c>
       <c r="D25">
-        <v>0.9767609404363694</v>
+        <v>0.9767609404363704</v>
       </c>
       <c r="E25">
-        <v>0.9619138917579232</v>
+        <v>0.9619138917579243</v>
       </c>
       <c r="F25">
-        <v>0.923306227409164</v>
+        <v>0.9233062274091656</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025417551063637</v>
+        <v>1.025417551063638</v>
       </c>
       <c r="J25">
-        <v>0.9776126277362034</v>
+        <v>0.9776126277362044</v>
       </c>
       <c r="K25">
-        <v>0.9897310537959705</v>
+        <v>0.9897310537959711</v>
       </c>
       <c r="L25">
-        <v>0.9751336940245536</v>
+        <v>0.9751336940245546</v>
       </c>
       <c r="M25">
-        <v>0.9372244954153784</v>
+        <v>0.93722449541538</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_58/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9675252163915954</v>
+        <v>0.9675252163915934</v>
       </c>
       <c r="D2">
-        <v>0.9899242760834649</v>
+        <v>0.9899242760834631</v>
       </c>
       <c r="E2">
-        <v>0.9759291328161737</v>
+        <v>0.975929132816172</v>
       </c>
       <c r="F2">
-        <v>0.9450747871342805</v>
+        <v>0.9450747871342781</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031407187797429</v>
+        <v>1.031407187797428</v>
       </c>
       <c r="J2">
-        <v>0.9907226115519245</v>
+        <v>0.9907226115519225</v>
       </c>
       <c r="K2">
-        <v>1.001525789709286</v>
+        <v>1.001525789709284</v>
       </c>
       <c r="L2">
-        <v>0.9877343209105978</v>
+        <v>0.9877343209105959</v>
       </c>
       <c r="M2">
-        <v>0.9573563321887194</v>
+        <v>0.9573563321887171</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9784313059829388</v>
+        <v>0.9784313059829398</v>
       </c>
       <c r="D3">
-        <v>0.9987873320996257</v>
+        <v>0.9987873320996262</v>
       </c>
       <c r="E3">
-        <v>0.9853714529180272</v>
+        <v>0.9853714529180277</v>
       </c>
       <c r="F3">
-        <v>0.9596346035242357</v>
+        <v>0.9596346035242359</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.035394266185052</v>
       </c>
       <c r="J3">
-        <v>0.9995277384717595</v>
+        <v>0.9995277384717605</v>
       </c>
       <c r="K3">
-        <v>1.009435752789341</v>
+        <v>1.009435752789342</v>
       </c>
       <c r="L3">
-        <v>0.9961949949962583</v>
+        <v>0.996194994996259</v>
       </c>
       <c r="M3">
-        <v>0.9708114190921188</v>
+        <v>0.970811419092119</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9851517041312993</v>
+        <v>0.9851517041312994</v>
       </c>
       <c r="D4">
         <v>1.004247842867982</v>
       </c>
       <c r="E4">
-        <v>0.9911911233935582</v>
+        <v>0.9911911233935581</v>
       </c>
       <c r="F4">
-        <v>0.968573617709659</v>
+        <v>0.9685736177096582</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -518,13 +518,13 @@
         <v>1.004943011207785</v>
       </c>
       <c r="K4">
-        <v>1.014295269107207</v>
+        <v>1.014295269107206</v>
       </c>
       <c r="L4">
         <v>1.001397039475401</v>
       </c>
       <c r="M4">
-        <v>0.9790667370114748</v>
+        <v>0.9790667370114745</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9879036431554681</v>
+        <v>0.9879036431554674</v>
       </c>
       <c r="D5">
-        <v>1.006483536247018</v>
+        <v>1.006483536247017</v>
       </c>
       <c r="E5">
-        <v>0.9935743809475971</v>
+        <v>0.9935743809475965</v>
       </c>
       <c r="F5">
-        <v>0.9722276578168216</v>
+        <v>0.972227657816821</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038821843486596</v>
+        <v>1.038821843486595</v>
       </c>
       <c r="J5">
-        <v>1.007157970933908</v>
+        <v>1.007157970933907</v>
       </c>
       <c r="K5">
-        <v>1.016281682337249</v>
+        <v>1.016281682337248</v>
       </c>
       <c r="L5">
         <v>1.003524416678437</v>
       </c>
       <c r="M5">
-        <v>0.9824398946301138</v>
+        <v>0.9824398946301134</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9883615974876383</v>
+        <v>0.9883615974876371</v>
       </c>
       <c r="D6">
-        <v>1.006855558802706</v>
+        <v>1.006855558802705</v>
       </c>
       <c r="E6">
-        <v>0.9939709879084007</v>
+        <v>0.9939709879083992</v>
       </c>
       <c r="F6">
-        <v>0.9728353935611526</v>
+        <v>0.9728353935611513</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038986639299748</v>
+        <v>1.038986639299747</v>
       </c>
       <c r="J6">
-        <v>1.00752641533347</v>
+        <v>1.007526415333469</v>
       </c>
       <c r="K6">
-        <v>1.016612037527915</v>
+        <v>1.016612037527914</v>
       </c>
       <c r="L6">
-        <v>1.003878269733415</v>
+        <v>1.003878269733414</v>
       </c>
       <c r="M6">
-        <v>0.9830008290891411</v>
+        <v>0.98300082908914</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9851887549724473</v>
+        <v>0.9851887549724478</v>
       </c>
       <c r="D7">
         <v>1.004277944674469</v>
       </c>
       <c r="E7">
-        <v>0.9912232100261711</v>
+        <v>0.9912232100261716</v>
       </c>
       <c r="F7">
-        <v>0.9686228376822578</v>
+        <v>0.9686228376822579</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -638,7 +638,7 @@
         <v>1.001425692739818</v>
       </c>
       <c r="M7">
-        <v>0.9791121791944924</v>
+        <v>0.9791121791944926</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,19 +646,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9712854102586613</v>
+        <v>0.9712854102586629</v>
       </c>
       <c r="D8">
-        <v>0.9929802120825846</v>
+        <v>0.9929802120825857</v>
       </c>
       <c r="E8">
-        <v>0.9791842847047287</v>
+        <v>0.9791842847047303</v>
       </c>
       <c r="F8">
-        <v>0.9501027431692373</v>
+        <v>0.9501027431692392</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.032786407781402</v>
       </c>
       <c r="J8">
-        <v>0.9937606672242136</v>
+        <v>0.993760667224215</v>
       </c>
       <c r="K8">
-        <v>1.004256118032628</v>
+        <v>1.004256118032629</v>
       </c>
       <c r="L8">
-        <v>0.9906538010510447</v>
+        <v>0.9906538010510463</v>
       </c>
       <c r="M8">
-        <v>0.9620038901129514</v>
+        <v>0.9620038901129532</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.943807229739179</v>
+        <v>0.9438072297391804</v>
       </c>
       <c r="D9">
-        <v>0.970649073253908</v>
+        <v>0.9706490732539089</v>
       </c>
       <c r="E9">
-        <v>0.9554100327276279</v>
+        <v>0.9554100327276291</v>
       </c>
       <c r="F9">
-        <v>0.9131280433771579</v>
+        <v>0.9131280433771584</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.022612261536677</v>
+        <v>1.022612261536678</v>
       </c>
       <c r="J9">
-        <v>0.9715132306561349</v>
+        <v>0.9715132306561363</v>
       </c>
       <c r="K9">
-        <v>0.9842370027000746</v>
+        <v>0.9842370027000754</v>
       </c>
       <c r="L9">
-        <v>0.9692704989193931</v>
+        <v>0.9692704989193943</v>
       </c>
       <c r="M9">
-        <v>0.9278075649966241</v>
+        <v>0.9278075649966245</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9227563216160133</v>
+        <v>0.9227563216160126</v>
       </c>
       <c r="D10">
-        <v>0.9535479842317889</v>
+        <v>0.9535479842317885</v>
       </c>
       <c r="E10">
-        <v>0.9372255876673543</v>
+        <v>0.9372255876673535</v>
       </c>
       <c r="F10">
-        <v>0.8843542352560911</v>
+        <v>0.884354235256091</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.014693372551061</v>
+        <v>1.01469337255106</v>
       </c>
       <c r="J10">
-        <v>0.9544092354356952</v>
+        <v>0.9544092354356949</v>
       </c>
       <c r="K10">
-        <v>0.9688098445295095</v>
+        <v>0.9688098445295092</v>
       </c>
       <c r="L10">
-        <v>0.9528289549038443</v>
+        <v>0.9528289549038437</v>
       </c>
       <c r="M10">
-        <v>0.9011807595211362</v>
+        <v>0.9011807595211361</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9127554957056551</v>
+        <v>0.9127554957056571</v>
       </c>
       <c r="D11">
-        <v>0.9454271959333781</v>
+        <v>0.94542719593338</v>
       </c>
       <c r="E11">
-        <v>0.9285983259210492</v>
+        <v>0.928598325921051</v>
       </c>
       <c r="F11">
-        <v>0.8705105089336954</v>
+        <v>0.870510508933697</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.01090138323487</v>
+        <v>1.010901383234871</v>
       </c>
       <c r="J11">
-        <v>0.9462690221193248</v>
+        <v>0.946269022119327</v>
       </c>
       <c r="K11">
-        <v>0.9614572722902487</v>
+        <v>0.9614572722902502</v>
       </c>
       <c r="L11">
-        <v>0.9450052641502409</v>
+        <v>0.9450052641502428</v>
       </c>
       <c r="M11">
-        <v>0.8883711199161826</v>
+        <v>0.8883711199161841</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9088787674740544</v>
+        <v>0.9088787674740529</v>
       </c>
       <c r="D12">
-        <v>0.9422799319454963</v>
+        <v>0.942279931945495</v>
       </c>
       <c r="E12">
-        <v>0.9252563729066779</v>
+        <v>0.9252563729066761</v>
       </c>
       <c r="F12">
-        <v>0.865109365518924</v>
+        <v>0.8651093655189227</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.009426903695861</v>
+        <v>1.00942690369586</v>
       </c>
       <c r="J12">
-        <v>0.9431113229322265</v>
+        <v>0.9431113229322252</v>
       </c>
       <c r="K12">
-        <v>0.9586033029940438</v>
+        <v>0.9586033029940425</v>
       </c>
       <c r="L12">
-        <v>0.9419707559162495</v>
+        <v>0.9419707559162477</v>
       </c>
       <c r="M12">
-        <v>0.8833742123169488</v>
+        <v>0.8833742123169473</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9097182446886664</v>
+        <v>0.9097182446886687</v>
       </c>
       <c r="D13">
-        <v>0.9429614162708219</v>
+        <v>0.942961416270824</v>
       </c>
       <c r="E13">
-        <v>0.925979933324471</v>
+        <v>0.9259799333244735</v>
       </c>
       <c r="F13">
-        <v>0.8662806812477385</v>
+        <v>0.866280681247741</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.009746397578355</v>
+        <v>1.009746397578356</v>
       </c>
       <c r="J13">
-        <v>0.9437952007788311</v>
+        <v>0.9437952007788334</v>
       </c>
       <c r="K13">
-        <v>0.9592214869825354</v>
+        <v>0.9592214869825372</v>
       </c>
       <c r="L13">
-        <v>0.9426279309126518</v>
+        <v>0.9426279309126543</v>
       </c>
       <c r="M13">
-        <v>0.8844578157868513</v>
+        <v>0.884457815786854</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9124385519162255</v>
+        <v>0.9124385519162236</v>
       </c>
       <c r="D14">
-        <v>0.9451698753603014</v>
+        <v>0.9451698753602998</v>
       </c>
       <c r="E14">
-        <v>0.928325052443246</v>
+        <v>0.9283250524432448</v>
       </c>
       <c r="F14">
-        <v>0.8700696960547697</v>
+        <v>0.8700696960547685</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.010780928482674</v>
+        <v>1.010780928482673</v>
       </c>
       <c r="J14">
-        <v>0.9460109079963659</v>
+        <v>0.9460109079963643</v>
       </c>
       <c r="K14">
-        <v>0.9612240235356392</v>
+        <v>0.9612240235356376</v>
       </c>
       <c r="L14">
-        <v>0.9447572100404433</v>
+        <v>0.944757210040442</v>
       </c>
       <c r="M14">
-        <v>0.8879632784598743</v>
+        <v>0.8879632784598732</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9140921243940902</v>
+        <v>0.9140921243940923</v>
       </c>
       <c r="D15">
-        <v>0.9465124074256359</v>
+        <v>0.9465124074256376</v>
       </c>
       <c r="E15">
-        <v>0.9297508835601781</v>
+        <v>0.9297508835601799</v>
       </c>
       <c r="F15">
-        <v>0.8723680663346203</v>
+        <v>0.8723680663346218</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.011409186582711</v>
+        <v>1.011409186582712</v>
       </c>
       <c r="J15">
-        <v>0.947357462151225</v>
+        <v>0.947357462151227</v>
       </c>
       <c r="K15">
-        <v>0.9624407833086961</v>
+        <v>0.9624407833086978</v>
       </c>
       <c r="L15">
-        <v>0.9460513000757627</v>
+        <v>0.9460513000757647</v>
       </c>
       <c r="M15">
-        <v>0.8900897736254967</v>
+        <v>0.8900897736254983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9233991296681451</v>
+        <v>0.9233991296681475</v>
       </c>
       <c r="D16">
-        <v>0.9540700370964545</v>
+        <v>0.9540700370964569</v>
       </c>
       <c r="E16">
-        <v>0.9377803901244469</v>
+        <v>0.9377803901244496</v>
       </c>
       <c r="F16">
-        <v>0.8852398875862465</v>
+        <v>0.8852398875862489</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.014936495600906</v>
+        <v>1.014936495600907</v>
       </c>
       <c r="J16">
-        <v>0.954932155887029</v>
+        <v>0.9549321558870315</v>
       </c>
       <c r="K16">
-        <v>0.9692819393584853</v>
+        <v>0.9692819393584876</v>
       </c>
       <c r="L16">
-        <v>0.9533315837293336</v>
+        <v>0.9533315837293359</v>
       </c>
       <c r="M16">
-        <v>0.9020003240663893</v>
+        <v>0.9020003240663914</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9289824558680251</v>
+        <v>0.9289824558680254</v>
       </c>
       <c r="D17">
-        <v>0.9586049158403186</v>
+        <v>0.9586049158403188</v>
       </c>
       <c r="E17">
-        <v>0.9426006554785855</v>
+        <v>0.9426006554785856</v>
       </c>
       <c r="F17">
-        <v>0.8929127655742438</v>
+        <v>0.8929127655742441</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.01704494049761</v>
+        <v>1.017044940497611</v>
       </c>
       <c r="J17">
-        <v>0.9594725687223727</v>
+        <v>0.959472568722373</v>
       </c>
       <c r="K17">
-        <v>0.9733798854355984</v>
+        <v>0.9733798854355987</v>
       </c>
       <c r="L17">
         <v>0.9576959620102967</v>
       </c>
       <c r="M17">
-        <v>0.9091008168945636</v>
+        <v>0.9091008168945637</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9321560215175884</v>
+        <v>0.9321560215175898</v>
       </c>
       <c r="D18">
-        <v>0.9611828597671306</v>
+        <v>0.9611828597671318</v>
       </c>
       <c r="E18">
-        <v>0.9453415287542093</v>
+        <v>0.945341528754211</v>
       </c>
       <c r="F18">
-        <v>0.8972588457593164</v>
+        <v>0.8972588457593186</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.018240662935157</v>
       </c>
       <c r="J18">
-        <v>0.9620520269823332</v>
+        <v>0.9620520269823346</v>
       </c>
       <c r="K18">
-        <v>0.975707045352583</v>
+        <v>0.9757070453525845</v>
       </c>
       <c r="L18">
-        <v>0.9601755096117054</v>
+        <v>0.9601755096117068</v>
       </c>
       <c r="M18">
-        <v>0.9131227398720255</v>
+        <v>0.9131227398720277</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9332247619544758</v>
+        <v>0.9332247619544796</v>
       </c>
       <c r="D19">
-        <v>0.962051065647516</v>
+        <v>0.9620510656475193</v>
       </c>
       <c r="E19">
-        <v>0.9462647156197562</v>
+        <v>0.9462647156197599</v>
       </c>
       <c r="F19">
-        <v>0.8987200682807873</v>
+        <v>0.898720068280791</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.018642877934614</v>
+        <v>1.018642877934615</v>
       </c>
       <c r="J19">
-        <v>0.9629204713408805</v>
+        <v>0.9629204713408842</v>
       </c>
       <c r="K19">
-        <v>0.9764903945531863</v>
+        <v>0.9764903945531898</v>
       </c>
       <c r="L19">
-        <v>0.961010327637378</v>
+        <v>0.9610103276373817</v>
       </c>
       <c r="M19">
-        <v>0.9144749705307202</v>
+        <v>0.914474970530724</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9283921915774688</v>
+        <v>0.9283921915774689</v>
       </c>
       <c r="D20">
-        <v>0.9581254583160689</v>
+        <v>0.9581254583160694</v>
       </c>
       <c r="E20">
-        <v>0.9420909501435258</v>
+        <v>0.9420909501435263</v>
       </c>
       <c r="F20">
-        <v>0.8921032316659273</v>
+        <v>0.8921032316659283</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.01682232178762</v>
       </c>
       <c r="J20">
-        <v>0.9589926978074814</v>
+        <v>0.9589926978074816</v>
       </c>
       <c r="K20">
-        <v>0.9729468766251104</v>
+        <v>0.9729468766251107</v>
       </c>
       <c r="L20">
-        <v>0.9572346846343114</v>
+        <v>0.9572346846343118</v>
       </c>
       <c r="M20">
-        <v>0.9083516638508491</v>
+        <v>0.9083516638508503</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.911642243566168</v>
+        <v>0.9116422435661704</v>
       </c>
       <c r="D21">
-        <v>0.9445233792899227</v>
+        <v>0.9445233792899252</v>
       </c>
       <c r="E21">
-        <v>0.9276385032868438</v>
+        <v>0.9276385032868457</v>
       </c>
       <c r="F21">
-        <v>0.8689615812150521</v>
+        <v>0.8689615812150548</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0104782178404</v>
+        <v>1.010478217840401</v>
       </c>
       <c r="J21">
-        <v>0.9453623710649151</v>
+        <v>0.9453623710649174</v>
       </c>
       <c r="K21">
-        <v>0.9606379333816641</v>
+        <v>0.9606379333816664</v>
       </c>
       <c r="L21">
-        <v>0.94413395728622</v>
+        <v>0.9441339572862221</v>
       </c>
       <c r="M21">
-        <v>0.8869380622063656</v>
+        <v>0.8869380622063679</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9001509026667119</v>
+        <v>0.9001509026667093</v>
       </c>
       <c r="D22">
-        <v>0.9351957447347541</v>
+        <v>0.9351957447347524</v>
       </c>
       <c r="E22">
-        <v>0.9177375927824261</v>
+        <v>0.9177375927824241</v>
       </c>
       <c r="F22">
-        <v>0.8528714480814426</v>
+        <v>0.8528714480814403</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.006098714459704</v>
+        <v>1.006098714459703</v>
       </c>
       <c r="J22">
-        <v>0.9359979886958307</v>
+        <v>0.9359979886958286</v>
       </c>
       <c r="K22">
-        <v>0.9521704135867839</v>
+        <v>0.9521704135867822</v>
       </c>
       <c r="L22">
-        <v>0.9351360312681506</v>
+        <v>0.9351360312681485</v>
       </c>
       <c r="M22">
-        <v>0.8720546370112365</v>
+        <v>0.8720546370112343</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9063462718407016</v>
+        <v>0.9063462718407</v>
       </c>
       <c r="D23">
-        <v>0.9402241711553544</v>
+        <v>0.9402241711553531</v>
       </c>
       <c r="E23">
-        <v>0.9230739631864134</v>
+        <v>0.9230739631864121</v>
       </c>
       <c r="F23">
-        <v>0.861569818123452</v>
+        <v>0.8615698181234498</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.008462393699613</v>
+        <v>1.008462393699612</v>
       </c>
       <c r="J23">
-        <v>0.9410478994812415</v>
+        <v>0.94104789948124</v>
       </c>
       <c r="K23">
-        <v>0.9567378026088148</v>
+        <v>0.9567378026088135</v>
       </c>
       <c r="L23">
-        <v>0.9399879836066735</v>
+        <v>0.9399879836066721</v>
       </c>
       <c r="M23">
-        <v>0.8800998973000957</v>
+        <v>0.8800998973000937</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9286591613225024</v>
+        <v>0.9286591613225018</v>
       </c>
       <c r="D24">
-        <v>0.9583423104593733</v>
+        <v>0.9583423104593725</v>
       </c>
       <c r="E24">
         <v>0.9423214808155156</v>
       </c>
       <c r="F24">
-        <v>0.8924694214004653</v>
+        <v>0.8924694214004646</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.016923018157239</v>
+        <v>1.016923018157238</v>
       </c>
       <c r="J24">
-        <v>0.9592097420040527</v>
+        <v>0.9592097420040521</v>
       </c>
       <c r="K24">
-        <v>0.973142728114198</v>
+        <v>0.9731427281141973</v>
       </c>
       <c r="L24">
-        <v>0.9574433187414227</v>
+        <v>0.9574433187414226</v>
       </c>
       <c r="M24">
-        <v>0.9086905403922918</v>
+        <v>0.9086905403922912</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9513284136742859</v>
+        <v>0.9513284136742848</v>
       </c>
       <c r="D25">
-        <v>0.9767609404363704</v>
+        <v>0.9767609404363694</v>
       </c>
       <c r="E25">
-        <v>0.9619138917579243</v>
+        <v>0.9619138917579232</v>
       </c>
       <c r="F25">
-        <v>0.9233062274091656</v>
+        <v>0.923306227409164</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025417551063638</v>
+        <v>1.025417551063637</v>
       </c>
       <c r="J25">
-        <v>0.9776126277362044</v>
+        <v>0.9776126277362034</v>
       </c>
       <c r="K25">
-        <v>0.9897310537959711</v>
+        <v>0.9897310537959705</v>
       </c>
       <c r="L25">
-        <v>0.9751336940245546</v>
+        <v>0.9751336940245536</v>
       </c>
       <c r="M25">
-        <v>0.93722449541538</v>
+        <v>0.9372244954153784</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_58/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9675252163915934</v>
+        <v>0.9703565025380007</v>
       </c>
       <c r="D2">
-        <v>0.9899242760834631</v>
+        <v>0.9921977118946449</v>
       </c>
       <c r="E2">
-        <v>0.975929132816172</v>
+        <v>0.978370792982924</v>
       </c>
       <c r="F2">
-        <v>0.9450747871342781</v>
+        <v>0.9475918357941692</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031407187797428</v>
+        <v>1.032560083269457</v>
       </c>
       <c r="J2">
-        <v>0.9907226115519225</v>
+        <v>0.9934614985117423</v>
       </c>
       <c r="K2">
-        <v>1.001525789709284</v>
+        <v>1.003766825950083</v>
       </c>
       <c r="L2">
-        <v>0.9877343209105959</v>
+        <v>0.9901399141781023</v>
       </c>
       <c r="M2">
-        <v>0.9573563321887171</v>
+        <v>0.9598330308587749</v>
+      </c>
+      <c r="N2">
+        <v>0.9948723277912556</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9784313059829398</v>
+        <v>0.9812264975449241</v>
       </c>
       <c r="D3">
-        <v>0.9987873320996262</v>
+        <v>1.001033458434835</v>
       </c>
       <c r="E3">
-        <v>0.9853714529180277</v>
+        <v>0.987784304391242</v>
       </c>
       <c r="F3">
-        <v>0.9596346035242359</v>
+        <v>0.9620908998261255</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035394266185052</v>
+        <v>1.036534856689373</v>
       </c>
       <c r="J3">
-        <v>0.9995277384717605</v>
+        <v>1.002242368072482</v>
       </c>
       <c r="K3">
-        <v>1.009435752789342</v>
+        <v>1.011653133023959</v>
       </c>
       <c r="L3">
-        <v>0.996194994996259</v>
+        <v>0.9985759108612086</v>
       </c>
       <c r="M3">
-        <v>0.970811419092119</v>
+        <v>0.9732329685756941</v>
+      </c>
+      <c r="N3">
+        <v>1.003665667193951</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9851517041312994</v>
+        <v>0.9879268265371536</v>
       </c>
       <c r="D4">
-        <v>1.004247842867982</v>
+        <v>1.006478861372687</v>
       </c>
       <c r="E4">
-        <v>0.9911911233935581</v>
+        <v>0.9935880480114609</v>
       </c>
       <c r="F4">
-        <v>0.9685736177096582</v>
+        <v>0.9709959735085344</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037829718151361</v>
+        <v>1.03896360666079</v>
       </c>
       <c r="J4">
-        <v>1.004943011207785</v>
+        <v>1.007644489856838</v>
       </c>
       <c r="K4">
-        <v>1.014295269107206</v>
+        <v>1.016499716131844</v>
       </c>
       <c r="L4">
-        <v>1.001397039475401</v>
+        <v>1.00376448067096</v>
       </c>
       <c r="M4">
-        <v>0.9790667370114745</v>
+        <v>0.9814575323483308</v>
+      </c>
+      <c r="N4">
+        <v>1.009075460610873</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9879036431554674</v>
+        <v>0.9906710008433077</v>
       </c>
       <c r="D5">
-        <v>1.006483536247017</v>
+        <v>1.008708727507068</v>
       </c>
       <c r="E5">
-        <v>0.9935743809475965</v>
+        <v>0.9959651656586563</v>
       </c>
       <c r="F5">
-        <v>0.972227657816821</v>
+        <v>0.9746368315226218</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038821843486595</v>
+        <v>1.039953172706744</v>
       </c>
       <c r="J5">
-        <v>1.007157970933907</v>
+        <v>1.009854440221464</v>
       </c>
       <c r="K5">
-        <v>1.016281682337248</v>
+        <v>1.018481177143885</v>
       </c>
       <c r="L5">
-        <v>1.003524416678437</v>
+        <v>1.005886703175565</v>
       </c>
       <c r="M5">
-        <v>0.9824398946301134</v>
+        <v>0.9848187597335668</v>
+      </c>
+      <c r="N5">
+        <v>1.011288549358502</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9883615974876371</v>
+        <v>0.9911276880040794</v>
       </c>
       <c r="D6">
-        <v>1.006855558802705</v>
+        <v>1.009079800134658</v>
       </c>
       <c r="E6">
-        <v>0.9939709879083992</v>
+        <v>0.9963607719335468</v>
       </c>
       <c r="F6">
-        <v>0.9728353935611513</v>
+        <v>0.9752424126989087</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038986639299747</v>
+        <v>1.040117552860308</v>
       </c>
       <c r="J6">
-        <v>1.007526415333469</v>
+        <v>1.010222071728056</v>
       </c>
       <c r="K6">
-        <v>1.016612037527914</v>
+        <v>1.018810727185763</v>
       </c>
       <c r="L6">
-        <v>1.003878269733414</v>
+        <v>1.006239718469401</v>
       </c>
       <c r="M6">
-        <v>0.98300082908914</v>
+        <v>0.9853777451069926</v>
+      </c>
+      <c r="N6">
+        <v>1.011656702944001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9851887549724478</v>
+        <v>0.9879637711166172</v>
       </c>
       <c r="D7">
-        <v>1.004277944674469</v>
+        <v>1.006508883359677</v>
       </c>
       <c r="E7">
-        <v>0.9912232100261716</v>
+        <v>0.9936200505277659</v>
       </c>
       <c r="F7">
-        <v>0.9686228376822579</v>
+        <v>0.971045013301512</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037843096248964</v>
+        <v>1.038976949596678</v>
       </c>
       <c r="J7">
-        <v>1.004972842540341</v>
+        <v>1.007674252317791</v>
       </c>
       <c r="K7">
-        <v>1.014322027216703</v>
+        <v>1.016526406260738</v>
       </c>
       <c r="L7">
-        <v>1.001425692739818</v>
+        <v>1.003793063154536</v>
       </c>
       <c r="M7">
-        <v>0.9791121791944926</v>
+        <v>0.9815028114036635</v>
+      </c>
+      <c r="N7">
+        <v>1.009105265337935</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9712854102586629</v>
+        <v>0.9741037400110945</v>
       </c>
       <c r="D8">
-        <v>0.9929802120825857</v>
+        <v>0.995243826997286</v>
       </c>
       <c r="E8">
-        <v>0.9791842847047303</v>
+        <v>0.9816155830468362</v>
       </c>
       <c r="F8">
-        <v>0.9501027431692392</v>
+        <v>0.9525980123725516</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032786407781402</v>
+        <v>1.033934854295129</v>
       </c>
       <c r="J8">
-        <v>0.993760667224215</v>
+        <v>0.996490768154446</v>
       </c>
       <c r="K8">
-        <v>1.004256118032629</v>
+        <v>1.006488611448021</v>
       </c>
       <c r="L8">
-        <v>0.9906538010510463</v>
+        <v>0.9930504793055341</v>
       </c>
       <c r="M8">
-        <v>0.9620038901129532</v>
+        <v>0.9644608058862837</v>
+      </c>
+      <c r="N8">
+        <v>0.9979058993443142</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9438072297391804</v>
+        <v>0.9467340756469582</v>
       </c>
       <c r="D9">
-        <v>0.9706490732539089</v>
+        <v>0.9729954165589201</v>
       </c>
       <c r="E9">
-        <v>0.9554100327276291</v>
+        <v>0.9579286125381015</v>
       </c>
       <c r="F9">
-        <v>0.9131280433771584</v>
+        <v>0.9158057089503783</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.022612261536678</v>
+        <v>1.023798755404099</v>
       </c>
       <c r="J9">
-        <v>0.9715132306561363</v>
+        <v>0.9743189347272397</v>
       </c>
       <c r="K9">
-        <v>0.9842370027000754</v>
+        <v>0.9865423656195224</v>
       </c>
       <c r="L9">
-        <v>0.9692704989193943</v>
+        <v>0.9717432581753614</v>
       </c>
       <c r="M9">
-        <v>0.9278075649966245</v>
+        <v>0.930430403100075</v>
+      </c>
+      <c r="N9">
+        <v>0.9757025793704963</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9227563216160126</v>
+        <v>0.9257918225572938</v>
       </c>
       <c r="D10">
-        <v>0.9535479842317885</v>
+        <v>0.9559779766501629</v>
       </c>
       <c r="E10">
-        <v>0.9372255876673535</v>
+        <v>0.9398322821133036</v>
       </c>
       <c r="F10">
-        <v>0.884354235256091</v>
+        <v>0.8872162801953744</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.01469337255106</v>
+        <v>1.01591916372881</v>
       </c>
       <c r="J10">
-        <v>0.9544092354356949</v>
+        <v>0.9572938539489405</v>
       </c>
       <c r="K10">
-        <v>0.9688098445295092</v>
+        <v>0.9711903091588823</v>
       </c>
       <c r="L10">
-        <v>0.9528289549038437</v>
+        <v>0.9553800562648554</v>
       </c>
       <c r="M10">
-        <v>0.9011807595211361</v>
+        <v>0.9039715593595846</v>
+      </c>
+      <c r="N10">
+        <v>0.9586533210246878</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9127554957056571</v>
+        <v>0.9158523872786374</v>
       </c>
       <c r="D11">
-        <v>0.94542719593338</v>
+        <v>0.9479047282198256</v>
       </c>
       <c r="E11">
-        <v>0.928598325921051</v>
+        <v>0.931254991963987</v>
       </c>
       <c r="F11">
-        <v>0.870510508933697</v>
+        <v>0.8734780994092258</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.010901383234871</v>
+        <v>1.012149718952055</v>
       </c>
       <c r="J11">
-        <v>0.946269022119327</v>
+        <v>0.9491991699663559</v>
       </c>
       <c r="K11">
-        <v>0.9614572722902502</v>
+        <v>0.9638808232583393</v>
       </c>
       <c r="L11">
-        <v>0.9450052641502428</v>
+        <v>0.9476012287685452</v>
       </c>
       <c r="M11">
-        <v>0.8883711199161841</v>
+        <v>0.8912580619916917</v>
+      </c>
+      <c r="N11">
+        <v>0.9505471416623748</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9088787674740529</v>
+        <v>0.9120014329678457</v>
       </c>
       <c r="D12">
-        <v>0.942279931945495</v>
+        <v>0.9447774767731301</v>
       </c>
       <c r="E12">
-        <v>0.9252563729066761</v>
+        <v>0.927934048746491</v>
       </c>
       <c r="F12">
-        <v>0.8651093655189227</v>
+        <v>0.8681216089789825</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.00942690369586</v>
+        <v>1.010684763229322</v>
       </c>
       <c r="J12">
-        <v>0.9431113229322252</v>
+        <v>0.9460607475962944</v>
       </c>
       <c r="K12">
-        <v>0.9586033029940425</v>
+        <v>0.9610450597560434</v>
       </c>
       <c r="L12">
-        <v>0.9419707559162477</v>
+        <v>0.9445856555399793</v>
       </c>
       <c r="M12">
-        <v>0.8833742123169473</v>
+        <v>0.8863018195368242</v>
+      </c>
+      <c r="N12">
+        <v>0.9474042623725655</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9097182446886687</v>
+        <v>0.912835229366624</v>
       </c>
       <c r="D13">
-        <v>0.942961416270824</v>
+        <v>0.9454545475082163</v>
       </c>
       <c r="E13">
-        <v>0.9259799333244735</v>
+        <v>0.9286529770310823</v>
       </c>
       <c r="F13">
-        <v>0.866280681247741</v>
+        <v>0.8692830647503516</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.009746397578356</v>
+        <v>1.011002155200702</v>
       </c>
       <c r="J13">
-        <v>0.9437952007788334</v>
+        <v>0.9467403690576613</v>
       </c>
       <c r="K13">
-        <v>0.9592214869825372</v>
+        <v>0.9616592254583413</v>
       </c>
       <c r="L13">
-        <v>0.9426279309126543</v>
+        <v>0.9452386524556239</v>
       </c>
       <c r="M13">
-        <v>0.884457815786854</v>
+        <v>0.8873764442261721</v>
+      </c>
+      <c r="N13">
+        <v>0.9480848489743612</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9124385519162236</v>
+        <v>0.9155375071335595</v>
       </c>
       <c r="D14">
-        <v>0.9451698753602998</v>
+        <v>0.9476490088559351</v>
       </c>
       <c r="E14">
-        <v>0.9283250524432448</v>
+        <v>0.9309834000786067</v>
       </c>
       <c r="F14">
-        <v>0.8700696960547685</v>
+        <v>0.8730408541011885</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.010780928482673</v>
+        <v>1.012030025537879</v>
       </c>
       <c r="J14">
-        <v>0.9460109079963643</v>
+        <v>0.9489425959730716</v>
       </c>
       <c r="K14">
-        <v>0.9612240235356376</v>
+        <v>0.9636490297756937</v>
       </c>
       <c r="L14">
-        <v>0.944757210040442</v>
+        <v>0.9473546887089599</v>
       </c>
       <c r="M14">
-        <v>0.8879632784598732</v>
+        <v>0.8908534697467271</v>
+      </c>
+      <c r="N14">
+        <v>0.9502902033045905</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9140921243940923</v>
+        <v>0.9171803961796682</v>
       </c>
       <c r="D15">
-        <v>0.9465124074256376</v>
+        <v>0.9489832536741786</v>
       </c>
       <c r="E15">
-        <v>0.9297508835601799</v>
+        <v>0.9324005268169394</v>
       </c>
       <c r="F15">
-        <v>0.8723680663346218</v>
+        <v>0.8753207693749553</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.011409186582712</v>
+        <v>1.012654344552262</v>
       </c>
       <c r="J15">
-        <v>0.947357462151227</v>
+        <v>0.9502811833545196</v>
       </c>
       <c r="K15">
-        <v>0.9624407833086978</v>
+        <v>0.9648582603073957</v>
       </c>
       <c r="L15">
-        <v>0.9460513000757647</v>
+        <v>0.9486409444956121</v>
       </c>
       <c r="M15">
-        <v>0.8900897736254983</v>
+        <v>0.892963156344127</v>
+      </c>
+      <c r="N15">
+        <v>0.9516306916336582</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9233991296681475</v>
+        <v>0.9264309194224515</v>
       </c>
       <c r="D16">
-        <v>0.9540700370964569</v>
+        <v>0.9564971616477811</v>
       </c>
       <c r="E16">
-        <v>0.9377803901244496</v>
+        <v>0.9403840673171139</v>
       </c>
       <c r="F16">
-        <v>0.8852398875862489</v>
+        <v>0.8880955869302177</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.014936495600907</v>
+        <v>1.016160930833852</v>
       </c>
       <c r="J16">
-        <v>0.9549321558870315</v>
+        <v>0.957814041186672</v>
       </c>
       <c r="K16">
-        <v>0.9692819393584876</v>
+        <v>0.9716598128675347</v>
       </c>
       <c r="L16">
-        <v>0.9533315837293359</v>
+        <v>0.9558799849551509</v>
       </c>
       <c r="M16">
-        <v>0.9020003240663914</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9047853429642825</v>
+      </c>
+      <c r="N16">
+        <v>0.9591742469879633</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9289824558680254</v>
+        <v>0.9319831188667768</v>
       </c>
       <c r="D17">
-        <v>0.9586049158403188</v>
+        <v>0.9610080152263545</v>
       </c>
       <c r="E17">
-        <v>0.9426006554785856</v>
+        <v>0.9451790448201438</v>
       </c>
       <c r="F17">
-        <v>0.8929127655742441</v>
+        <v>0.8957153880284615</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.017044940497611</v>
+        <v>1.018258037553667</v>
       </c>
       <c r="J17">
-        <v>0.959472568722373</v>
+        <v>0.9623316253159739</v>
       </c>
       <c r="K17">
-        <v>0.9733798854355987</v>
+        <v>0.9757360929328024</v>
       </c>
       <c r="L17">
-        <v>0.9576959620102967</v>
+        <v>0.960221776954482</v>
       </c>
       <c r="M17">
-        <v>0.9091008168945637</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9118374807838951</v>
+      </c>
+      <c r="N17">
+        <v>0.963698246604903</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9321560215175898</v>
+        <v>0.9351398425123044</v>
       </c>
       <c r="D18">
-        <v>0.9611828597671318</v>
+        <v>0.9635729815619242</v>
       </c>
       <c r="E18">
-        <v>0.945341528754211</v>
+        <v>0.947906250502757</v>
       </c>
       <c r="F18">
-        <v>0.8972588457593186</v>
+        <v>0.9000328523601236</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.018240662935157</v>
+        <v>1.019447652560278</v>
       </c>
       <c r="J18">
-        <v>0.9620520269823346</v>
+        <v>0.9648988072381518</v>
       </c>
       <c r="K18">
-        <v>0.9757070453525845</v>
+        <v>0.9780515820782728</v>
       </c>
       <c r="L18">
-        <v>0.9601755096117068</v>
+        <v>0.9626891520307174</v>
       </c>
       <c r="M18">
-        <v>0.9131227398720277</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9158333338255162</v>
+      </c>
+      <c r="N18">
+        <v>0.9662690742198701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9332247619544796</v>
+        <v>0.9362030442242312</v>
       </c>
       <c r="D19">
-        <v>0.9620510656475193</v>
+        <v>0.9644369230707266</v>
       </c>
       <c r="E19">
-        <v>0.9462647156197599</v>
+        <v>0.9488249451209545</v>
       </c>
       <c r="F19">
-        <v>0.898720068280791</v>
+        <v>0.9014846789880349</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.018642877934615</v>
+        <v>1.019847863553913</v>
       </c>
       <c r="J19">
-        <v>0.9629204713408842</v>
+        <v>0.9657632267871645</v>
       </c>
       <c r="K19">
-        <v>0.9764903945531898</v>
+        <v>0.9788311016806212</v>
       </c>
       <c r="L19">
-        <v>0.9610103276373817</v>
+        <v>0.9635199749707049</v>
       </c>
       <c r="M19">
-        <v>0.914474970530724</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9171770047316971</v>
+      </c>
+      <c r="N19">
+        <v>0.9671347213437929</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9283921915774689</v>
+        <v>0.9313960536203575</v>
       </c>
       <c r="D20">
-        <v>0.9581254583160694</v>
+        <v>0.9605310244932265</v>
       </c>
       <c r="E20">
-        <v>0.9420909501435263</v>
+        <v>0.9446719368205673</v>
       </c>
       <c r="F20">
-        <v>0.8921032316659283</v>
+        <v>0.8949112974587479</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.01682232178762</v>
+        <v>1.018036581168227</v>
       </c>
       <c r="J20">
-        <v>0.9589926978074816</v>
+        <v>0.9618540924440866</v>
       </c>
       <c r="K20">
-        <v>0.9729468766251107</v>
+        <v>0.9753053051888316</v>
       </c>
       <c r="L20">
-        <v>0.9572346846343118</v>
+        <v>0.9597628156748998</v>
       </c>
       <c r="M20">
-        <v>0.9083516638508503</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9110932868494831</v>
+      </c>
+      <c r="N20">
+        <v>0.9632200355815639</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9116422435661704</v>
+        <v>0.914746417334213</v>
       </c>
       <c r="D21">
-        <v>0.9445233792899252</v>
+        <v>0.9470065628186315</v>
       </c>
       <c r="E21">
-        <v>0.9276385032868457</v>
+        <v>0.9303011038165856</v>
       </c>
       <c r="F21">
-        <v>0.8689615812150548</v>
+        <v>0.8719417668542637</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010478217840401</v>
+        <v>1.011729241122095</v>
       </c>
       <c r="J21">
-        <v>0.9453623710649174</v>
+        <v>0.9482979563425008</v>
       </c>
       <c r="K21">
-        <v>0.9606379333816664</v>
+        <v>0.9630666216191309</v>
       </c>
       <c r="L21">
-        <v>0.9441339572862221</v>
+        <v>0.9467352662913561</v>
       </c>
       <c r="M21">
-        <v>0.8869380622063679</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8898364753036867</v>
+      </c>
+      <c r="N21">
+        <v>0.9496446482118032</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9001509026667093</v>
+        <v>0.9033361099023468</v>
       </c>
       <c r="D22">
-        <v>0.9351957447347524</v>
+        <v>0.9377419757727343</v>
       </c>
       <c r="E22">
-        <v>0.9177375927824241</v>
+        <v>0.9204663118340562</v>
       </c>
       <c r="F22">
-        <v>0.8528714480814403</v>
+        <v>0.8559929372278454</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.006098714459703</v>
+        <v>1.007379811154551</v>
       </c>
       <c r="J22">
-        <v>0.9359979886958286</v>
+        <v>0.9389945356368751</v>
       </c>
       <c r="K22">
-        <v>0.9521704135867822</v>
+        <v>0.9546566043383654</v>
       </c>
       <c r="L22">
-        <v>0.9351360312681485</v>
+        <v>0.9377970868947839</v>
       </c>
       <c r="M22">
-        <v>0.8720546370112343</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8750816999207299</v>
+      </c>
+      <c r="N22">
+        <v>0.9403280155816579</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9063462718407</v>
+        <v>0.9094864195505349</v>
       </c>
       <c r="D23">
-        <v>0.9402241711553531</v>
+        <v>0.9427353076363221</v>
       </c>
       <c r="E23">
-        <v>0.9230739631864121</v>
+        <v>0.9257658986585371</v>
       </c>
       <c r="F23">
-        <v>0.8615698181234498</v>
+        <v>0.8646124697180302</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.008462393699612</v>
+        <v>1.009726731168762</v>
       </c>
       <c r="J23">
-        <v>0.94104789948124</v>
+        <v>0.9440104486900788</v>
       </c>
       <c r="K23">
-        <v>0.9567378026088135</v>
+        <v>0.9591919444107091</v>
       </c>
       <c r="L23">
-        <v>0.9399879836066721</v>
+        <v>0.9426157566018605</v>
       </c>
       <c r="M23">
-        <v>0.8800998973000937</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8830551927421642</v>
+      </c>
+      <c r="N23">
+        <v>0.9453510518067305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9286591613225018</v>
+        <v>0.931661573851283</v>
       </c>
       <c r="D24">
-        <v>0.9583423104593725</v>
+        <v>0.9607467588433735</v>
       </c>
       <c r="E24">
-        <v>0.9423214808155156</v>
+        <v>0.9449012905697035</v>
       </c>
       <c r="F24">
-        <v>0.8924694214004646</v>
+        <v>0.8952750204501989</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.016923018157238</v>
+        <v>1.018136750791768</v>
       </c>
       <c r="J24">
-        <v>0.9592097420040521</v>
+        <v>0.9620700770131493</v>
       </c>
       <c r="K24">
-        <v>0.9731427281141973</v>
+        <v>0.9755001501283649</v>
       </c>
       <c r="L24">
-        <v>0.9574433187414226</v>
+        <v>0.959970400185263</v>
       </c>
       <c r="M24">
-        <v>0.9086905403922912</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9114299160836856</v>
+      </c>
+      <c r="N24">
+        <v>0.9634363268734881</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9513284136742848</v>
+        <v>0.9542221954558875</v>
       </c>
       <c r="D25">
-        <v>0.9767609404363694</v>
+        <v>0.9790819750176727</v>
       </c>
       <c r="E25">
-        <v>0.9619138917579232</v>
+        <v>0.9644057764205713</v>
       </c>
       <c r="F25">
-        <v>0.923306227409164</v>
+        <v>0.9259282428780601</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025417551063637</v>
+        <v>1.026592289621765</v>
       </c>
       <c r="J25">
-        <v>0.9776126277362034</v>
+        <v>0.9803948708803879</v>
       </c>
       <c r="K25">
-        <v>0.9897310537959705</v>
+        <v>0.9920139346316529</v>
       </c>
       <c r="L25">
-        <v>0.9751336940245536</v>
+        <v>0.9775829783017024</v>
       </c>
       <c r="M25">
-        <v>0.9372244954153784</v>
+        <v>0.9397966649344459</v>
+      </c>
+      <c r="N25">
+        <v>0.9817871440499014</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_58/res_bus/vm_pu.xlsx
@@ -421,37 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9703565025380007</v>
+        <v>0.982229065839465</v>
       </c>
       <c r="D2">
-        <v>0.9921977118946449</v>
+        <v>1.003209498202617</v>
       </c>
       <c r="E2">
-        <v>0.978370792982924</v>
-      </c>
-      <c r="F2">
-        <v>0.9475918357941692</v>
+        <v>0.9907323749706992</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032560083269457</v>
+        <v>1.035794149501814</v>
       </c>
       <c r="J2">
-        <v>0.9934614985117423</v>
+        <v>1.004954613038729</v>
       </c>
       <c r="K2">
-        <v>1.003766825950083</v>
+        <v>1.014624299981518</v>
       </c>
       <c r="L2">
-        <v>0.9901399141781023</v>
-      </c>
-      <c r="M2">
-        <v>0.9598330308587749</v>
+        <v>1.002322350528718</v>
       </c>
       <c r="N2">
-        <v>0.9948723277912556</v>
+        <v>1.006381763859149</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +456,31 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9812264975449241</v>
+        <v>0.9897110917395512</v>
       </c>
       <c r="D3">
-        <v>1.001033458434835</v>
+        <v>1.008749456568469</v>
       </c>
       <c r="E3">
-        <v>0.987784304391242</v>
-      </c>
-      <c r="F3">
-        <v>0.9620908998261255</v>
+        <v>0.9969256172822965</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036534856689373</v>
+        <v>1.037666944028384</v>
       </c>
       <c r="J3">
-        <v>1.002242368072482</v>
+        <v>1.010486227505508</v>
       </c>
       <c r="K3">
-        <v>1.011653133023959</v>
+        <v>1.01927159724881</v>
       </c>
       <c r="L3">
-        <v>0.9985759108612086</v>
-      </c>
-      <c r="M3">
-        <v>0.9732329685756941</v>
+        <v>1.007597987139906</v>
       </c>
       <c r="N3">
-        <v>1.003665667193951</v>
+        <v>1.011921233852956</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +491,31 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9879268265371536</v>
+        <v>0.9944030396730981</v>
       </c>
       <c r="D4">
-        <v>1.006478861372687</v>
+        <v>1.012225625744462</v>
       </c>
       <c r="E4">
-        <v>0.9935880480114609</v>
-      </c>
-      <c r="F4">
-        <v>0.9709959735085344</v>
+        <v>1.000816278731102</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03896360666079</v>
+        <v>1.03882809249842</v>
       </c>
       <c r="J4">
-        <v>1.007644489856838</v>
+        <v>1.013951008010427</v>
       </c>
       <c r="K4">
-        <v>1.016499716131844</v>
+        <v>1.0221787039754</v>
       </c>
       <c r="L4">
-        <v>1.00376448067096</v>
-      </c>
-      <c r="M4">
-        <v>0.9814575323483308</v>
+        <v>1.010904861961562</v>
       </c>
       <c r="N4">
-        <v>1.009075460610873</v>
+        <v>1.015390934743608</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +526,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9906710008433077</v>
+        <v>0.996341793263346</v>
       </c>
       <c r="D5">
-        <v>1.008708727507068</v>
+        <v>1.013662374009161</v>
       </c>
       <c r="E5">
-        <v>0.9959651656586563</v>
-      </c>
-      <c r="F5">
-        <v>0.9746368315226218</v>
+        <v>1.002425487253218</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039953172706744</v>
+        <v>1.039304631205474</v>
       </c>
       <c r="J5">
-        <v>1.009854440221464</v>
+        <v>1.015381630034098</v>
       </c>
       <c r="K5">
-        <v>1.018481177143885</v>
+        <v>1.023378118782092</v>
       </c>
       <c r="L5">
-        <v>1.005886703175565</v>
-      </c>
-      <c r="M5">
-        <v>0.9848187597335668</v>
+        <v>1.012270858921058</v>
       </c>
       <c r="N5">
-        <v>1.011288549358502</v>
+        <v>1.016823588414647</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +561,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9911276880040794</v>
+        <v>0.9966653957133629</v>
       </c>
       <c r="D6">
-        <v>1.009079800134658</v>
+        <v>1.013902203143806</v>
       </c>
       <c r="E6">
-        <v>0.9963607719335468</v>
-      </c>
-      <c r="F6">
-        <v>0.9752424126989087</v>
+        <v>1.002694172985662</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040117552860308</v>
+        <v>1.039383977843169</v>
       </c>
       <c r="J6">
-        <v>1.010222071728056</v>
+        <v>1.015620354654351</v>
       </c>
       <c r="K6">
-        <v>1.018810727185763</v>
+        <v>1.023578205981989</v>
       </c>
       <c r="L6">
-        <v>1.006239718469401</v>
-      </c>
-      <c r="M6">
-        <v>0.9853777451069926</v>
+        <v>1.012498833309151</v>
       </c>
       <c r="N6">
-        <v>1.011656702944001</v>
+        <v>1.017062652051243</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +596,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9879637711166172</v>
+        <v>0.9944290754186058</v>
       </c>
       <c r="D7">
-        <v>1.006508883359677</v>
+        <v>1.012244918729338</v>
       </c>
       <c r="E7">
-        <v>0.9936200505277659</v>
-      </c>
-      <c r="F7">
-        <v>0.971045013301512</v>
+        <v>1.000837882958409</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038976949596678</v>
+        <v>1.038834504984127</v>
       </c>
       <c r="J7">
-        <v>1.007674252317791</v>
+        <v>1.013970224276485</v>
       </c>
       <c r="K7">
-        <v>1.016526406260738</v>
+        <v>1.022194818416736</v>
       </c>
       <c r="L7">
-        <v>1.003793063154536</v>
-      </c>
-      <c r="M7">
-        <v>0.9815028114036635</v>
+        <v>1.010923207910067</v>
       </c>
       <c r="N7">
-        <v>1.009105265337935</v>
+        <v>1.015410178298968</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +631,31 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9741037400110945</v>
+        <v>0.9847898708671418</v>
       </c>
       <c r="D8">
-        <v>0.995243826997286</v>
+        <v>1.005105082997656</v>
       </c>
       <c r="E8">
-        <v>0.9816155830468362</v>
-      </c>
-      <c r="F8">
-        <v>0.9525980123725516</v>
+        <v>0.9928505550684189</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033934854295129</v>
+        <v>1.036437891541163</v>
       </c>
       <c r="J8">
-        <v>0.996490768154446</v>
+        <v>1.006848678858702</v>
       </c>
       <c r="K8">
-        <v>1.006488611448021</v>
+        <v>1.016216343905609</v>
       </c>
       <c r="L8">
-        <v>0.9930504793055341</v>
-      </c>
-      <c r="M8">
-        <v>0.9644608058862837</v>
+        <v>1.004128249035031</v>
       </c>
       <c r="N8">
-        <v>0.9979058993443142</v>
+        <v>1.00827851946984</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +666,31 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9467340756469582</v>
+        <v>0.9665582682076312</v>
       </c>
       <c r="D9">
-        <v>0.9729954165589201</v>
+        <v>0.9916247705964468</v>
       </c>
       <c r="E9">
-        <v>0.9579286125381015</v>
-      </c>
-      <c r="F9">
-        <v>0.9158057089503783</v>
+        <v>0.9778049744291488</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023798755404099</v>
+        <v>1.031800485120001</v>
       </c>
       <c r="J9">
-        <v>0.9743189347272397</v>
+        <v>0.9933498397308753</v>
       </c>
       <c r="K9">
-        <v>0.9865423656195224</v>
+        <v>1.004855207473881</v>
       </c>
       <c r="L9">
-        <v>0.9717432581753614</v>
-      </c>
-      <c r="M9">
-        <v>0.930430403100075</v>
+        <v>0.9912687162353903</v>
       </c>
       <c r="N9">
-        <v>0.9757025793704963</v>
+        <v>0.9947605104421121</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +701,31 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9257918225572938</v>
+        <v>0.9534046829918053</v>
       </c>
       <c r="D10">
-        <v>0.9559779766501629</v>
+        <v>0.9819265964948474</v>
       </c>
       <c r="E10">
-        <v>0.9398322821133036</v>
-      </c>
-      <c r="F10">
-        <v>0.8872162801953744</v>
+        <v>0.9670008448967764</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.01591916372881</v>
+        <v>1.028388965519696</v>
       </c>
       <c r="J10">
-        <v>0.9572938539489405</v>
+        <v>0.9835972472528829</v>
       </c>
       <c r="K10">
-        <v>0.9711903091588823</v>
+        <v>0.9966300236439214</v>
       </c>
       <c r="L10">
-        <v>0.9553800562648554</v>
-      </c>
-      <c r="M10">
-        <v>0.9039715593595846</v>
+        <v>0.9819926146312299</v>
       </c>
       <c r="N10">
-        <v>0.9586533210246878</v>
+        <v>0.9849940681641631</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +736,31 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9158523872786374</v>
+        <v>0.9474292120647939</v>
       </c>
       <c r="D11">
-        <v>0.9479047282198256</v>
+        <v>0.9775302723075013</v>
       </c>
       <c r="E11">
-        <v>0.931254991963987</v>
-      </c>
-      <c r="F11">
-        <v>0.8734780994092258</v>
+        <v>0.9621070600487239</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.012149718952055</v>
+        <v>1.026824928611602</v>
       </c>
       <c r="J11">
-        <v>0.9491991699663559</v>
+        <v>0.9791652064908694</v>
       </c>
       <c r="K11">
-        <v>0.9638808232583393</v>
+        <v>0.9928887505910199</v>
       </c>
       <c r="L11">
-        <v>0.9476012287685452</v>
-      </c>
-      <c r="M11">
-        <v>0.8912580619916917</v>
+        <v>0.9777807991168131</v>
       </c>
       <c r="N11">
-        <v>0.9505471416623748</v>
+        <v>0.9805557333959053</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +771,31 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9120014329678457</v>
+        <v>0.9451633319399593</v>
       </c>
       <c r="D12">
-        <v>0.9447774767731301</v>
+        <v>0.9758648912991345</v>
       </c>
       <c r="E12">
-        <v>0.927934048746491</v>
-      </c>
-      <c r="F12">
-        <v>0.8681216089789825</v>
+        <v>0.9602537330238596</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.010684763229322</v>
+        <v>1.026229844473158</v>
       </c>
       <c r="J12">
-        <v>0.9460607475962944</v>
+        <v>0.9774845102777965</v>
       </c>
       <c r="K12">
-        <v>0.9610450597560434</v>
+        <v>0.9914695644109403</v>
       </c>
       <c r="L12">
-        <v>0.9445856555399793</v>
-      </c>
-      <c r="M12">
-        <v>0.8863018195368242</v>
+        <v>0.9761841908874362</v>
       </c>
       <c r="N12">
-        <v>0.9474042623725655</v>
+        <v>0.9788726504014315</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +806,31 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.912835229366624</v>
+        <v>0.9456515425293616</v>
       </c>
       <c r="D13">
-        <v>0.9454545475082163</v>
+        <v>0.9762236361440524</v>
       </c>
       <c r="E13">
-        <v>0.9286529770310823</v>
-      </c>
-      <c r="F13">
-        <v>0.8692830647503516</v>
+        <v>0.960652942885185</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.011002155200702</v>
+        <v>1.02635815060634</v>
       </c>
       <c r="J13">
-        <v>0.9467403690576613</v>
+        <v>0.9778466369598059</v>
       </c>
       <c r="K13">
-        <v>0.9616592254583413</v>
+        <v>0.9917753642463343</v>
       </c>
       <c r="L13">
-        <v>0.9452386524556239</v>
-      </c>
-      <c r="M13">
-        <v>0.8873764442261721</v>
+        <v>0.9765281734423776</v>
       </c>
       <c r="N13">
-        <v>0.9480848489743612</v>
+        <v>0.9792352913448656</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +841,31 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9155375071335595</v>
+        <v>0.9472428856072117</v>
       </c>
       <c r="D14">
-        <v>0.9476490088559351</v>
+        <v>0.9773932897298794</v>
       </c>
       <c r="E14">
-        <v>0.9309834000786067</v>
-      </c>
-      <c r="F14">
-        <v>0.8730408541011885</v>
+        <v>0.9619546087725334</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.012030025537879</v>
+        <v>1.026776033863701</v>
       </c>
       <c r="J14">
-        <v>0.9489425959730716</v>
+        <v>0.9790270011600833</v>
       </c>
       <c r="K14">
-        <v>0.9636490297756937</v>
+        <v>0.9927720579982812</v>
       </c>
       <c r="L14">
-        <v>0.9473546887089599</v>
-      </c>
-      <c r="M14">
-        <v>0.8908534697467271</v>
+        <v>0.977649496631557</v>
       </c>
       <c r="N14">
-        <v>0.9502902033045905</v>
+        <v>0.9804173317976973</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +876,31 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9171803961796682</v>
+        <v>0.9482170879567645</v>
       </c>
       <c r="D15">
-        <v>0.9489832536741786</v>
+        <v>0.9781095694967922</v>
       </c>
       <c r="E15">
-        <v>0.9324005268169394</v>
-      </c>
-      <c r="F15">
-        <v>0.8753207693749553</v>
+        <v>0.9627517938306998</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.012654344552262</v>
+        <v>1.027031597953945</v>
       </c>
       <c r="J15">
-        <v>0.9502811833545196</v>
+        <v>0.9797496013667309</v>
       </c>
       <c r="K15">
-        <v>0.9648582603073957</v>
+        <v>0.9933821624044682</v>
       </c>
       <c r="L15">
-        <v>0.9486409444956121</v>
-      </c>
-      <c r="M15">
-        <v>0.892963156344127</v>
+        <v>0.9783360291263266</v>
       </c>
       <c r="N15">
-        <v>0.9516306916336582</v>
+        <v>0.9811409581795217</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +911,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9264309194224515</v>
+        <v>0.9537950071569093</v>
       </c>
       <c r="D16">
-        <v>0.9564971616477811</v>
+        <v>0.9822139860578208</v>
       </c>
       <c r="E16">
-        <v>0.9403840673171139</v>
-      </c>
-      <c r="F16">
-        <v>0.8880955869302177</v>
+        <v>0.9673208270318067</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.016160930833852</v>
+        <v>1.028490846766875</v>
       </c>
       <c r="J16">
-        <v>0.957814041186672</v>
+        <v>0.9838867329632367</v>
       </c>
       <c r="K16">
-        <v>0.9716598128675347</v>
+        <v>0.996874326697037</v>
       </c>
       <c r="L16">
-        <v>0.9558799849551509</v>
-      </c>
-      <c r="M16">
-        <v>0.9047853429642825</v>
+        <v>0.982267793857997</v>
       </c>
       <c r="N16">
-        <v>0.9591742469879633</v>
+        <v>0.98528396497743</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +946,31 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9319831188667768</v>
+        <v>0.9572161212426743</v>
       </c>
       <c r="D17">
-        <v>0.9610080152263545</v>
+        <v>0.9847339879419761</v>
       </c>
       <c r="E17">
-        <v>0.9451790448201438</v>
-      </c>
-      <c r="F17">
-        <v>0.8957153880284615</v>
+        <v>0.9701270484628793</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.018258037553667</v>
+        <v>1.029382227296067</v>
       </c>
       <c r="J17">
-        <v>0.9623316253159739</v>
+        <v>0.9864238561716256</v>
       </c>
       <c r="K17">
-        <v>0.9757360929328024</v>
+        <v>0.9990150870670467</v>
       </c>
       <c r="L17">
-        <v>0.960221776954482</v>
-      </c>
-      <c r="M17">
-        <v>0.9118374807838951</v>
+        <v>0.9846799487083219</v>
       </c>
       <c r="N17">
-        <v>0.963698246604903</v>
+        <v>0.9878246911917874</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +981,31 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9351398425123044</v>
+        <v>0.9591849132571539</v>
       </c>
       <c r="D18">
-        <v>0.9635729815619242</v>
+        <v>0.9861850676715553</v>
       </c>
       <c r="E18">
-        <v>0.947906250502757</v>
-      </c>
-      <c r="F18">
-        <v>0.9000328523601236</v>
+        <v>0.9717433111224496</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.019447652560278</v>
+        <v>1.029893857755277</v>
       </c>
       <c r="J18">
-        <v>0.9648988072381518</v>
+        <v>0.9878837666960124</v>
       </c>
       <c r="K18">
-        <v>0.9780515820782728</v>
+        <v>1.000246603278545</v>
       </c>
       <c r="L18">
-        <v>0.9626891520307174</v>
-      </c>
-      <c r="M18">
-        <v>0.9158333338255162</v>
+        <v>0.9860682938062274</v>
       </c>
       <c r="N18">
-        <v>0.9662690742198701</v>
+        <v>0.9892866749565726</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1016,31 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9362030442242312</v>
+        <v>0.9598518143086783</v>
       </c>
       <c r="D19">
-        <v>0.9644369230707266</v>
+        <v>0.9866767394148379</v>
       </c>
       <c r="E19">
-        <v>0.9488249451209545</v>
-      </c>
-      <c r="F19">
-        <v>0.9014846789880349</v>
+        <v>0.9722910173247122</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.019847863553913</v>
+        <v>1.030066933881696</v>
       </c>
       <c r="J19">
-        <v>0.9657632267871645</v>
+        <v>0.9883782596605291</v>
       </c>
       <c r="K19">
-        <v>0.9788311016806212</v>
+        <v>1.000663679771902</v>
       </c>
       <c r="L19">
-        <v>0.9635199749707049</v>
-      </c>
-      <c r="M19">
-        <v>0.9171770047316971</v>
+        <v>0.9865386042531131</v>
       </c>
       <c r="N19">
-        <v>0.9671347213437929</v>
+        <v>0.9897818701578178</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1051,31 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9313960536203575</v>
+        <v>0.9568518573184641</v>
       </c>
       <c r="D20">
-        <v>0.9605310244932265</v>
+        <v>0.98446557864481</v>
       </c>
       <c r="E20">
-        <v>0.9446719368205673</v>
-      </c>
-      <c r="F20">
-        <v>0.8949112974587479</v>
+        <v>0.9698281155332232</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.018036581168227</v>
+        <v>1.029287456151173</v>
       </c>
       <c r="J20">
-        <v>0.9618540924440866</v>
+        <v>0.9861537309612433</v>
       </c>
       <c r="K20">
-        <v>0.9753053051888316</v>
+        <v>0.9987871950145717</v>
       </c>
       <c r="L20">
-        <v>0.9597628156748998</v>
-      </c>
-      <c r="M20">
-        <v>0.9110932868494831</v>
+        <v>0.9844230928742288</v>
       </c>
       <c r="N20">
-        <v>0.9632200355815639</v>
+        <v>0.9875541823726222</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1086,31 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.914746417334213</v>
+        <v>0.946775590909966</v>
       </c>
       <c r="D21">
-        <v>0.9470065628186315</v>
+        <v>0.9770497744798698</v>
       </c>
       <c r="E21">
-        <v>0.9303011038165856</v>
-      </c>
-      <c r="F21">
-        <v>0.8719417668542637</v>
+        <v>0.9615723099125637</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.011729241122095</v>
+        <v>1.02665337723295</v>
       </c>
       <c r="J21">
-        <v>0.9482979563425008</v>
+        <v>0.9786803904207536</v>
       </c>
       <c r="K21">
-        <v>0.9630666216191309</v>
+        <v>0.9924793930961284</v>
       </c>
       <c r="L21">
-        <v>0.9467352662913561</v>
-      </c>
-      <c r="M21">
-        <v>0.8898364753036867</v>
+        <v>0.9773202071425805</v>
       </c>
       <c r="N21">
-        <v>0.9496446482118032</v>
+        <v>0.980070228831361</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1121,31 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9033361099023468</v>
+        <v>0.9401696361396307</v>
       </c>
       <c r="D22">
-        <v>0.9377419757727343</v>
+        <v>0.9721980766084538</v>
       </c>
       <c r="E22">
-        <v>0.9204663118340562</v>
-      </c>
-      <c r="F22">
-        <v>0.8559929372278454</v>
+        <v>0.9561739177888871</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.007379811154551</v>
+        <v>1.024914814283357</v>
       </c>
       <c r="J22">
-        <v>0.9389945356368751</v>
+        <v>0.9737805266417244</v>
       </c>
       <c r="K22">
-        <v>0.9546566043383654</v>
+        <v>0.9883411738180081</v>
       </c>
       <c r="L22">
-        <v>0.9377970868947839</v>
-      </c>
-      <c r="M22">
-        <v>0.8750816999207299</v>
+        <v>0.9726666127377065</v>
       </c>
       <c r="N22">
-        <v>0.9403280155816579</v>
+        <v>0.9751634066837434</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1156,31 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9094864195505349</v>
+        <v>0.9436988223907417</v>
       </c>
       <c r="D23">
-        <v>0.9427353076363221</v>
+        <v>0.9747890178313046</v>
       </c>
       <c r="E23">
-        <v>0.9257658986585371</v>
-      </c>
-      <c r="F23">
-        <v>0.8646124697180302</v>
+        <v>0.9590565711719087</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.009726731168762</v>
+        <v>1.02584467510366</v>
       </c>
       <c r="J23">
-        <v>0.9440104486900788</v>
+        <v>0.9763982224459541</v>
       </c>
       <c r="K23">
-        <v>0.9591919444107091</v>
+        <v>0.9905521837627652</v>
       </c>
       <c r="L23">
-        <v>0.9426157566018605</v>
-      </c>
-      <c r="M23">
-        <v>0.8830551927421642</v>
+        <v>0.9751524169979986</v>
       </c>
       <c r="N23">
-        <v>0.9453510518067305</v>
+        <v>0.9777848199162688</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1191,31 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.931661573851283</v>
+        <v>0.9570165346575525</v>
       </c>
       <c r="D24">
-        <v>0.9607467588433735</v>
+        <v>0.9845869191269115</v>
       </c>
       <c r="E24">
-        <v>0.9449012905697035</v>
-      </c>
-      <c r="F24">
-        <v>0.8952750204501989</v>
+        <v>0.9699632537547077</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.018136750791768</v>
+        <v>1.029330304711047</v>
       </c>
       <c r="J24">
-        <v>0.9620700770131493</v>
+        <v>0.9862758503457956</v>
       </c>
       <c r="K24">
-        <v>0.9755001501283649</v>
+        <v>0.9988902224460035</v>
       </c>
       <c r="L24">
-        <v>0.959970400185263</v>
-      </c>
-      <c r="M24">
-        <v>0.9114299160836856</v>
+        <v>0.9845392123141927</v>
       </c>
       <c r="N24">
-        <v>0.9634363268734881</v>
+        <v>0.9876764751807077</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1226,31 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9542221954558875</v>
+        <v>0.9714346657080406</v>
       </c>
       <c r="D25">
-        <v>0.9790819750176727</v>
+        <v>0.9952265271161662</v>
       </c>
       <c r="E25">
-        <v>0.9644057764205713</v>
-      </c>
-      <c r="F25">
-        <v>0.9259282428780601</v>
+        <v>0.9818212555854282</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026592289621765</v>
+        <v>1.033052421026028</v>
       </c>
       <c r="J25">
-        <v>0.9803948708803879</v>
+        <v>0.9969631498395183</v>
       </c>
       <c r="K25">
-        <v>0.9920139346316529</v>
+        <v>1.0078993998438</v>
       </c>
       <c r="L25">
-        <v>0.9775829783017024</v>
-      </c>
-      <c r="M25">
-        <v>0.9397966649344459</v>
+        <v>0.9947084843665832</v>
       </c>
       <c r="N25">
-        <v>0.9817871440499014</v>
+        <v>0.9983789518655621</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_58/res_bus/vm_pu.xlsx
@@ -421,31 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.982229065839465</v>
+        <v>1.005380666912176</v>
       </c>
       <c r="D2">
-        <v>1.003209498202617</v>
+        <v>1.021150359608113</v>
       </c>
       <c r="E2">
-        <v>0.9907323749706992</v>
+        <v>1.010976064749848</v>
+      </c>
+      <c r="F2">
+        <v>0.9708654441020083</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035794149501814</v>
+        <v>1.044186573050264</v>
       </c>
       <c r="J2">
-        <v>1.004954613038729</v>
+        <v>1.027401625613137</v>
       </c>
       <c r="K2">
-        <v>1.014624299981518</v>
+        <v>1.032322695029396</v>
       </c>
       <c r="L2">
-        <v>1.002322350528718</v>
+        <v>1.022284574461383</v>
+      </c>
+      <c r="M2">
+        <v>0.982746166232034</v>
       </c>
       <c r="N2">
-        <v>1.006381763859149</v>
+        <v>1.012701763885456</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,31 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9897110917395512</v>
+        <v>1.010298168042779</v>
       </c>
       <c r="D3">
-        <v>1.008749456568469</v>
+        <v>1.024896215180813</v>
       </c>
       <c r="E3">
-        <v>0.9969256172822965</v>
+        <v>1.014943657120663</v>
+      </c>
+      <c r="F3">
+        <v>0.9830639957912869</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037666944028384</v>
+        <v>1.046420907728542</v>
       </c>
       <c r="J3">
-        <v>1.010486227505508</v>
+        <v>1.030511977888782</v>
       </c>
       <c r="K3">
-        <v>1.01927159724881</v>
+        <v>1.035220153941053</v>
       </c>
       <c r="L3">
-        <v>1.007597987139906</v>
+        <v>1.025388835956775</v>
+      </c>
+      <c r="M3">
+        <v>0.993918262669388</v>
       </c>
       <c r="N3">
-        <v>1.011921233852956</v>
+        <v>1.013770760180068</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -491,31 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9944030396730981</v>
+        <v>1.013398376054851</v>
       </c>
       <c r="D4">
-        <v>1.012225625744462</v>
+        <v>1.027256833972362</v>
       </c>
       <c r="E4">
-        <v>1.000816278731102</v>
+        <v>1.017450141810022</v>
+      </c>
+      <c r="F4">
+        <v>0.9906077359323004</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03882809249842</v>
+        <v>1.047808923537717</v>
       </c>
       <c r="J4">
-        <v>1.013951008010427</v>
+        <v>1.032465450518086</v>
       </c>
       <c r="K4">
-        <v>1.0221787039754</v>
+        <v>1.037037056899967</v>
       </c>
       <c r="L4">
-        <v>1.010904861961562</v>
+        <v>1.02734242392712</v>
+      </c>
+      <c r="M4">
+        <v>1.000820854857401</v>
       </c>
       <c r="N4">
-        <v>1.015390934743608</v>
+        <v>1.014441833993936</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -526,31 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.996341793263346</v>
+        <v>1.014683142014154</v>
       </c>
       <c r="D5">
-        <v>1.013662374009161</v>
+        <v>1.028234908802514</v>
       </c>
       <c r="E5">
-        <v>1.002425487253218</v>
+        <v>1.018490063270246</v>
+      </c>
+      <c r="F5">
+        <v>0.9937026819333219</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039304631205474</v>
+        <v>1.048379377923758</v>
       </c>
       <c r="J5">
-        <v>1.015381630034098</v>
+        <v>1.033273260758786</v>
       </c>
       <c r="K5">
-        <v>1.023378118782092</v>
+        <v>1.037787733752424</v>
       </c>
       <c r="L5">
-        <v>1.012270858921058</v>
+        <v>1.02815119884597</v>
+      </c>
+      <c r="M5">
+        <v>1.003651183995093</v>
       </c>
       <c r="N5">
-        <v>1.016823588414647</v>
+        <v>1.014719253979029</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -561,31 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9966653957133629</v>
+        <v>1.014897798924603</v>
       </c>
       <c r="D6">
-        <v>1.013902203143806</v>
+        <v>1.028398313305466</v>
       </c>
       <c r="E6">
-        <v>1.002694172985662</v>
+        <v>1.01866388166812</v>
+      </c>
+      <c r="F6">
+        <v>0.9942180461580239</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039383977843169</v>
+        <v>1.048474413789724</v>
       </c>
       <c r="J6">
-        <v>1.015620354654351</v>
+        <v>1.033408127834889</v>
       </c>
       <c r="K6">
-        <v>1.023578205981989</v>
+        <v>1.037913024186078</v>
       </c>
       <c r="L6">
-        <v>1.012498833309151</v>
+        <v>1.028286280158782</v>
+      </c>
+      <c r="M6">
+        <v>1.004122390828527</v>
       </c>
       <c r="N6">
-        <v>1.017062652051243</v>
+        <v>1.014765564979757</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -596,31 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9944290754186058</v>
+        <v>1.013415614832749</v>
       </c>
       <c r="D7">
-        <v>1.012244918729338</v>
+        <v>1.027269958363761</v>
       </c>
       <c r="E7">
-        <v>1.000837882958409</v>
+        <v>1.017464090592723</v>
+      </c>
+      <c r="F7">
+        <v>0.9906493823027122</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038834504984127</v>
+        <v>1.0478165963886</v>
       </c>
       <c r="J7">
-        <v>1.013970224276485</v>
+        <v>1.032476296382918</v>
       </c>
       <c r="K7">
-        <v>1.022194818416736</v>
+        <v>1.037047138249888</v>
       </c>
       <c r="L7">
-        <v>1.010923207910067</v>
+        <v>1.027353279149255</v>
+      </c>
+      <c r="M7">
+        <v>1.000858946785615</v>
       </c>
       <c r="N7">
-        <v>1.015410178298968</v>
+        <v>1.014445559058572</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -631,31 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9847898708671418</v>
+        <v>1.007060124668273</v>
       </c>
       <c r="D8">
-        <v>1.005105082997656</v>
+        <v>1.022429885815865</v>
       </c>
       <c r="E8">
-        <v>0.9928505550684189</v>
+        <v>1.012330002156001</v>
+      </c>
+      <c r="F8">
+        <v>0.975065074529157</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036437891541163</v>
+        <v>1.044954120669912</v>
       </c>
       <c r="J8">
-        <v>1.006848678858702</v>
+        <v>1.028465491297194</v>
       </c>
       <c r="K8">
-        <v>1.016216343905609</v>
+        <v>1.03331436532787</v>
       </c>
       <c r="L8">
-        <v>1.004128249035031</v>
+        <v>1.023345506287593</v>
+      </c>
+      <c r="M8">
+        <v>0.9865937449715959</v>
       </c>
       <c r="N8">
-        <v>1.00827851946984</v>
+        <v>1.013067463438457</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -666,31 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9665582682076312</v>
+        <v>0.9951833968067184</v>
       </c>
       <c r="D9">
-        <v>0.9916247705964468</v>
+        <v>1.013375545523056</v>
       </c>
       <c r="E9">
-        <v>0.9778049744291488</v>
+        <v>1.00277861579523</v>
+      </c>
+      <c r="F9">
+        <v>0.9445335695081356</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031800485120001</v>
+        <v>1.039427798545617</v>
       </c>
       <c r="J9">
-        <v>0.9933498397308753</v>
+        <v>1.020907395829792</v>
       </c>
       <c r="K9">
-        <v>1.004855207473881</v>
+        <v>1.026255278250576</v>
       </c>
       <c r="L9">
-        <v>0.9912687162353903</v>
+        <v>1.015826772186669</v>
+      </c>
+      <c r="M9">
+        <v>0.9585955769101477</v>
       </c>
       <c r="N9">
-        <v>0.9947605104421121</v>
+        <v>1.010468514025433</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -701,31 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9534046829918053</v>
+        <v>0.9867254745326842</v>
       </c>
       <c r="D10">
-        <v>0.9819265964948474</v>
+        <v>1.006916601074222</v>
       </c>
       <c r="E10">
-        <v>0.9670008448967764</v>
+        <v>0.9960077781791975</v>
+      </c>
+      <c r="F10">
+        <v>0.9214189626463641</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028388965519696</v>
+        <v>1.035350820404271</v>
       </c>
       <c r="J10">
-        <v>0.9835972472528829</v>
+        <v>1.01547584827315</v>
       </c>
       <c r="K10">
-        <v>0.9966300236439214</v>
+        <v>1.02116208709458</v>
       </c>
       <c r="L10">
-        <v>0.9819926146312299</v>
+        <v>1.010449489487529</v>
+      </c>
+      <c r="M10">
+        <v>0.9373684172858944</v>
       </c>
       <c r="N10">
-        <v>0.9849940681641631</v>
+        <v>1.008600277667801</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -736,31 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9474292120647939</v>
+        <v>0.9829110888878214</v>
       </c>
       <c r="D11">
-        <v>0.9775302723075013</v>
+        <v>1.003999411987923</v>
       </c>
       <c r="E11">
-        <v>0.9621070600487239</v>
+        <v>0.9929619693948122</v>
+      </c>
+      <c r="F11">
+        <v>0.9105379492440643</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026824928611602</v>
+        <v>1.033471785110367</v>
       </c>
       <c r="J11">
-        <v>0.9791652064908694</v>
+        <v>1.013012481613499</v>
       </c>
       <c r="K11">
-        <v>0.9928887505910199</v>
+        <v>1.018846297337838</v>
       </c>
       <c r="L11">
-        <v>0.9777807991168131</v>
+        <v>1.008017844484834</v>
+      </c>
+      <c r="M11">
+        <v>0.9273701683396648</v>
       </c>
       <c r="N11">
-        <v>0.9805557333959053</v>
+        <v>1.0077530787657</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -771,31 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9451633319399593</v>
+        <v>0.9814688449008235</v>
       </c>
       <c r="D12">
-        <v>0.9758648912991345</v>
+        <v>1.002895533911036</v>
       </c>
       <c r="E12">
-        <v>0.9602537330238596</v>
+        <v>0.9918115069540974</v>
+      </c>
+      <c r="F12">
+        <v>0.9063398791970814</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026229844473158</v>
+        <v>1.032754439346083</v>
       </c>
       <c r="J12">
-        <v>0.9774845102777965</v>
+        <v>1.012078723063136</v>
       </c>
       <c r="K12">
-        <v>0.9914695644109403</v>
+        <v>1.01796746951919</v>
       </c>
       <c r="L12">
-        <v>0.9761841908874362</v>
+        <v>1.007097285188862</v>
+      </c>
+      <c r="M12">
+        <v>0.9235120000958223</v>
       </c>
       <c r="N12">
-        <v>0.9788726504014315</v>
+        <v>1.00743197975517</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -806,31 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9456515425293616</v>
+        <v>0.9817794086130364</v>
       </c>
       <c r="D13">
-        <v>0.9762236361440524</v>
+        <v>1.003133279810215</v>
       </c>
       <c r="E13">
-        <v>0.960652942885185</v>
+        <v>0.9920591870131752</v>
+      </c>
+      <c r="F13">
+        <v>0.9072479460369944</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02635815060634</v>
+        <v>1.032909233728311</v>
       </c>
       <c r="J13">
-        <v>0.9778466369598059</v>
+        <v>1.012279903771907</v>
       </c>
       <c r="K13">
-        <v>0.9917753642463343</v>
+        <v>1.018156863254259</v>
       </c>
       <c r="L13">
-        <v>0.9765281734423776</v>
+        <v>1.007295567050918</v>
+      </c>
+      <c r="M13">
+        <v>0.9243465715146714</v>
       </c>
       <c r="N13">
-        <v>0.9792352913448656</v>
+        <v>1.007501159221015</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -841,31 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9472428856072117</v>
+        <v>0.9827924078405648</v>
       </c>
       <c r="D14">
-        <v>0.9773932897298794</v>
+        <v>1.003908594016033</v>
       </c>
       <c r="E14">
-        <v>0.9619546087725334</v>
+        <v>0.9928672748774499</v>
+      </c>
+      <c r="F14">
+        <v>0.9101942991376982</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026776033863701</v>
+        <v>1.033412900180177</v>
       </c>
       <c r="J14">
-        <v>0.9790270011600833</v>
+        <v>1.01293569279565</v>
       </c>
       <c r="K14">
-        <v>0.9927720579982812</v>
+        <v>1.018774047140902</v>
       </c>
       <c r="L14">
-        <v>0.977649496631557</v>
+        <v>1.007942116598362</v>
+      </c>
+      <c r="M14">
+        <v>0.9270543548313369</v>
       </c>
       <c r="N14">
-        <v>0.9804173317976973</v>
+        <v>1.007726671854715</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -876,31 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9482170879567645</v>
+        <v>0.9834130963354297</v>
       </c>
       <c r="D15">
-        <v>0.9781095694967922</v>
+        <v>1.00438352486125</v>
       </c>
       <c r="E15">
-        <v>0.9627517938306998</v>
+        <v>0.9933625644635622</v>
+      </c>
+      <c r="F15">
+        <v>0.9119880375843122</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027031597953945</v>
+        <v>1.033720577007239</v>
       </c>
       <c r="J15">
-        <v>0.9797496013667309</v>
+        <v>1.013337192560557</v>
       </c>
       <c r="K15">
-        <v>0.9933821624044682</v>
+        <v>1.019151774322292</v>
       </c>
       <c r="L15">
-        <v>0.9783360291263266</v>
+        <v>1.008338117576198</v>
+      </c>
+      <c r="M15">
+        <v>0.9287027692179712</v>
       </c>
       <c r="N15">
-        <v>0.9811409581795217</v>
+        <v>1.007864745340455</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -911,31 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9537950071569093</v>
+        <v>0.9869752124819448</v>
       </c>
       <c r="D16">
-        <v>0.9822139860578208</v>
+        <v>1.00710749100295</v>
       </c>
       <c r="E16">
-        <v>0.9673208270318067</v>
+        <v>0.9962073571757191</v>
+      </c>
+      <c r="F16">
+        <v>0.9221207223474746</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028490846766875</v>
+        <v>1.035472946903284</v>
       </c>
       <c r="J16">
-        <v>0.9838867329632367</v>
+        <v>1.015636824494275</v>
       </c>
       <c r="K16">
-        <v>0.996874326697037</v>
+        <v>1.021313288188501</v>
       </c>
       <c r="L16">
-        <v>0.982267793857997</v>
+        <v>1.010608548062037</v>
+      </c>
+      <c r="M16">
+        <v>0.9380131410551593</v>
       </c>
       <c r="N16">
-        <v>0.98528396497743</v>
+        <v>1.008655644415722</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,31 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9572161212426743</v>
+        <v>0.9891672782834897</v>
       </c>
       <c r="D17">
-        <v>0.9847339879419761</v>
+        <v>1.008782515849891</v>
       </c>
       <c r="E17">
-        <v>0.9701270484628793</v>
+        <v>0.9979600317515926</v>
+      </c>
+      <c r="F17">
+        <v>0.928227427588186</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029382227296067</v>
+        <v>1.036540273664296</v>
       </c>
       <c r="J17">
-        <v>0.9864238561716256</v>
+        <v>1.017048202496157</v>
       </c>
       <c r="K17">
-        <v>0.9990150870670467</v>
+        <v>1.022638288358003</v>
       </c>
       <c r="L17">
-        <v>0.9846799487083219</v>
+        <v>1.012003923793155</v>
+      </c>
+      <c r="M17">
+        <v>0.9436229030379045</v>
       </c>
       <c r="N17">
-        <v>0.9878246911917874</v>
+        <v>1.009141092663444</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -981,31 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9591849132571539</v>
+        <v>0.9904314010429627</v>
       </c>
       <c r="D18">
-        <v>0.9861850676715553</v>
+        <v>1.009748083144093</v>
       </c>
       <c r="E18">
-        <v>0.9717433111224496</v>
+        <v>0.9989714930050396</v>
+      </c>
+      <c r="F18">
+        <v>0.9317072379620355</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029893857755277</v>
+        <v>1.037152041599061</v>
       </c>
       <c r="J18">
-        <v>0.9878837666960124</v>
+        <v>1.017860836853827</v>
       </c>
       <c r="K18">
-        <v>1.000246603278545</v>
+        <v>1.023400647012878</v>
       </c>
       <c r="L18">
-        <v>0.9860682938062274</v>
+        <v>1.012808003467169</v>
+      </c>
+      <c r="M18">
+        <v>0.946818999072218</v>
       </c>
       <c r="N18">
-        <v>0.9892866749565726</v>
+        <v>1.009420608827237</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1016,31 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9598518143086783</v>
+        <v>0.990860048839023</v>
       </c>
       <c r="D19">
-        <v>0.9866767394148379</v>
+        <v>1.010075434181389</v>
       </c>
       <c r="E19">
-        <v>0.9722910173247122</v>
+        <v>0.9993145891782143</v>
+      </c>
+      <c r="F19">
+        <v>0.9328804900256863</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030066933881696</v>
+        <v>1.037358870108332</v>
       </c>
       <c r="J19">
-        <v>0.9883782596605291</v>
+        <v>1.018136180064552</v>
       </c>
       <c r="K19">
-        <v>1.000663679771902</v>
+        <v>1.023658866693002</v>
       </c>
       <c r="L19">
-        <v>0.9865386042531131</v>
+        <v>1.013080557185146</v>
+      </c>
+      <c r="M19">
+        <v>0.9478964982193803</v>
       </c>
       <c r="N19">
-        <v>0.9897818701578178</v>
+        <v>1.009515317413969</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1051,31 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9568518573184641</v>
+        <v>0.9889336041008988</v>
       </c>
       <c r="D20">
-        <v>0.98446557864481</v>
+        <v>1.008603999829881</v>
       </c>
       <c r="E20">
-        <v>0.9698281155332232</v>
+        <v>0.9977731209763144</v>
+      </c>
+      <c r="F20">
+        <v>0.9275808910395095</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029287456151173</v>
+        <v>1.036426890041956</v>
       </c>
       <c r="J20">
-        <v>0.9861537309612433</v>
+        <v>1.016897884270354</v>
       </c>
       <c r="K20">
-        <v>0.9987871950145717</v>
+        <v>1.022497226844096</v>
       </c>
       <c r="L20">
-        <v>0.9844230928742288</v>
+        <v>1.011855240714239</v>
+      </c>
+      <c r="M20">
+        <v>0.9430290346329011</v>
       </c>
       <c r="N20">
-        <v>0.9875541823726222</v>
+        <v>1.009089389236164</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1086,31 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.946775590909966</v>
+        <v>0.982494829802389</v>
       </c>
       <c r="D21">
-        <v>0.9770497744798698</v>
+        <v>1.003680864290558</v>
       </c>
       <c r="E21">
-        <v>0.9615723099125637</v>
+        <v>0.9926298590636163</v>
+      </c>
+      <c r="F21">
+        <v>0.9093312297962917</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02665337723295</v>
+        <v>1.03326513983845</v>
       </c>
       <c r="J21">
-        <v>0.9786803904207536</v>
+        <v>1.0127431155789</v>
       </c>
       <c r="K21">
-        <v>0.9924793930961284</v>
+        <v>1.018592835521745</v>
       </c>
       <c r="L21">
-        <v>0.9773202071425805</v>
+        <v>1.007752219368609</v>
+      </c>
+      <c r="M21">
+        <v>0.9262611862382562</v>
       </c>
       <c r="N21">
-        <v>0.980070228831361</v>
+        <v>1.007660447168356</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1121,31 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9401696361396307</v>
+        <v>0.9782977554927722</v>
       </c>
       <c r="D22">
-        <v>0.9721980766084538</v>
+        <v>1.000466481162838</v>
       </c>
       <c r="E22">
-        <v>0.9561739177888871</v>
+        <v>0.9892841384225449</v>
+      </c>
+      <c r="F22">
+        <v>0.8969334180722255</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024914814283357</v>
+        <v>1.031163395046566</v>
       </c>
       <c r="J22">
-        <v>0.9737805266417244</v>
+        <v>1.010020944247748</v>
       </c>
       <c r="K22">
-        <v>0.9883411738180081</v>
+        <v>1.016028702631036</v>
       </c>
       <c r="L22">
-        <v>0.9726666127377065</v>
+        <v>1.005070910095749</v>
+      </c>
+      <c r="M22">
+        <v>0.9148661230496691</v>
       </c>
       <c r="N22">
-        <v>0.9751634066837434</v>
+        <v>1.006724455679183</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1156,31 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9436988223907417</v>
+        <v>0.9805378251658338</v>
       </c>
       <c r="D23">
-        <v>0.9747890178313046</v>
+        <v>1.00218266034507</v>
       </c>
       <c r="E23">
-        <v>0.9590565711719087</v>
+        <v>0.9910691751929223</v>
+      </c>
+      <c r="F23">
+        <v>0.9036038940414739</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02584467510366</v>
+        <v>1.032289306992263</v>
       </c>
       <c r="J23">
-        <v>0.9763982224459541</v>
+        <v>1.01147524634505</v>
       </c>
       <c r="K23">
-        <v>0.9905521837627652</v>
+        <v>1.017399189821946</v>
       </c>
       <c r="L23">
-        <v>0.9751524169979986</v>
+        <v>1.006502686249501</v>
+      </c>
+      <c r="M23">
+        <v>0.920997371716412</v>
       </c>
       <c r="N23">
-        <v>0.9777848199162688</v>
+        <v>1.007224471520948</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1191,31 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9570165346575525</v>
+        <v>0.9890392359421917</v>
       </c>
       <c r="D24">
-        <v>0.9845869191269115</v>
+        <v>1.008684698747572</v>
       </c>
       <c r="E24">
-        <v>0.9699632537547077</v>
+        <v>0.9978576112778557</v>
+      </c>
+      <c r="F24">
+        <v>0.9278732850430862</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029330304711047</v>
+        <v>1.036478156383934</v>
       </c>
       <c r="J24">
-        <v>0.9862758503457956</v>
+        <v>1.016965839213272</v>
       </c>
       <c r="K24">
-        <v>0.9988902224460035</v>
+        <v>1.022560998743339</v>
       </c>
       <c r="L24">
-        <v>0.9845392123141927</v>
+        <v>1.011922454409955</v>
+      </c>
+      <c r="M24">
+        <v>0.9432976113379928</v>
       </c>
       <c r="N24">
-        <v>0.9876764751807077</v>
+        <v>1.009112762982294</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1226,31 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9714346657080406</v>
+        <v>0.9983420212298648</v>
       </c>
       <c r="D25">
-        <v>0.9952265271161662</v>
+        <v>1.015785012750003</v>
       </c>
       <c r="E25">
-        <v>0.9818212555854282</v>
+        <v>1.005313630152046</v>
+      </c>
+      <c r="F25">
+        <v>0.9528529726297799</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033052421026028</v>
+        <v>1.040919900525421</v>
       </c>
       <c r="J25">
-        <v>0.9969631498395183</v>
+        <v>1.022925312095006</v>
       </c>
       <c r="K25">
-        <v>1.0078993998438</v>
+        <v>1.028143130767709</v>
       </c>
       <c r="L25">
-        <v>0.9947084843665832</v>
+        <v>1.017830015092698</v>
+      </c>
+      <c r="M25">
+        <v>0.9662301113268592</v>
       </c>
       <c r="N25">
-        <v>0.9983789518655621</v>
+        <v>1.011162555946018</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_58/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.005380666912176</v>
+        <v>1.031756065167991</v>
       </c>
       <c r="D2">
-        <v>1.021150359608113</v>
+        <v>1.035493930877208</v>
       </c>
       <c r="E2">
-        <v>1.010976064749848</v>
+        <v>1.031277720443879</v>
       </c>
       <c r="F2">
-        <v>0.9708654441020083</v>
+        <v>1.042354419174953</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044186573050264</v>
+        <v>1.038203613957814</v>
       </c>
       <c r="J2">
-        <v>1.027401625613137</v>
+        <v>1.036890039641856</v>
       </c>
       <c r="K2">
-        <v>1.032322695029396</v>
+        <v>1.038290375760633</v>
       </c>
       <c r="L2">
-        <v>1.022284574461383</v>
+        <v>1.034086302204459</v>
       </c>
       <c r="M2">
-        <v>0.982746166232034</v>
+        <v>1.045131343117061</v>
       </c>
       <c r="N2">
-        <v>1.012701763885456</v>
+        <v>1.016232305288903</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.010298168042779</v>
+        <v>1.032733174859362</v>
       </c>
       <c r="D3">
-        <v>1.024896215180813</v>
+        <v>1.036242997236936</v>
       </c>
       <c r="E3">
-        <v>1.014943657120663</v>
+        <v>1.032109421328874</v>
       </c>
       <c r="F3">
-        <v>0.9830639957912869</v>
+        <v>1.044626218230895</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046420907728542</v>
+        <v>1.038555124157658</v>
       </c>
       <c r="J3">
-        <v>1.030511977888782</v>
+        <v>1.037509017280812</v>
       </c>
       <c r="K3">
-        <v>1.035220153941053</v>
+        <v>1.038849008957261</v>
       </c>
       <c r="L3">
-        <v>1.025388835956775</v>
+        <v>1.034726471215681</v>
       </c>
       <c r="M3">
-        <v>0.993918262669388</v>
+        <v>1.047210133410427</v>
       </c>
       <c r="N3">
-        <v>1.013770760180068</v>
+        <v>1.016442318237395</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013398376054851</v>
+        <v>1.033365160267925</v>
       </c>
       <c r="D4">
-        <v>1.027256833972362</v>
+        <v>1.036727318410567</v>
       </c>
       <c r="E4">
-        <v>1.017450141810022</v>
+        <v>1.032647696103656</v>
       </c>
       <c r="F4">
-        <v>0.9906077359323004</v>
+        <v>1.046090442384816</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047808923537717</v>
+        <v>1.038780732827035</v>
       </c>
       <c r="J4">
-        <v>1.032465450518086</v>
+        <v>1.037908675624827</v>
       </c>
       <c r="K4">
-        <v>1.037037056899967</v>
+        <v>1.039209445185182</v>
       </c>
       <c r="L4">
-        <v>1.02734242392712</v>
+        <v>1.035140168100404</v>
       </c>
       <c r="M4">
-        <v>1.000820854857401</v>
+        <v>1.048549154384068</v>
       </c>
       <c r="N4">
-        <v>1.014441833993936</v>
+        <v>1.016577808094313</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014683142014154</v>
+        <v>1.033630783777393</v>
       </c>
       <c r="D5">
-        <v>1.028234908802514</v>
+        <v>1.036930838355711</v>
       </c>
       <c r="E5">
-        <v>1.018490063270246</v>
+        <v>1.032874013546064</v>
       </c>
       <c r="F5">
-        <v>0.9937026819333219</v>
+        <v>1.046704652331262</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048379377923758</v>
+        <v>1.038875139831378</v>
       </c>
       <c r="J5">
-        <v>1.033273260758786</v>
+        <v>1.038076486943559</v>
       </c>
       <c r="K5">
-        <v>1.037787733752424</v>
+        <v>1.039360725692556</v>
       </c>
       <c r="L5">
-        <v>1.02815119884597</v>
+        <v>1.03531395904579</v>
       </c>
       <c r="M5">
-        <v>1.003651183995093</v>
+        <v>1.049110651527169</v>
       </c>
       <c r="N5">
-        <v>1.014719253979029</v>
+        <v>1.016634671980089</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014897798924603</v>
+        <v>1.033675379471728</v>
       </c>
       <c r="D6">
-        <v>1.028398313305466</v>
+        <v>1.036965005080261</v>
       </c>
       <c r="E6">
-        <v>1.01866388166812</v>
+        <v>1.03291201482778</v>
       </c>
       <c r="F6">
-        <v>0.9942180461580239</v>
+        <v>1.046807702712814</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048474413789724</v>
+        <v>1.038890965506481</v>
       </c>
       <c r="J6">
-        <v>1.033408127834889</v>
+        <v>1.038104651212933</v>
       </c>
       <c r="K6">
-        <v>1.037913024186078</v>
+        <v>1.039386111916136</v>
       </c>
       <c r="L6">
-        <v>1.028286280158782</v>
+        <v>1.035343131875941</v>
       </c>
       <c r="M6">
-        <v>1.004122390828527</v>
+        <v>1.049204846592551</v>
       </c>
       <c r="N6">
-        <v>1.014765564979757</v>
+        <v>1.016644214053543</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013415614832749</v>
+        <v>1.033368709788092</v>
       </c>
       <c r="D7">
-        <v>1.027269958363761</v>
+        <v>1.03673003820076</v>
       </c>
       <c r="E7">
-        <v>1.017464090592723</v>
+        <v>1.03265072006212</v>
       </c>
       <c r="F7">
-        <v>0.9906493823027122</v>
+        <v>1.046098654746279</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0478165963886</v>
+        <v>1.038781996019592</v>
       </c>
       <c r="J7">
-        <v>1.032476296382918</v>
+        <v>1.037910918731701</v>
       </c>
       <c r="K7">
-        <v>1.037047138249888</v>
+        <v>1.039211467570789</v>
       </c>
       <c r="L7">
-        <v>1.027353279149255</v>
+        <v>1.035142490801938</v>
       </c>
       <c r="M7">
-        <v>1.000858946785615</v>
+        <v>1.048556662701635</v>
       </c>
       <c r="N7">
-        <v>1.014445559058572</v>
+        <v>1.01657856828922</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.007060124668273</v>
+        <v>1.032086340734346</v>
       </c>
       <c r="D8">
-        <v>1.022429885815865</v>
+        <v>1.035747159626452</v>
       </c>
       <c r="E8">
-        <v>1.012330002156001</v>
+        <v>1.031558775581868</v>
       </c>
       <c r="F8">
-        <v>0.975065074529157</v>
+        <v>1.043123402216718</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044954120669912</v>
+        <v>1.038322791124879</v>
       </c>
       <c r="J8">
-        <v>1.028465491297194</v>
+        <v>1.037099405168457</v>
       </c>
       <c r="K8">
-        <v>1.03331436532787</v>
+        <v>1.038479383952646</v>
       </c>
       <c r="L8">
-        <v>1.023345506287593</v>
+        <v>1.034302761712965</v>
       </c>
       <c r="M8">
-        <v>0.9865937449715959</v>
+        <v>1.045835161479976</v>
       </c>
       <c r="N8">
-        <v>1.013067463438457</v>
+        <v>1.016303363700068</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9951833968067184</v>
+        <v>1.02982450831325</v>
       </c>
       <c r="D9">
-        <v>1.013375545523056</v>
+        <v>1.034012281350796</v>
       </c>
       <c r="E9">
-        <v>1.00277861579523</v>
+        <v>1.029635428746176</v>
       </c>
       <c r="F9">
-        <v>0.9445335695081356</v>
+        <v>1.03783479297128</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039427798545617</v>
+        <v>1.037499411301794</v>
       </c>
       <c r="J9">
-        <v>1.020907395829792</v>
+        <v>1.035662759771511</v>
       </c>
       <c r="K9">
-        <v>1.026255278250576</v>
+        <v>1.037181356985607</v>
       </c>
       <c r="L9">
-        <v>1.015826772186669</v>
+        <v>1.032818909321772</v>
       </c>
       <c r="M9">
-        <v>0.9585955769101477</v>
+        <v>1.040991397012442</v>
       </c>
       <c r="N9">
-        <v>1.010468514025433</v>
+        <v>1.015815319725696</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9867254745326842</v>
+        <v>1.028315086536815</v>
       </c>
       <c r="D10">
-        <v>1.006916601074222</v>
+        <v>1.032853658021806</v>
       </c>
       <c r="E10">
-        <v>0.9960077781791975</v>
+        <v>1.02835368321835</v>
       </c>
       <c r="F10">
-        <v>0.9214189626463641</v>
+        <v>1.034276047029271</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035350820404271</v>
+        <v>1.036940806550914</v>
       </c>
       <c r="J10">
-        <v>1.01547584827315</v>
+        <v>1.034700439535531</v>
       </c>
       <c r="K10">
-        <v>1.02116208709458</v>
+        <v>1.036310535899346</v>
       </c>
       <c r="L10">
-        <v>1.010449489487529</v>
+        <v>1.031826825492298</v>
       </c>
       <c r="M10">
-        <v>0.9373684172858944</v>
+        <v>1.037727816413401</v>
       </c>
       <c r="N10">
-        <v>1.008600277667801</v>
+        <v>1.015487851311813</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9829110888878214</v>
+        <v>1.027661103202078</v>
       </c>
       <c r="D11">
-        <v>1.003999411987923</v>
+        <v>1.032351460096395</v>
       </c>
       <c r="E11">
-        <v>0.9929619693948122</v>
+        <v>1.0277987756494</v>
       </c>
       <c r="F11">
-        <v>0.9105379492440643</v>
+        <v>1.032726749223003</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033471785110367</v>
+        <v>1.036696596133865</v>
       </c>
       <c r="J11">
-        <v>1.013012481613499</v>
+        <v>1.034282643992903</v>
       </c>
       <c r="K11">
-        <v>1.018846297337838</v>
+        <v>1.035932142305793</v>
       </c>
       <c r="L11">
-        <v>1.008017844484834</v>
+        <v>1.031396551177457</v>
       </c>
       <c r="M11">
-        <v>0.9273701683396648</v>
+        <v>1.036306029830958</v>
       </c>
       <c r="N11">
-        <v>1.0077530787657</v>
+        <v>1.015345548942699</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9814688449008235</v>
+        <v>1.027418123373349</v>
       </c>
       <c r="D12">
-        <v>1.002895533911036</v>
+        <v>1.032164843679088</v>
       </c>
       <c r="E12">
-        <v>0.9918115069540974</v>
+        <v>1.027592671571421</v>
       </c>
       <c r="F12">
-        <v>0.9063398791970814</v>
+        <v>1.032149975653242</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032754439346083</v>
+        <v>1.036605532530908</v>
       </c>
       <c r="J12">
-        <v>1.012078723063136</v>
+        <v>1.034127288390157</v>
       </c>
       <c r="K12">
-        <v>1.01796746951919</v>
+        <v>1.035791389484504</v>
       </c>
       <c r="L12">
-        <v>1.007097285188862</v>
+        <v>1.031236622219562</v>
       </c>
       <c r="M12">
-        <v>0.9235120000958223</v>
+        <v>1.035776577779582</v>
       </c>
       <c r="N12">
-        <v>1.00743197975517</v>
+        <v>1.015292614912655</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9817794086130364</v>
+        <v>1.027470246180289</v>
       </c>
       <c r="D13">
-        <v>1.003133279810215</v>
+        <v>1.032204877079679</v>
       </c>
       <c r="E13">
-        <v>0.9920591870131752</v>
+        <v>1.027636881014091</v>
       </c>
       <c r="F13">
-        <v>0.9072479460369944</v>
+        <v>1.032273754855575</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032909233728311</v>
+        <v>1.036625082001427</v>
       </c>
       <c r="J13">
-        <v>1.012279903771907</v>
+        <v>1.034160620313975</v>
       </c>
       <c r="K13">
-        <v>1.018156863254259</v>
+        <v>1.035821590551198</v>
       </c>
       <c r="L13">
-        <v>1.007295567050918</v>
+        <v>1.031270932340437</v>
       </c>
       <c r="M13">
-        <v>0.9243465715146714</v>
+        <v>1.035890208202245</v>
       </c>
       <c r="N13">
-        <v>1.007501159221015</v>
+        <v>1.015303972916273</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9827924078405648</v>
+        <v>1.027641019676704</v>
       </c>
       <c r="D14">
-        <v>1.003908594016033</v>
+        <v>1.032336035920999</v>
       </c>
       <c r="E14">
-        <v>0.9928672748774499</v>
+        <v>1.027781738757958</v>
       </c>
       <c r="F14">
-        <v>0.9101942991376982</v>
+        <v>1.032679099615491</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033412900180177</v>
+        <v>1.0366890760051</v>
       </c>
       <c r="J14">
-        <v>1.01293569279565</v>
+        <v>1.034269805682612</v>
       </c>
       <c r="K14">
-        <v>1.018774047140902</v>
+        <v>1.035920511737044</v>
       </c>
       <c r="L14">
-        <v>1.007942116598362</v>
+        <v>1.031383333569069</v>
       </c>
       <c r="M14">
-        <v>0.9270543548313369</v>
+        <v>1.036262292671578</v>
       </c>
       <c r="N14">
-        <v>1.007726671854715</v>
+        <v>1.015341174964798</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9834130963354297</v>
+        <v>1.027746230676335</v>
       </c>
       <c r="D15">
-        <v>1.00438352486125</v>
+        <v>1.032416836858779</v>
       </c>
       <c r="E15">
-        <v>0.9933625644635622</v>
+        <v>1.027870992119802</v>
       </c>
       <c r="F15">
-        <v>0.9119880375843122</v>
+        <v>1.03292867295622</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033720577007239</v>
+        <v>1.03672845796493</v>
       </c>
       <c r="J15">
-        <v>1.013337192560557</v>
+        <v>1.034337056110758</v>
       </c>
       <c r="K15">
-        <v>1.019151774322292</v>
+        <v>1.03598143370542</v>
       </c>
       <c r="L15">
-        <v>1.008338117576198</v>
+        <v>1.031452573596814</v>
       </c>
       <c r="M15">
-        <v>0.9287027692179712</v>
+        <v>1.036491367792816</v>
       </c>
       <c r="N15">
-        <v>1.007864745340455</v>
+        <v>1.015364086209563</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9869752124819448</v>
+        <v>1.028358480779238</v>
       </c>
       <c r="D16">
-        <v>1.00710749100295</v>
+        <v>1.032886976434012</v>
       </c>
       <c r="E16">
-        <v>0.9962073571757191</v>
+        <v>1.028390512539739</v>
       </c>
       <c r="F16">
-        <v>0.9221207223474746</v>
+        <v>1.034378689528788</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035472946903284</v>
+        <v>1.036956964646061</v>
       </c>
       <c r="J16">
-        <v>1.015636824494275</v>
+        <v>1.034728143826553</v>
       </c>
       <c r="K16">
-        <v>1.021313288188501</v>
+        <v>1.036335620612653</v>
       </c>
       <c r="L16">
-        <v>1.010608548062037</v>
+        <v>1.031855366607374</v>
       </c>
       <c r="M16">
-        <v>0.9380131410551593</v>
+        <v>1.0378219903902</v>
       </c>
       <c r="N16">
-        <v>1.008655644415722</v>
+        <v>1.015497284738785</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9891672782834897</v>
+        <v>1.028742422177564</v>
       </c>
       <c r="D17">
-        <v>1.008782515849891</v>
+        <v>1.033181745833857</v>
       </c>
       <c r="E17">
-        <v>0.9979600317515926</v>
+        <v>1.02871641900989</v>
       </c>
       <c r="F17">
-        <v>0.928227427588186</v>
+        <v>1.035285984502261</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036540273664296</v>
+        <v>1.037099674854803</v>
       </c>
       <c r="J17">
-        <v>1.017048202496157</v>
+        <v>1.034973165852463</v>
       </c>
       <c r="K17">
-        <v>1.022638288358003</v>
+        <v>1.036557437333023</v>
       </c>
       <c r="L17">
-        <v>1.012003923793155</v>
+        <v>1.032107840825111</v>
       </c>
       <c r="M17">
-        <v>0.9436229030379045</v>
+        <v>1.03865431506755</v>
       </c>
       <c r="N17">
-        <v>1.009141092663444</v>
+        <v>1.015580700724194</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9904314010429627</v>
+        <v>1.028966330857255</v>
       </c>
       <c r="D18">
-        <v>1.009748083144093</v>
+        <v>1.033353631096078</v>
       </c>
       <c r="E18">
-        <v>0.9989714930050396</v>
+        <v>1.02890652415682</v>
       </c>
       <c r="F18">
-        <v>0.9317072379620355</v>
+        <v>1.03581439280618</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037152041599061</v>
+        <v>1.037182690601662</v>
       </c>
       <c r="J18">
-        <v>1.017860836853827</v>
+        <v>1.0351159766079</v>
       </c>
       <c r="K18">
-        <v>1.023400647012878</v>
+        <v>1.036686691822426</v>
       </c>
       <c r="L18">
-        <v>1.012808003467169</v>
+        <v>1.032255037761854</v>
       </c>
       <c r="M18">
-        <v>0.946818999072218</v>
+        <v>1.039138965585125</v>
       </c>
       <c r="N18">
-        <v>1.009420608827237</v>
+        <v>1.015629307034342</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.990860048839023</v>
+        <v>1.029042671575709</v>
       </c>
       <c r="D19">
-        <v>1.010075434181389</v>
+        <v>1.03341223131051</v>
       </c>
       <c r="E19">
-        <v>0.9993145891782143</v>
+        <v>1.028971346732494</v>
       </c>
       <c r="F19">
-        <v>0.9328804900256863</v>
+        <v>1.035994431717515</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037358870108332</v>
+        <v>1.037210958795898</v>
       </c>
       <c r="J19">
-        <v>1.018136180064552</v>
+        <v>1.035164653382948</v>
       </c>
       <c r="K19">
-        <v>1.023658866693002</v>
+        <v>1.036730742702575</v>
       </c>
       <c r="L19">
-        <v>1.013080557185146</v>
+        <v>1.032305216790912</v>
       </c>
       <c r="M19">
-        <v>0.9478964982193803</v>
+        <v>1.039304079238099</v>
       </c>
       <c r="N19">
-        <v>1.009515317413969</v>
+        <v>1.015645872264043</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9889336041008988</v>
+        <v>1.028701232828901</v>
       </c>
       <c r="D20">
-        <v>1.008603999829881</v>
+        <v>1.0331501249206</v>
       </c>
       <c r="E20">
-        <v>0.9977731209763144</v>
+        <v>1.028681451364917</v>
       </c>
       <c r="F20">
-        <v>0.9275808910395095</v>
+        <v>1.035188723548984</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036426890041956</v>
+        <v>1.037084386662268</v>
       </c>
       <c r="J20">
-        <v>1.016897884270354</v>
+        <v>1.034946888331234</v>
       </c>
       <c r="K20">
-        <v>1.022497226844096</v>
+        <v>1.036533651694966</v>
       </c>
       <c r="L20">
-        <v>1.011855240714239</v>
+        <v>1.03208075967177</v>
       </c>
       <c r="M20">
-        <v>0.9430290346329011</v>
+        <v>1.038565100684419</v>
       </c>
       <c r="N20">
-        <v>1.009089389236164</v>
+        <v>1.015571756032118</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.982494829802389</v>
+        <v>1.027590732848049</v>
       </c>
       <c r="D21">
-        <v>1.003680864290558</v>
+        <v>1.032297415071155</v>
       </c>
       <c r="E21">
-        <v>0.9926298590636163</v>
+        <v>1.027739081405795</v>
       </c>
       <c r="F21">
-        <v>0.9093312297962917</v>
+        <v>1.032559771792923</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03326513983845</v>
+        <v>1.036670241132733</v>
       </c>
       <c r="J21">
-        <v>1.0127431155789</v>
+        <v>1.034237657957873</v>
       </c>
       <c r="K21">
-        <v>1.018592835521745</v>
+        <v>1.035891387466432</v>
       </c>
       <c r="L21">
-        <v>1.007752219368609</v>
+        <v>1.031350237144367</v>
       </c>
       <c r="M21">
-        <v>0.9262611862382562</v>
+        <v>1.036152760307186</v>
       </c>
       <c r="N21">
-        <v>1.007660447168356</v>
+        <v>1.015330222007333</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9782977554927722</v>
+        <v>1.02689216167684</v>
       </c>
       <c r="D22">
-        <v>1.000466481162838</v>
+        <v>1.031760831856623</v>
       </c>
       <c r="E22">
-        <v>0.9892841384225449</v>
+        <v>1.027146652321401</v>
       </c>
       <c r="F22">
-        <v>0.8969334180722255</v>
+        <v>1.030899329051466</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031163395046566</v>
+        <v>1.036407807738606</v>
       </c>
       <c r="J22">
-        <v>1.010020944247748</v>
+        <v>1.033790765283509</v>
       </c>
       <c r="K22">
-        <v>1.016028702631036</v>
+        <v>1.035486408895842</v>
       </c>
       <c r="L22">
-        <v>1.005070910095749</v>
+        <v>1.030890315080048</v>
       </c>
       <c r="M22">
-        <v>0.9148661230496691</v>
+        <v>1.034628269178098</v>
       </c>
       <c r="N22">
-        <v>1.006724455679183</v>
+        <v>1.015177916562773</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9805378251658338</v>
+        <v>1.027262521921483</v>
       </c>
       <c r="D23">
-        <v>1.00218266034507</v>
+        <v>1.032045328061884</v>
       </c>
       <c r="E23">
-        <v>0.9910691751929223</v>
+        <v>1.027460703375682</v>
       </c>
       <c r="F23">
-        <v>0.9036038940414739</v>
+        <v>1.031780288120976</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032289306992263</v>
+        <v>1.036547123309097</v>
       </c>
       <c r="J23">
-        <v>1.01147524634505</v>
+        <v>1.034027764232184</v>
       </c>
       <c r="K23">
-        <v>1.017399189821946</v>
+        <v>1.035701206457459</v>
       </c>
       <c r="L23">
-        <v>1.006502686249501</v>
+        <v>1.031134187115228</v>
       </c>
       <c r="M23">
-        <v>0.920997371716412</v>
+        <v>1.035437179566533</v>
       </c>
       <c r="N23">
-        <v>1.007224471520948</v>
+        <v>1.015258698767416</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9890392359421917</v>
+        <v>1.028719844639927</v>
       </c>
       <c r="D24">
-        <v>1.008684698747572</v>
+        <v>1.033164413201123</v>
       </c>
       <c r="E24">
-        <v>0.9978576112778557</v>
+        <v>1.028697251709798</v>
       </c>
       <c r="F24">
-        <v>0.9278732850430862</v>
+        <v>1.03523267406212</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036478156383934</v>
+        <v>1.037091295432792</v>
       </c>
       <c r="J24">
-        <v>1.016965839213272</v>
+        <v>1.034958762341146</v>
       </c>
       <c r="K24">
-        <v>1.022560998743339</v>
+        <v>1.036544399794998</v>
       </c>
       <c r="L24">
-        <v>1.011922454409955</v>
+        <v>1.032092996686588</v>
       </c>
       <c r="M24">
-        <v>0.9432976113379928</v>
+        <v>1.038605415388227</v>
       </c>
       <c r="N24">
-        <v>1.009112762982294</v>
+        <v>1.015575797904406</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9983420212298648</v>
+        <v>1.030409509130143</v>
       </c>
       <c r="D25">
-        <v>1.015785012750003</v>
+        <v>1.034461142549751</v>
       </c>
       <c r="E25">
-        <v>1.005313630152046</v>
+        <v>1.030132570491965</v>
       </c>
       <c r="F25">
-        <v>0.9528529726297799</v>
+        <v>1.039207680070532</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040919900525421</v>
+        <v>1.037713971590971</v>
       </c>
       <c r="J25">
-        <v>1.022925312095006</v>
+        <v>1.036034964005709</v>
       </c>
       <c r="K25">
-        <v>1.028143130767709</v>
+        <v>1.037517885435008</v>
       </c>
       <c r="L25">
-        <v>1.017830015092698</v>
+        <v>1.033203018068721</v>
       </c>
       <c r="M25">
-        <v>0.9662301113268592</v>
+        <v>1.04224953835432</v>
       </c>
       <c r="N25">
-        <v>1.011162555946018</v>
+        <v>1.015941860240291</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_58/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031756065167991</v>
+        <v>1.005380666912177</v>
       </c>
       <c r="D2">
-        <v>1.035493930877208</v>
+        <v>1.021150359608114</v>
       </c>
       <c r="E2">
-        <v>1.031277720443879</v>
+        <v>1.010976064749849</v>
       </c>
       <c r="F2">
-        <v>1.042354419174953</v>
+        <v>0.9708654441020089</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038203613957814</v>
+        <v>1.044186573050265</v>
       </c>
       <c r="J2">
-        <v>1.036890039641856</v>
+        <v>1.027401625613138</v>
       </c>
       <c r="K2">
-        <v>1.038290375760633</v>
+        <v>1.032322695029397</v>
       </c>
       <c r="L2">
-        <v>1.034086302204459</v>
+        <v>1.022284574461384</v>
       </c>
       <c r="M2">
-        <v>1.045131343117061</v>
+        <v>0.9827461662320348</v>
       </c>
       <c r="N2">
-        <v>1.016232305288903</v>
+        <v>1.012701763885456</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032733174859362</v>
+        <v>1.010298168042779</v>
       </c>
       <c r="D3">
-        <v>1.036242997236936</v>
+        <v>1.024896215180813</v>
       </c>
       <c r="E3">
-        <v>1.032109421328874</v>
+        <v>1.014943657120662</v>
       </c>
       <c r="F3">
-        <v>1.044626218230895</v>
+        <v>0.9830639957912881</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038555124157658</v>
+        <v>1.046420907728543</v>
       </c>
       <c r="J3">
-        <v>1.037509017280812</v>
+        <v>1.030511977888782</v>
       </c>
       <c r="K3">
-        <v>1.038849008957261</v>
+        <v>1.035220153941053</v>
       </c>
       <c r="L3">
-        <v>1.034726471215681</v>
+        <v>1.025388835956774</v>
       </c>
       <c r="M3">
-        <v>1.047210133410427</v>
+        <v>0.993918262669389</v>
       </c>
       <c r="N3">
-        <v>1.016442318237395</v>
+        <v>1.013770760180068</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033365160267925</v>
+        <v>1.01339837605485</v>
       </c>
       <c r="D4">
-        <v>1.036727318410567</v>
+        <v>1.027256833972362</v>
       </c>
       <c r="E4">
-        <v>1.032647696103656</v>
+        <v>1.017450141810021</v>
       </c>
       <c r="F4">
-        <v>1.046090442384816</v>
+        <v>0.9906077359323002</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038780732827035</v>
+        <v>1.047808923537716</v>
       </c>
       <c r="J4">
-        <v>1.037908675624827</v>
+        <v>1.032465450518085</v>
       </c>
       <c r="K4">
-        <v>1.039209445185182</v>
+        <v>1.037037056899967</v>
       </c>
       <c r="L4">
-        <v>1.035140168100404</v>
+        <v>1.02734242392712</v>
       </c>
       <c r="M4">
-        <v>1.048549154384068</v>
+        <v>1.000820854857401</v>
       </c>
       <c r="N4">
-        <v>1.016577808094313</v>
+        <v>1.014441833993936</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033630783777393</v>
+        <v>1.014683142014154</v>
       </c>
       <c r="D5">
-        <v>1.036930838355711</v>
+        <v>1.028234908802514</v>
       </c>
       <c r="E5">
-        <v>1.032874013546064</v>
+        <v>1.018490063270246</v>
       </c>
       <c r="F5">
-        <v>1.046704652331262</v>
+        <v>0.9937026819333207</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038875139831378</v>
+        <v>1.048379377923758</v>
       </c>
       <c r="J5">
-        <v>1.038076486943559</v>
+        <v>1.033273260758786</v>
       </c>
       <c r="K5">
-        <v>1.039360725692556</v>
+        <v>1.037787733752423</v>
       </c>
       <c r="L5">
-        <v>1.03531395904579</v>
+        <v>1.02815119884597</v>
       </c>
       <c r="M5">
-        <v>1.049110651527169</v>
+        <v>1.003651183995093</v>
       </c>
       <c r="N5">
-        <v>1.016634671980089</v>
+        <v>1.014719253979029</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033675379471728</v>
+        <v>1.014897798924603</v>
       </c>
       <c r="D6">
-        <v>1.036965005080261</v>
+        <v>1.028398313305466</v>
       </c>
       <c r="E6">
-        <v>1.03291201482778</v>
+        <v>1.01866388166812</v>
       </c>
       <c r="F6">
-        <v>1.046807702712814</v>
+        <v>0.9942180461580228</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038890965506481</v>
+        <v>1.048474413789724</v>
       </c>
       <c r="J6">
-        <v>1.038104651212933</v>
+        <v>1.033408127834888</v>
       </c>
       <c r="K6">
-        <v>1.039386111916136</v>
+        <v>1.037913024186078</v>
       </c>
       <c r="L6">
-        <v>1.035343131875941</v>
+        <v>1.028286280158782</v>
       </c>
       <c r="M6">
-        <v>1.049204846592551</v>
+        <v>1.004122390828526</v>
       </c>
       <c r="N6">
-        <v>1.016644214053543</v>
+        <v>1.014765564979757</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033368709788092</v>
+        <v>1.013415614832748</v>
       </c>
       <c r="D7">
-        <v>1.03673003820076</v>
+        <v>1.027269958363761</v>
       </c>
       <c r="E7">
-        <v>1.03265072006212</v>
+        <v>1.017464090592722</v>
       </c>
       <c r="F7">
-        <v>1.046098654746279</v>
+        <v>0.9906493823027115</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038781996019592</v>
+        <v>1.047816596388599</v>
       </c>
       <c r="J7">
-        <v>1.037910918731701</v>
+        <v>1.032476296382917</v>
       </c>
       <c r="K7">
-        <v>1.039211467570789</v>
+        <v>1.037047138249888</v>
       </c>
       <c r="L7">
-        <v>1.035142490801938</v>
+        <v>1.027353279149254</v>
       </c>
       <c r="M7">
-        <v>1.048556662701635</v>
+        <v>1.000858946785614</v>
       </c>
       <c r="N7">
-        <v>1.01657856828922</v>
+        <v>1.014445559058572</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032086340734346</v>
+        <v>1.007060124668274</v>
       </c>
       <c r="D8">
-        <v>1.035747159626452</v>
+        <v>1.022429885815866</v>
       </c>
       <c r="E8">
-        <v>1.031558775581868</v>
+        <v>1.012330002156002</v>
       </c>
       <c r="F8">
-        <v>1.043123402216718</v>
+        <v>0.975065074529158</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038322791124879</v>
+        <v>1.044954120669912</v>
       </c>
       <c r="J8">
-        <v>1.037099405168457</v>
+        <v>1.028465491297195</v>
       </c>
       <c r="K8">
-        <v>1.038479383952646</v>
+        <v>1.033314365327871</v>
       </c>
       <c r="L8">
-        <v>1.034302761712965</v>
+        <v>1.023345506287594</v>
       </c>
       <c r="M8">
-        <v>1.045835161479976</v>
+        <v>0.986593744971597</v>
       </c>
       <c r="N8">
-        <v>1.016303363700068</v>
+        <v>1.013067463438457</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02982450831325</v>
+        <v>0.995183396806718</v>
       </c>
       <c r="D9">
-        <v>1.034012281350796</v>
+        <v>1.013375545523056</v>
       </c>
       <c r="E9">
-        <v>1.029635428746176</v>
+        <v>1.002778615795229</v>
       </c>
       <c r="F9">
-        <v>1.03783479297128</v>
+        <v>0.9445335695081361</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037499411301794</v>
+        <v>1.039427798545617</v>
       </c>
       <c r="J9">
-        <v>1.035662759771511</v>
+        <v>1.020907395829791</v>
       </c>
       <c r="K9">
-        <v>1.037181356985607</v>
+        <v>1.026255278250576</v>
       </c>
       <c r="L9">
-        <v>1.032818909321772</v>
+        <v>1.015826772186668</v>
       </c>
       <c r="M9">
-        <v>1.040991397012442</v>
+        <v>0.958595576910148</v>
       </c>
       <c r="N9">
-        <v>1.015815319725696</v>
+        <v>1.010468514025433</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028315086536815</v>
+        <v>0.9867254745326846</v>
       </c>
       <c r="D10">
-        <v>1.032853658021806</v>
+        <v>1.006916601074222</v>
       </c>
       <c r="E10">
-        <v>1.02835368321835</v>
+        <v>0.9960077781791975</v>
       </c>
       <c r="F10">
-        <v>1.034276047029271</v>
+        <v>0.921418962646364</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036940806550914</v>
+        <v>1.035350820404271</v>
       </c>
       <c r="J10">
-        <v>1.034700439535531</v>
+        <v>1.01547584827315</v>
       </c>
       <c r="K10">
-        <v>1.036310535899346</v>
+        <v>1.02116208709458</v>
       </c>
       <c r="L10">
-        <v>1.031826825492298</v>
+        <v>1.010449489487529</v>
       </c>
       <c r="M10">
-        <v>1.037727816413401</v>
+        <v>0.9373684172858945</v>
       </c>
       <c r="N10">
-        <v>1.015487851311813</v>
+        <v>1.008600277667801</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027661103202078</v>
+        <v>0.9829110888878205</v>
       </c>
       <c r="D11">
-        <v>1.032351460096395</v>
+        <v>1.003999411987922</v>
       </c>
       <c r="E11">
-        <v>1.0277987756494</v>
+        <v>0.9929619693948111</v>
       </c>
       <c r="F11">
-        <v>1.032726749223003</v>
+        <v>0.9105379492440631</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036696596133865</v>
+        <v>1.033471785110366</v>
       </c>
       <c r="J11">
-        <v>1.034282643992903</v>
+        <v>1.013012481613498</v>
       </c>
       <c r="K11">
-        <v>1.035932142305793</v>
+        <v>1.018846297337838</v>
       </c>
       <c r="L11">
-        <v>1.031396551177457</v>
+        <v>1.008017844484832</v>
       </c>
       <c r="M11">
-        <v>1.036306029830958</v>
+        <v>0.9273701683396635</v>
       </c>
       <c r="N11">
-        <v>1.015345548942699</v>
+        <v>1.007753078765699</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027418123373349</v>
+        <v>0.9814688449008229</v>
       </c>
       <c r="D12">
-        <v>1.032164843679088</v>
+        <v>1.002895533911036</v>
       </c>
       <c r="E12">
-        <v>1.027592671571421</v>
+        <v>0.9918115069540968</v>
       </c>
       <c r="F12">
-        <v>1.032149975653242</v>
+        <v>0.9063398791970809</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036605532530908</v>
+        <v>1.032754439346083</v>
       </c>
       <c r="J12">
-        <v>1.034127288390157</v>
+        <v>1.012078723063136</v>
       </c>
       <c r="K12">
-        <v>1.035791389484504</v>
+        <v>1.017967469519189</v>
       </c>
       <c r="L12">
-        <v>1.031236622219562</v>
+        <v>1.007097285188861</v>
       </c>
       <c r="M12">
-        <v>1.035776577779582</v>
+        <v>0.9235120000958217</v>
       </c>
       <c r="N12">
-        <v>1.015292614912655</v>
+        <v>1.00743197975517</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027470246180289</v>
+        <v>0.9817794086130361</v>
       </c>
       <c r="D13">
-        <v>1.032204877079679</v>
+        <v>1.003133279810216</v>
       </c>
       <c r="E13">
-        <v>1.027636881014091</v>
+        <v>0.992059187013175</v>
       </c>
       <c r="F13">
-        <v>1.032273754855575</v>
+        <v>0.9072479460369958</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036625082001427</v>
+        <v>1.032909233728311</v>
       </c>
       <c r="J13">
-        <v>1.034160620313975</v>
+        <v>1.012279903771907</v>
       </c>
       <c r="K13">
-        <v>1.035821590551198</v>
+        <v>1.01815686325426</v>
       </c>
       <c r="L13">
-        <v>1.031270932340437</v>
+        <v>1.007295567050918</v>
       </c>
       <c r="M13">
-        <v>1.035890208202245</v>
+        <v>0.9243465715146726</v>
       </c>
       <c r="N13">
-        <v>1.015303972916273</v>
+        <v>1.007501159221015</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027641019676704</v>
+        <v>0.9827924078405648</v>
       </c>
       <c r="D14">
-        <v>1.032336035920999</v>
+        <v>1.003908594016033</v>
       </c>
       <c r="E14">
-        <v>1.027781738757958</v>
+        <v>0.9928672748774496</v>
       </c>
       <c r="F14">
-        <v>1.032679099615491</v>
+        <v>0.9101942991376988</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0366890760051</v>
+        <v>1.033412900180177</v>
       </c>
       <c r="J14">
-        <v>1.034269805682612</v>
+        <v>1.01293569279565</v>
       </c>
       <c r="K14">
-        <v>1.035920511737044</v>
+        <v>1.018774047140902</v>
       </c>
       <c r="L14">
-        <v>1.031383333569069</v>
+        <v>1.007942116598362</v>
       </c>
       <c r="M14">
-        <v>1.036262292671578</v>
+        <v>0.9270543548313372</v>
       </c>
       <c r="N14">
-        <v>1.015341174964798</v>
+        <v>1.007726671854715</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027746230676335</v>
+        <v>0.9834130963354291</v>
       </c>
       <c r="D15">
-        <v>1.032416836858779</v>
+        <v>1.004383524861249</v>
       </c>
       <c r="E15">
-        <v>1.027870992119802</v>
+        <v>0.9933625644635614</v>
       </c>
       <c r="F15">
-        <v>1.03292867295622</v>
+        <v>0.9119880375843123</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03672845796493</v>
+        <v>1.033720577007239</v>
       </c>
       <c r="J15">
-        <v>1.034337056110758</v>
+        <v>1.013337192560557</v>
       </c>
       <c r="K15">
-        <v>1.03598143370542</v>
+        <v>1.019151774322291</v>
       </c>
       <c r="L15">
-        <v>1.031452573596814</v>
+        <v>1.008338117576197</v>
       </c>
       <c r="M15">
-        <v>1.036491367792816</v>
+        <v>0.928702769217971</v>
       </c>
       <c r="N15">
-        <v>1.015364086209563</v>
+        <v>1.007864745340455</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028358480779238</v>
+        <v>0.9869752124819455</v>
       </c>
       <c r="D16">
-        <v>1.032886976434012</v>
+        <v>1.00710749100295</v>
       </c>
       <c r="E16">
-        <v>1.028390512539739</v>
+        <v>0.9962073571757197</v>
       </c>
       <c r="F16">
-        <v>1.034378689528788</v>
+        <v>0.922120722347476</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036956964646061</v>
+        <v>1.035472946903284</v>
       </c>
       <c r="J16">
-        <v>1.034728143826553</v>
+        <v>1.015636824494275</v>
       </c>
       <c r="K16">
-        <v>1.036335620612653</v>
+        <v>1.021313288188502</v>
       </c>
       <c r="L16">
-        <v>1.031855366607374</v>
+        <v>1.010608548062038</v>
       </c>
       <c r="M16">
-        <v>1.0378219903902</v>
+        <v>0.938013141055161</v>
       </c>
       <c r="N16">
-        <v>1.015497284738785</v>
+        <v>1.008655644415722</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028742422177564</v>
+        <v>0.9891672782834886</v>
       </c>
       <c r="D17">
-        <v>1.033181745833857</v>
+        <v>1.00878251584989</v>
       </c>
       <c r="E17">
-        <v>1.02871641900989</v>
+        <v>0.9979600317515915</v>
       </c>
       <c r="F17">
-        <v>1.035285984502261</v>
+        <v>0.9282274275881855</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037099674854803</v>
+        <v>1.036540273664295</v>
       </c>
       <c r="J17">
-        <v>1.034973165852463</v>
+        <v>1.017048202496156</v>
       </c>
       <c r="K17">
-        <v>1.036557437333023</v>
+        <v>1.022638288358002</v>
       </c>
       <c r="L17">
-        <v>1.032107840825111</v>
+        <v>1.012003923793154</v>
       </c>
       <c r="M17">
-        <v>1.03865431506755</v>
+        <v>0.9436229030379039</v>
       </c>
       <c r="N17">
-        <v>1.015580700724194</v>
+        <v>1.009141092663444</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028966330857255</v>
+        <v>0.9904314010429628</v>
       </c>
       <c r="D18">
-        <v>1.033353631096078</v>
+        <v>1.009748083144093</v>
       </c>
       <c r="E18">
-        <v>1.02890652415682</v>
+        <v>0.9989714930050396</v>
       </c>
       <c r="F18">
-        <v>1.03581439280618</v>
+        <v>0.9317072379620355</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037182690601662</v>
+        <v>1.037152041599062</v>
       </c>
       <c r="J18">
-        <v>1.0351159766079</v>
+        <v>1.017860836853827</v>
       </c>
       <c r="K18">
-        <v>1.036686691822426</v>
+        <v>1.023400647012878</v>
       </c>
       <c r="L18">
-        <v>1.032255037761854</v>
+        <v>1.012808003467169</v>
       </c>
       <c r="M18">
-        <v>1.039138965585125</v>
+        <v>0.9468189990722179</v>
       </c>
       <c r="N18">
-        <v>1.015629307034342</v>
+        <v>1.009420608827237</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.029042671575709</v>
+        <v>0.9908600488390226</v>
       </c>
       <c r="D19">
-        <v>1.03341223131051</v>
+        <v>1.010075434181388</v>
       </c>
       <c r="E19">
-        <v>1.028971346732494</v>
+        <v>0.9993145891782138</v>
       </c>
       <c r="F19">
-        <v>1.035994431717515</v>
+        <v>0.932880490025687</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037210958795898</v>
+        <v>1.037358870108332</v>
       </c>
       <c r="J19">
-        <v>1.035164653382948</v>
+        <v>1.018136180064552</v>
       </c>
       <c r="K19">
-        <v>1.036730742702575</v>
+        <v>1.023658866693001</v>
       </c>
       <c r="L19">
-        <v>1.032305216790912</v>
+        <v>1.013080557185146</v>
       </c>
       <c r="M19">
-        <v>1.039304079238099</v>
+        <v>0.947896498219381</v>
       </c>
       <c r="N19">
-        <v>1.015645872264043</v>
+        <v>1.009515317413969</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028701232828901</v>
+        <v>0.9889336041008987</v>
       </c>
       <c r="D20">
-        <v>1.0331501249206</v>
+        <v>1.008603999829881</v>
       </c>
       <c r="E20">
-        <v>1.028681451364917</v>
+        <v>0.9977731209763139</v>
       </c>
       <c r="F20">
-        <v>1.035188723548984</v>
+        <v>0.9275808910395104</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037084386662268</v>
+        <v>1.036426890041956</v>
       </c>
       <c r="J20">
-        <v>1.034946888331234</v>
+        <v>1.016897884270354</v>
       </c>
       <c r="K20">
-        <v>1.036533651694966</v>
+        <v>1.022497226844096</v>
       </c>
       <c r="L20">
-        <v>1.03208075967177</v>
+        <v>1.011855240714238</v>
       </c>
       <c r="M20">
-        <v>1.038565100684419</v>
+        <v>0.943029034632902</v>
       </c>
       <c r="N20">
-        <v>1.015571756032118</v>
+        <v>1.009089389236163</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027590732848049</v>
+        <v>0.9824948298023896</v>
       </c>
       <c r="D21">
-        <v>1.032297415071155</v>
+        <v>1.003680864290558</v>
       </c>
       <c r="E21">
-        <v>1.027739081405795</v>
+        <v>0.992629859063617</v>
       </c>
       <c r="F21">
-        <v>1.032559771792923</v>
+        <v>0.9093312297962914</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036670241132733</v>
+        <v>1.03326513983845</v>
       </c>
       <c r="J21">
-        <v>1.034237657957873</v>
+        <v>1.0127431155789</v>
       </c>
       <c r="K21">
-        <v>1.035891387466432</v>
+        <v>1.018592835521746</v>
       </c>
       <c r="L21">
-        <v>1.031350237144367</v>
+        <v>1.007752219368609</v>
       </c>
       <c r="M21">
-        <v>1.036152760307186</v>
+        <v>0.9262611862382558</v>
       </c>
       <c r="N21">
-        <v>1.015330222007333</v>
+        <v>1.007660447168356</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02689216167684</v>
+        <v>0.9782977554927715</v>
       </c>
       <c r="D22">
-        <v>1.031760831856623</v>
+        <v>1.000466481162837</v>
       </c>
       <c r="E22">
-        <v>1.027146652321401</v>
+        <v>0.9892841384225447</v>
       </c>
       <c r="F22">
-        <v>1.030899329051466</v>
+        <v>0.8969334180722258</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036407807738606</v>
+        <v>1.031163395046566</v>
       </c>
       <c r="J22">
-        <v>1.033790765283509</v>
+        <v>1.010020944247748</v>
       </c>
       <c r="K22">
-        <v>1.035486408895842</v>
+        <v>1.016028702631036</v>
       </c>
       <c r="L22">
-        <v>1.030890315080048</v>
+        <v>1.005070910095748</v>
       </c>
       <c r="M22">
-        <v>1.034628269178098</v>
+        <v>0.9148661230496694</v>
       </c>
       <c r="N22">
-        <v>1.015177916562773</v>
+        <v>1.006724455679183</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027262521921483</v>
+        <v>0.9805378251658338</v>
       </c>
       <c r="D23">
-        <v>1.032045328061884</v>
+        <v>1.00218266034507</v>
       </c>
       <c r="E23">
-        <v>1.027460703375682</v>
+        <v>0.9910691751929221</v>
       </c>
       <c r="F23">
-        <v>1.031780288120976</v>
+        <v>0.903603894041473</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036547123309097</v>
+        <v>1.032289306992263</v>
       </c>
       <c r="J23">
-        <v>1.034027764232184</v>
+        <v>1.01147524634505</v>
       </c>
       <c r="K23">
-        <v>1.035701206457459</v>
+        <v>1.017399189821946</v>
       </c>
       <c r="L23">
-        <v>1.031134187115228</v>
+        <v>1.006502686249501</v>
       </c>
       <c r="M23">
-        <v>1.035437179566533</v>
+        <v>0.9209973717164115</v>
       </c>
       <c r="N23">
-        <v>1.015258698767416</v>
+        <v>1.007224471520948</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028719844639927</v>
+        <v>0.9890392359421915</v>
       </c>
       <c r="D24">
-        <v>1.033164413201123</v>
+        <v>1.008684698747571</v>
       </c>
       <c r="E24">
-        <v>1.028697251709798</v>
+        <v>0.9978576112778551</v>
       </c>
       <c r="F24">
-        <v>1.03523267406212</v>
+        <v>0.9278732850430856</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037091295432792</v>
+        <v>1.036478156383934</v>
       </c>
       <c r="J24">
-        <v>1.034958762341146</v>
+        <v>1.016965839213272</v>
       </c>
       <c r="K24">
-        <v>1.036544399794998</v>
+        <v>1.022560998743338</v>
       </c>
       <c r="L24">
-        <v>1.032092996686588</v>
+        <v>1.011922454409955</v>
       </c>
       <c r="M24">
-        <v>1.038605415388227</v>
+        <v>0.9432976113379924</v>
       </c>
       <c r="N24">
-        <v>1.015575797904406</v>
+        <v>1.009112762982294</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030409509130143</v>
+        <v>0.9983420212298647</v>
       </c>
       <c r="D25">
-        <v>1.034461142549751</v>
+        <v>1.015785012750003</v>
       </c>
       <c r="E25">
-        <v>1.030132570491965</v>
+        <v>1.005313630152046</v>
       </c>
       <c r="F25">
-        <v>1.039207680070532</v>
+        <v>0.9528529726297791</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037713971590971</v>
+        <v>1.04091990052542</v>
       </c>
       <c r="J25">
-        <v>1.036034964005709</v>
+        <v>1.022925312095006</v>
       </c>
       <c r="K25">
-        <v>1.037517885435008</v>
+        <v>1.028143130767709</v>
       </c>
       <c r="L25">
-        <v>1.033203018068721</v>
+        <v>1.017830015092698</v>
       </c>
       <c r="M25">
-        <v>1.04224953835432</v>
+        <v>0.9662301113268589</v>
       </c>
       <c r="N25">
-        <v>1.015941860240291</v>
+        <v>1.011162555946018</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_58/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,40 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005380666912177</v>
+        <v>0.9908698219349887</v>
       </c>
       <c r="D2">
-        <v>1.021150359608114</v>
+        <v>1.013587953581255</v>
       </c>
       <c r="E2">
-        <v>1.010976064749849</v>
-      </c>
-      <c r="F2">
-        <v>0.9708654441020089</v>
+        <v>0.9985391284120613</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044186573050265</v>
+        <v>1.040345293738268</v>
       </c>
       <c r="J2">
-        <v>1.027401625613138</v>
+        <v>1.013327087117135</v>
       </c>
       <c r="K2">
-        <v>1.032322695029397</v>
+        <v>1.024861177529788</v>
       </c>
       <c r="L2">
-        <v>1.022284574461384</v>
-      </c>
-      <c r="M2">
-        <v>0.9827461662320348</v>
+        <v>1.010018853085272</v>
       </c>
       <c r="N2">
-        <v>1.012701763885456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.008278929793641</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.028649075750093</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +474,40 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010298168042779</v>
+        <v>0.9953221056214393</v>
       </c>
       <c r="D3">
-        <v>1.024896215180813</v>
+        <v>1.016427744368389</v>
       </c>
       <c r="E3">
-        <v>1.014943657120662</v>
-      </c>
-      <c r="F3">
-        <v>0.9830639957912881</v>
+        <v>1.002081469238386</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046420907728543</v>
+        <v>1.041079085474101</v>
       </c>
       <c r="J3">
-        <v>1.030511977888782</v>
+        <v>1.015941112212164</v>
       </c>
       <c r="K3">
-        <v>1.035220153941053</v>
+        <v>1.026854656987181</v>
       </c>
       <c r="L3">
-        <v>1.025388835956774</v>
-      </c>
-      <c r="M3">
-        <v>0.993918262669389</v>
+        <v>1.012687786376269</v>
       </c>
       <c r="N3">
-        <v>1.013770760180068</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.009169872484358</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.030055978661889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +515,40 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01339837605485</v>
+        <v>0.9981464269623896</v>
       </c>
       <c r="D4">
-        <v>1.027256833972362</v>
+        <v>1.018232661155061</v>
       </c>
       <c r="E4">
-        <v>1.017450141810021</v>
-      </c>
-      <c r="F4">
-        <v>0.9906077359323002</v>
+        <v>1.004334963470157</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047808923537716</v>
+        <v>1.041534244454126</v>
       </c>
       <c r="J4">
-        <v>1.032465450518085</v>
+        <v>1.017597666466923</v>
       </c>
       <c r="K4">
-        <v>1.037037056899967</v>
+        <v>1.028115903695485</v>
       </c>
       <c r="L4">
-        <v>1.02734242392712</v>
-      </c>
-      <c r="M4">
-        <v>1.000820854857401</v>
+        <v>1.014381349354645</v>
       </c>
       <c r="N4">
-        <v>1.014441833993936</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.009734296779495</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.030948719569181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +556,40 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014683142014154</v>
+        <v>0.999325129965044</v>
       </c>
       <c r="D5">
-        <v>1.028234908802514</v>
+        <v>1.018988999980283</v>
       </c>
       <c r="E5">
-        <v>1.018490063270246</v>
-      </c>
-      <c r="F5">
-        <v>0.9937026819333207</v>
+        <v>1.005277431543328</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048379377923758</v>
+        <v>1.041723309215408</v>
       </c>
       <c r="J5">
-        <v>1.033273260758786</v>
+        <v>1.018290301104876</v>
       </c>
       <c r="K5">
-        <v>1.037787733752423</v>
+        <v>1.028644528086732</v>
       </c>
       <c r="L5">
-        <v>1.02815119884597</v>
-      </c>
-      <c r="M5">
-        <v>1.003651183995093</v>
+        <v>1.015089564463026</v>
       </c>
       <c r="N5">
-        <v>1.014719253979029</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.009970715041969</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.031329766509075</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +597,40 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014897798924603</v>
+        <v>0.9995276792428723</v>
       </c>
       <c r="D6">
-        <v>1.028398313305466</v>
+        <v>1.019121801540583</v>
       </c>
       <c r="E6">
-        <v>1.01866388166812</v>
-      </c>
-      <c r="F6">
-        <v>0.9942180461580228</v>
+        <v>1.00544008025578</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048474413789724</v>
+        <v>1.041757636106202</v>
       </c>
       <c r="J6">
-        <v>1.033408127834888</v>
+        <v>1.018411389478287</v>
       </c>
       <c r="K6">
-        <v>1.037913024186078</v>
+        <v>1.028739077522321</v>
       </c>
       <c r="L6">
-        <v>1.028286280158782</v>
-      </c>
-      <c r="M6">
-        <v>1.004122390828526</v>
+        <v>1.015212892457638</v>
       </c>
       <c r="N6">
-        <v>1.014765564979757</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01001261527056</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.031405469562032</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +638,40 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013415614832748</v>
+        <v>0.99817675421913</v>
       </c>
       <c r="D7">
-        <v>1.027269958363761</v>
+        <v>1.018259586380933</v>
       </c>
       <c r="E7">
-        <v>1.017464090592722</v>
-      </c>
-      <c r="F7">
-        <v>0.9906493823027115</v>
+        <v>1.004360852716741</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047816596388599</v>
+        <v>1.041544460327075</v>
       </c>
       <c r="J7">
-        <v>1.032476296382917</v>
+        <v>1.017621106263384</v>
       </c>
       <c r="K7">
-        <v>1.037047138249888</v>
+        <v>1.028139588988157</v>
       </c>
       <c r="L7">
-        <v>1.027353279149254</v>
-      </c>
-      <c r="M7">
-        <v>1.000858946785614</v>
+        <v>1.014403945609577</v>
       </c>
       <c r="N7">
-        <v>1.014445559058572</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.009743858774217</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.030985819787053</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +679,40 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007060124668274</v>
+        <v>0.992404764781958</v>
       </c>
       <c r="D8">
-        <v>1.022429885815866</v>
+        <v>1.014575502556241</v>
       </c>
       <c r="E8">
-        <v>1.012330002156002</v>
-      </c>
-      <c r="F8">
-        <v>0.975065074529158</v>
+        <v>0.9997611701089946</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044954120669912</v>
+        <v>1.040607000873185</v>
       </c>
       <c r="J8">
-        <v>1.028465491297195</v>
+        <v>1.014235606429959</v>
       </c>
       <c r="K8">
-        <v>1.033314365327871</v>
+        <v>1.025561593585386</v>
       </c>
       <c r="L8">
-        <v>1.023345506287594</v>
-      </c>
-      <c r="M8">
-        <v>0.986593744971597</v>
+        <v>1.010944377469098</v>
       </c>
       <c r="N8">
-        <v>1.013067463438457</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.008590679672223</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.029167549434201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +720,40 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.995183396806718</v>
+        <v>0.9817539579176052</v>
       </c>
       <c r="D9">
-        <v>1.013375545523056</v>
+        <v>1.007796130349058</v>
       </c>
       <c r="E9">
-        <v>1.002778615795229</v>
-      </c>
-      <c r="F9">
-        <v>0.9445335695081361</v>
+        <v>0.991323911598141</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039427798545617</v>
+        <v>1.038788438281741</v>
       </c>
       <c r="J9">
-        <v>1.020907395829791</v>
+        <v>1.007967902286589</v>
       </c>
       <c r="K9">
-        <v>1.026255278250576</v>
+        <v>1.020763974553272</v>
       </c>
       <c r="L9">
-        <v>1.015826772186668</v>
-      </c>
-      <c r="M9">
-        <v>0.958595576910148</v>
+        <v>1.004559338375603</v>
       </c>
       <c r="N9">
-        <v>1.010468514025433</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.006451793403159</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.02577199393569</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +761,40 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9867254745326846</v>
+        <v>0.9743175673567621</v>
       </c>
       <c r="D10">
-        <v>1.006916601074222</v>
+        <v>1.00309068324154</v>
       </c>
       <c r="E10">
-        <v>0.9960077781791975</v>
-      </c>
-      <c r="F10">
-        <v>0.921418962646364</v>
+        <v>0.9854731530510478</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035350820404271</v>
+        <v>1.037469222822559</v>
       </c>
       <c r="J10">
-        <v>1.01547584827315</v>
+        <v>1.003588550684715</v>
       </c>
       <c r="K10">
-        <v>1.02116208709458</v>
+        <v>1.017404357775237</v>
       </c>
       <c r="L10">
-        <v>1.010449489487529</v>
-      </c>
-      <c r="M10">
-        <v>0.9373684172858945</v>
+        <v>1.000109743026164</v>
       </c>
       <c r="N10">
-        <v>1.008600277667801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.00495748562441</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.023413531514576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +802,40 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9829110888878205</v>
+        <v>0.9710277271345197</v>
       </c>
       <c r="D11">
-        <v>1.003999411987922</v>
+        <v>1.00102526582631</v>
       </c>
       <c r="E11">
-        <v>0.9929619693948111</v>
-      </c>
-      <c r="F11">
-        <v>0.9105379492440631</v>
+        <v>0.9828975265808877</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033471785110366</v>
+        <v>1.036880580904533</v>
       </c>
       <c r="J11">
-        <v>1.013012481613498</v>
+        <v>1.001657509416948</v>
       </c>
       <c r="K11">
-        <v>1.018846297337838</v>
+        <v>1.015927873002067</v>
       </c>
       <c r="L11">
-        <v>1.008017844484832</v>
-      </c>
-      <c r="M11">
-        <v>0.9273701683396635</v>
+        <v>0.9981493419188199</v>
       </c>
       <c r="N11">
-        <v>1.007753078765699</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.004301013107904</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.022402951704292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +843,40 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9814688449008229</v>
+        <v>0.9697811198245334</v>
       </c>
       <c r="D12">
-        <v>1.002895533911036</v>
+        <v>1.000238610123131</v>
       </c>
       <c r="E12">
-        <v>0.9918115069540968</v>
-      </c>
-      <c r="F12">
-        <v>0.9063398791970809</v>
+        <v>0.9819217268493785</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032754439346083</v>
+        <v>1.036652281999819</v>
       </c>
       <c r="J12">
-        <v>1.012078723063136</v>
+        <v>1.000921839331111</v>
       </c>
       <c r="K12">
-        <v>1.017967469519189</v>
+        <v>1.015361240166962</v>
       </c>
       <c r="L12">
-        <v>1.007097285188861</v>
-      </c>
-      <c r="M12">
-        <v>0.9235120000958217</v>
+        <v>0.9974036718828073</v>
       </c>
       <c r="N12">
-        <v>1.00743197975517</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.004049577421489</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.022002310808485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +884,40 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9817794086130361</v>
+        <v>0.9700470862827104</v>
       </c>
       <c r="D13">
-        <v>1.003133279810216</v>
+        <v>1.000405385534095</v>
       </c>
       <c r="E13">
-        <v>0.992059187013175</v>
-      </c>
-      <c r="F13">
-        <v>0.9072479460369958</v>
+        <v>0.9821295579156019</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032909233728311</v>
+        <v>1.036700370089165</v>
       </c>
       <c r="J13">
-        <v>1.012279903771907</v>
+        <v>1.001078036819987</v>
       </c>
       <c r="K13">
-        <v>1.01815686325426</v>
+        <v>1.015480815293784</v>
       </c>
       <c r="L13">
-        <v>1.007295567050918</v>
-      </c>
-      <c r="M13">
-        <v>0.9243465715146726</v>
+        <v>0.9975621116252826</v>
       </c>
       <c r="N13">
-        <v>1.007501159221015</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.004102696675425</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.022084320388699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +925,40 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9827924078405648</v>
+        <v>0.9709240854717028</v>
       </c>
       <c r="D14">
-        <v>1.003908594016033</v>
+        <v>1.000959410236379</v>
       </c>
       <c r="E14">
-        <v>0.9928672748774496</v>
-      </c>
-      <c r="F14">
-        <v>0.9101942991376988</v>
+        <v>0.9828162454018265</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033412900180177</v>
+        <v>1.036861337562712</v>
       </c>
       <c r="J14">
-        <v>1.01293569279565</v>
+        <v>1.001596022404618</v>
       </c>
       <c r="K14">
-        <v>1.018774047140902</v>
+        <v>1.015880201279245</v>
       </c>
       <c r="L14">
-        <v>1.007942116598362</v>
-      </c>
-      <c r="M14">
-        <v>0.9270543548313372</v>
+        <v>0.9980870698200242</v>
       </c>
       <c r="N14">
-        <v>1.007726671854715</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.004279885369485</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.022368158582225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +966,40 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9834130963354291</v>
+        <v>0.9714666637719795</v>
       </c>
       <c r="D15">
-        <v>1.004383524861249</v>
+        <v>1.001304325531028</v>
       </c>
       <c r="E15">
-        <v>0.9933625644635614</v>
-      </c>
-      <c r="F15">
-        <v>0.9119880375843123</v>
+        <v>0.9832418577281608</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033720577007239</v>
+        <v>1.036962082173522</v>
       </c>
       <c r="J15">
-        <v>1.013337192560557</v>
+        <v>1.001917991973601</v>
       </c>
       <c r="K15">
-        <v>1.019151774322291</v>
+        <v>1.016129894964222</v>
       </c>
       <c r="L15">
-        <v>1.008338117576197</v>
-      </c>
-      <c r="M15">
-        <v>0.928702769217971</v>
+        <v>0.9984131533034316</v>
       </c>
       <c r="N15">
-        <v>1.007864745340455</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.004390543872265</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.022550679824688</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1007,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9869752124819455</v>
+        <v>0.9745694120266744</v>
       </c>
       <c r="D16">
-        <v>1.00710749100295</v>
+        <v>1.003266347037228</v>
       </c>
       <c r="E16">
-        <v>0.9962073571757197</v>
-      </c>
-      <c r="F16">
-        <v>0.922120722347476</v>
+        <v>0.9856753456195615</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035472946903284</v>
+        <v>1.037526056368643</v>
       </c>
       <c r="J16">
-        <v>1.015636824494275</v>
+        <v>1.003749491932163</v>
       </c>
       <c r="K16">
-        <v>1.021313288188502</v>
+        <v>1.017540370809668</v>
       </c>
       <c r="L16">
-        <v>1.010608548062038</v>
-      </c>
-      <c r="M16">
-        <v>0.938013141055161</v>
+        <v>1.000270689703603</v>
       </c>
       <c r="N16">
-        <v>1.008655644415722</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.005016683088186</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.023551185798242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1048,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9891672782834886</v>
+        <v>0.9764910666808342</v>
       </c>
       <c r="D17">
-        <v>1.00878251584989</v>
+        <v>1.004483376006593</v>
       </c>
       <c r="E17">
-        <v>0.9979600317515915</v>
-      </c>
-      <c r="F17">
-        <v>0.9282274275881855</v>
+        <v>0.9871852123899774</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036540273664295</v>
+        <v>1.037872298694133</v>
       </c>
       <c r="J17">
-        <v>1.017048202496156</v>
+        <v>1.004883629120599</v>
       </c>
       <c r="K17">
-        <v>1.022638288358002</v>
+        <v>1.018413249419706</v>
       </c>
       <c r="L17">
-        <v>1.012003923793154</v>
-      </c>
-      <c r="M17">
-        <v>0.9436229030379039</v>
+        <v>1.001421725054782</v>
       </c>
       <c r="N17">
-        <v>1.009141092663444</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.005404375662104</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.024170989042746</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1089,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9904314010429628</v>
+        <v>0.9775924668806028</v>
       </c>
       <c r="D18">
-        <v>1.009748083144093</v>
+        <v>1.005176248105931</v>
       </c>
       <c r="E18">
-        <v>0.9989714930050396</v>
-      </c>
-      <c r="F18">
-        <v>0.9317072379620355</v>
+        <v>0.9880501111933192</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037152041599062</v>
+        <v>1.03806595587921</v>
       </c>
       <c r="J18">
-        <v>1.017860836853827</v>
+        <v>1.005529574397111</v>
       </c>
       <c r="K18">
-        <v>1.023400647012878</v>
+        <v>1.018906226962174</v>
       </c>
       <c r="L18">
-        <v>1.012808003467169</v>
-      </c>
-      <c r="M18">
-        <v>0.9468189990722179</v>
+        <v>1.002078353437942</v>
       </c>
       <c r="N18">
-        <v>1.009420608827237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.005623831127903</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.024507723037259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1130,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9908600488390226</v>
+        <v>0.9779749570425716</v>
       </c>
       <c r="D19">
-        <v>1.010075434181388</v>
+        <v>1.005421108165437</v>
       </c>
       <c r="E19">
-        <v>0.9993145891782138</v>
-      </c>
-      <c r="F19">
-        <v>0.932880490025687</v>
+        <v>0.9883517428641616</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037358870108332</v>
+        <v>1.038135891386643</v>
       </c>
       <c r="J19">
-        <v>1.018136180064552</v>
+        <v>1.005757002167295</v>
       </c>
       <c r="K19">
-        <v>1.023658866693001</v>
+        <v>1.019082872876009</v>
       </c>
       <c r="L19">
-        <v>1.013080557185146</v>
-      </c>
-      <c r="M19">
-        <v>0.947896498219381</v>
+        <v>1.002308974478073</v>
       </c>
       <c r="N19">
-        <v>1.009515317413969</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.005702146170755</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.024639117031716</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1171,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9889336041008987</v>
+        <v>0.9762849445625509</v>
       </c>
       <c r="D20">
-        <v>1.008603999829881</v>
+        <v>1.0043523540218</v>
       </c>
       <c r="E20">
-        <v>0.9977731209763139</v>
-      </c>
-      <c r="F20">
-        <v>0.9275808910395104</v>
+        <v>0.9870230482946777</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036426890041956</v>
+        <v>1.037834989107028</v>
       </c>
       <c r="J20">
-        <v>1.016897884270354</v>
+        <v>1.004761675221385</v>
       </c>
       <c r="K20">
-        <v>1.022497226844096</v>
+        <v>1.018319101837591</v>
       </c>
       <c r="L20">
-        <v>1.011855240714238</v>
-      </c>
-      <c r="M20">
-        <v>0.943029034632902</v>
+        <v>1.001297985444064</v>
       </c>
       <c r="N20">
-        <v>1.009089389236163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.005362583634804</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.024103064343676</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1212,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9824948298023896</v>
+        <v>0.9706779637573001</v>
       </c>
       <c r="D21">
-        <v>1.003680864290558</v>
+        <v>1.000809543287018</v>
       </c>
       <c r="E21">
-        <v>0.992629859063617</v>
-      </c>
-      <c r="F21">
-        <v>0.9093312297962914</v>
+        <v>0.982625082402274</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03326513983845</v>
+        <v>1.036820108909468</v>
       </c>
       <c r="J21">
-        <v>1.0127431155789</v>
+        <v>1.001454924499706</v>
       </c>
       <c r="K21">
-        <v>1.018592835521746</v>
+        <v>1.015775594836907</v>
       </c>
       <c r="L21">
-        <v>1.007752219368609</v>
-      </c>
-      <c r="M21">
-        <v>0.9262611862382558</v>
+        <v>0.9979432779316667</v>
       </c>
       <c r="N21">
-        <v>1.007660447168356</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.004233106775356</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.022307944267918</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1253,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9782977554927715</v>
+        <v>0.9670548722343552</v>
       </c>
       <c r="D22">
-        <v>1.000466481162837</v>
+        <v>0.9985197413022356</v>
       </c>
       <c r="E22">
-        <v>0.9892841384225447</v>
-      </c>
-      <c r="F22">
-        <v>0.8969334180722258</v>
+        <v>0.9797905363369215</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031163395046566</v>
+        <v>1.036149476272324</v>
       </c>
       <c r="J22">
-        <v>1.010020944247748</v>
+        <v>0.9993123933667549</v>
       </c>
       <c r="K22">
-        <v>1.016028702631036</v>
+        <v>1.014120579551957</v>
       </c>
       <c r="L22">
-        <v>1.005070910095748</v>
-      </c>
-      <c r="M22">
-        <v>0.9148661230496694</v>
+        <v>0.9957732664313449</v>
       </c>
       <c r="N22">
-        <v>1.006724455679183</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.00349930282409</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.021124004904811</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1294,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9805378251658338</v>
+        <v>0.9689696153765434</v>
       </c>
       <c r="D23">
-        <v>1.00218266034507</v>
+        <v>0.9997224547616749</v>
       </c>
       <c r="E23">
-        <v>0.9910691751929221</v>
-      </c>
-      <c r="F23">
-        <v>0.903603894041473</v>
+        <v>0.9812857211949616</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032289306992263</v>
+        <v>1.036500152775598</v>
       </c>
       <c r="J23">
-        <v>1.01147524634505</v>
+        <v>1.000439599057154</v>
       </c>
       <c r="K23">
-        <v>1.017399189821946</v>
+        <v>1.014986472852851</v>
       </c>
       <c r="L23">
-        <v>1.006502686249501</v>
-      </c>
-      <c r="M23">
-        <v>0.9209973717164115</v>
+        <v>0.996915607685979</v>
       </c>
       <c r="N23">
-        <v>1.007224471520948</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.003883586515369</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.021726443834523</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1335,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9890392359421915</v>
+        <v>0.976355243015152</v>
       </c>
       <c r="D24">
-        <v>1.008684698747571</v>
+        <v>1.004385922046579</v>
       </c>
       <c r="E24">
-        <v>0.9978576112778551</v>
-      </c>
-      <c r="F24">
-        <v>0.9278732850430856</v>
+        <v>0.9870753422073693</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036478156383934</v>
+        <v>1.037839994145045</v>
       </c>
       <c r="J24">
-        <v>1.016965839213272</v>
+        <v>1.004794872902664</v>
       </c>
       <c r="K24">
-        <v>1.022560998743338</v>
+        <v>1.018336451287496</v>
       </c>
       <c r="L24">
-        <v>1.011922454409955</v>
-      </c>
-      <c r="M24">
-        <v>0.9432976113379924</v>
+        <v>1.001333295773227</v>
       </c>
       <c r="N24">
-        <v>1.009112762982294</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.005371145190922</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.024087486881221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1376,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9983420212298647</v>
+        <v>0.9845884690710029</v>
       </c>
       <c r="D25">
-        <v>1.015785012750003</v>
+        <v>1.009607987544982</v>
       </c>
       <c r="E25">
-        <v>1.005313630152046</v>
-      </c>
-      <c r="F25">
-        <v>0.9528529726297791</v>
+        <v>0.9935657172582665</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04091990052542</v>
+        <v>1.039289743140056</v>
       </c>
       <c r="J25">
-        <v>1.022925312095006</v>
+        <v>1.009645861878797</v>
       </c>
       <c r="K25">
-        <v>1.028143130767709</v>
+        <v>1.022058960599778</v>
       </c>
       <c r="L25">
-        <v>1.017830015092698</v>
-      </c>
-      <c r="M25">
-        <v>0.9662301113268589</v>
+        <v>1.006264745173356</v>
       </c>
       <c r="N25">
-        <v>1.011162555946018</v>
+        <v>1.007027315210989</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.026716660571643</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_58/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,40 +439,49 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9908698219349887</v>
+        <v>0.9920353370771403</v>
       </c>
       <c r="D2">
-        <v>1.013587953581255</v>
+        <v>1.014418861061448</v>
       </c>
       <c r="E2">
-        <v>0.9985391284120613</v>
+        <v>0.9995556743192496</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.040345293738268</v>
+        <v>1.040699171447675</v>
       </c>
       <c r="J2">
-        <v>1.013327087117135</v>
+        <v>1.014456907835816</v>
       </c>
       <c r="K2">
-        <v>1.024861177529788</v>
+        <v>1.025680907602786</v>
       </c>
       <c r="L2">
-        <v>1.010018853085272</v>
+        <v>1.011021202776664</v>
       </c>
       <c r="N2">
-        <v>1.008278929793641</v>
+        <v>1.010981931710128</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.028649075750093</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.029237599398346</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.018970351484917</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -474,40 +489,49 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9953221056214393</v>
+        <v>0.996216382303914</v>
       </c>
       <c r="D3">
-        <v>1.016427744368389</v>
+        <v>1.016978482787937</v>
       </c>
       <c r="E3">
-        <v>1.002081469238386</v>
+        <v>1.002862701205973</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.041079085474101</v>
+        <v>1.041315752688546</v>
       </c>
       <c r="J3">
-        <v>1.015941112212164</v>
+        <v>1.016810726693685</v>
       </c>
       <c r="K3">
-        <v>1.026854656987181</v>
+        <v>1.027398633761893</v>
       </c>
       <c r="L3">
-        <v>1.012687786376269</v>
+        <v>1.013459083810289</v>
       </c>
       <c r="N3">
-        <v>1.009169872484358</v>
+        <v>1.011619302180275</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.030055978661889</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.030449233220081</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019327739356812</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -515,40 +539,49 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9981464269623896</v>
+        <v>0.9988710429701456</v>
       </c>
       <c r="D4">
-        <v>1.018232661155061</v>
+        <v>1.018607142915916</v>
       </c>
       <c r="E4">
-        <v>1.004334963470157</v>
+        <v>1.004968754442381</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.041534244454126</v>
+        <v>1.041697075574906</v>
       </c>
       <c r="J4">
-        <v>1.017597666466923</v>
+        <v>1.018303671737773</v>
       </c>
       <c r="K4">
-        <v>1.028115903695485</v>
+        <v>1.028486065553779</v>
       </c>
       <c r="L4">
-        <v>1.014381349354645</v>
+        <v>1.015007578613524</v>
       </c>
       <c r="N4">
-        <v>1.009734296779495</v>
+        <v>1.01202351342975</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.030948719569181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.031219146571042</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.019551497787954</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -556,40 +589,49 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.999325129965044</v>
+        <v>0.9999793891357044</v>
       </c>
       <c r="D5">
-        <v>1.018988999980283</v>
+        <v>1.019290223236232</v>
       </c>
       <c r="E5">
-        <v>1.005277431543328</v>
+        <v>1.005850015438361</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.041723309215408</v>
+        <v>1.041855410702007</v>
       </c>
       <c r="J5">
-        <v>1.018290301104876</v>
+        <v>1.018928266062159</v>
       </c>
       <c r="K5">
-        <v>1.028644528086732</v>
+        <v>1.028942369215662</v>
       </c>
       <c r="L5">
-        <v>1.015089564463026</v>
+        <v>1.015655503107882</v>
       </c>
       <c r="N5">
-        <v>1.009970715041969</v>
+        <v>1.012192963693666</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.031329766509075</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.03154976254658</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.019645258817783</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -597,40 +639,49 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9995276792428723</v>
+        <v>1.000169763783388</v>
       </c>
       <c r="D6">
-        <v>1.019121801540583</v>
+        <v>1.019410407474575</v>
       </c>
       <c r="E6">
-        <v>1.00544008025578</v>
+        <v>1.006002055593539</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.041757636106202</v>
+        <v>1.041884420883984</v>
       </c>
       <c r="J6">
-        <v>1.018411389478287</v>
+        <v>1.019037566530697</v>
       </c>
       <c r="K6">
-        <v>1.028739077522321</v>
+        <v>1.02902445788331</v>
       </c>
       <c r="L6">
-        <v>1.015212892457638</v>
+        <v>1.01576837625876</v>
       </c>
       <c r="N6">
-        <v>1.01001261527056</v>
+        <v>1.012223049900649</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.031405469562032</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.031617520517464</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.019662666748707</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -638,40 +689,49 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.99817675421913</v>
+        <v>0.9989112025067435</v>
       </c>
       <c r="D7">
-        <v>1.018259586380933</v>
+        <v>1.018640413548092</v>
       </c>
       <c r="E7">
-        <v>1.004360852716741</v>
+        <v>1.005003541678603</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.041544460327075</v>
+        <v>1.041710117074046</v>
       </c>
       <c r="J7">
-        <v>1.017621106263384</v>
+        <v>1.018336699996661</v>
       </c>
       <c r="K7">
-        <v>1.028139588988157</v>
+        <v>1.02851602484415</v>
       </c>
       <c r="L7">
-        <v>1.014403945609577</v>
+        <v>1.015038969845244</v>
       </c>
       <c r="N7">
-        <v>1.009743858774217</v>
+        <v>1.012059965375202</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.030985819787053</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.031262675371976</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019559962930072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -679,40 +739,49 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.992404764781958</v>
+        <v>0.9935129063353448</v>
       </c>
       <c r="D8">
-        <v>1.014575502556241</v>
+        <v>1.015335416280692</v>
       </c>
       <c r="E8">
-        <v>0.9997611701089946</v>
+        <v>1.000729275902514</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.040607000873185</v>
+        <v>1.040931861925988</v>
       </c>
       <c r="J8">
-        <v>1.014235606429959</v>
+        <v>1.015310973625561</v>
       </c>
       <c r="K8">
-        <v>1.025561593585386</v>
+        <v>1.026311590341979</v>
       </c>
       <c r="L8">
-        <v>1.010944377469098</v>
+        <v>1.011899377736353</v>
       </c>
       <c r="N8">
-        <v>1.008590679672223</v>
+        <v>1.011294882646844</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.029167549434201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.029709018466403</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.01910631737573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -720,40 +789,49 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9817539579176052</v>
+        <v>0.9835327980134037</v>
       </c>
       <c r="D9">
-        <v>1.007796130349058</v>
+        <v>1.009240108508699</v>
       </c>
       <c r="E9">
-        <v>0.991323911598141</v>
+        <v>0.9928723729923092</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.038788438281741</v>
+        <v>1.039399070256178</v>
       </c>
       <c r="J9">
-        <v>1.007967902286589</v>
+        <v>1.009680763698765</v>
       </c>
       <c r="K9">
-        <v>1.020763974553272</v>
+        <v>1.022185029390335</v>
       </c>
       <c r="L9">
-        <v>1.004559338375603</v>
+        <v>1.006082159277898</v>
       </c>
       <c r="N9">
-        <v>1.006451793403159</v>
+        <v>1.009778730693542</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.02577199393569</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.026787703627331</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018232394790931</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -761,40 +839,49 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9743175673567621</v>
+        <v>0.9766370857753967</v>
       </c>
       <c r="D10">
-        <v>1.00309068324154</v>
+        <v>1.00506169016229</v>
       </c>
       <c r="E10">
-        <v>0.9854731530510478</v>
+        <v>0.9874894448650803</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.037469222822559</v>
+        <v>1.038300507856731</v>
       </c>
       <c r="J10">
-        <v>1.003588550684715</v>
+        <v>1.005809313783324</v>
       </c>
       <c r="K10">
-        <v>1.017404357775237</v>
+        <v>1.019340151701534</v>
       </c>
       <c r="L10">
-        <v>1.000109743026164</v>
+        <v>1.002088315837647</v>
       </c>
       <c r="N10">
-        <v>1.00495748562441</v>
+        <v>1.00884999736756</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.023413531514576</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.024794890063309</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.017620966605477</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -802,40 +889,49 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9710277271345197</v>
+        <v>0.9736814615340308</v>
       </c>
       <c r="D11">
-        <v>1.00102526582631</v>
+        <v>1.00329736365274</v>
       </c>
       <c r="E11">
-        <v>0.9828975265808877</v>
+        <v>0.9852061381158081</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.036880580904533</v>
+        <v>1.037839600457383</v>
       </c>
       <c r="J11">
-        <v>1.001657509416948</v>
+        <v>1.004191643392884</v>
       </c>
       <c r="K11">
-        <v>1.015927873002067</v>
+        <v>1.018157363280326</v>
       </c>
       <c r="L11">
-        <v>0.9981493419188199</v>
+        <v>1.000412543729556</v>
       </c>
       <c r="N11">
-        <v>1.004301013107904</v>
+        <v>1.008648661866552</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.022402951704292</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.02399517056193</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.017371284724415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -843,40 +939,49 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9697811198245334</v>
+        <v>0.9725712439494081</v>
       </c>
       <c r="D12">
-        <v>1.000238610123131</v>
+        <v>1.002631940819549</v>
       </c>
       <c r="E12">
-        <v>0.9819217268493785</v>
+        <v>0.9843499484310329</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.036652281999819</v>
+        <v>1.037662996684883</v>
       </c>
       <c r="J12">
-        <v>1.000921839331111</v>
+        <v>1.003583574929961</v>
       </c>
       <c r="K12">
-        <v>1.015361240166962</v>
+        <v>1.017708890114797</v>
       </c>
       <c r="L12">
-        <v>0.9974036718828073</v>
+        <v>0.9997832487885869</v>
       </c>
       <c r="N12">
-        <v>1.004049577421489</v>
+        <v>1.008588732854292</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.022002310808485</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.023678083316202</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.017275756485762</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -884,40 +989,49 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9700470862827104</v>
+        <v>0.9728077083958259</v>
       </c>
       <c r="D13">
-        <v>1.000405385534095</v>
+        <v>1.002772546578274</v>
       </c>
       <c r="E13">
-        <v>0.9821295579156019</v>
+        <v>0.9845319076968726</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.036700370089165</v>
+        <v>1.037699938167168</v>
       </c>
       <c r="J13">
-        <v>1.001078036819987</v>
+        <v>1.003712190247267</v>
       </c>
       <c r="K13">
-        <v>1.015480815293784</v>
+        <v>1.017802964953695</v>
       </c>
       <c r="L13">
-        <v>0.9975621116252826</v>
+        <v>0.9999165226114515</v>
       </c>
       <c r="N13">
-        <v>1.004102696675425</v>
+        <v>1.008600193872185</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.022084320388699</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.023741821234133</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.017295583539529</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -925,40 +1039,49 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9709240854717028</v>
+        <v>0.9735889732751281</v>
       </c>
       <c r="D14">
-        <v>1.000959410236379</v>
+        <v>1.003241447178232</v>
       </c>
       <c r="E14">
-        <v>0.9828162454018265</v>
+        <v>0.9851346378956236</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.036861337562712</v>
+        <v>1.03782460004132</v>
       </c>
       <c r="J14">
-        <v>1.001596022404618</v>
+        <v>1.004140599367519</v>
       </c>
       <c r="K14">
-        <v>1.015880201279245</v>
+        <v>1.01811938134442</v>
       </c>
       <c r="L14">
-        <v>0.9980870698200242</v>
+        <v>1.000359790733954</v>
       </c>
       <c r="N14">
-        <v>1.004279885369485</v>
+        <v>1.008643085470883</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.022368158582225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.023967126545294</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.017363103435151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -966,40 +1089,49 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9714666637719795</v>
+        <v>0.9740735456958727</v>
       </c>
       <c r="D15">
-        <v>1.001304325531028</v>
+        <v>1.00353461497942</v>
       </c>
       <c r="E15">
-        <v>0.9832418577281608</v>
+        <v>0.9855093918250561</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.036962082173522</v>
+        <v>1.037903259694239</v>
       </c>
       <c r="J15">
-        <v>1.001917991973601</v>
+        <v>1.004408244450096</v>
       </c>
       <c r="K15">
-        <v>1.016129894964222</v>
+        <v>1.018318621274806</v>
       </c>
       <c r="L15">
-        <v>0.9984131533034316</v>
+        <v>1.000636373173058</v>
       </c>
       <c r="N15">
-        <v>1.004390543872265</v>
+        <v>1.008673078544627</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.022550679824688</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.024114535738269</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.017406047630077</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1007,40 +1139,49 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9745694120266744</v>
+        <v>0.9768647720672292</v>
       </c>
       <c r="D16">
-        <v>1.003266347037228</v>
+        <v>1.005215443898694</v>
       </c>
       <c r="E16">
-        <v>0.9856753456195615</v>
+        <v>0.9876703849039299</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.037526056368643</v>
+        <v>1.038347790528435</v>
       </c>
       <c r="J16">
-        <v>1.003749491932163</v>
+        <v>1.005947508484829</v>
       </c>
       <c r="K16">
-        <v>1.017540370809668</v>
+        <v>1.019454763160715</v>
       </c>
       <c r="L16">
-        <v>1.000270689703603</v>
+        <v>1.002228536600869</v>
       </c>
       <c r="N16">
-        <v>1.005016683088186</v>
+        <v>1.008877734394771</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.023551185798242</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.024921359465752</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.017648779776297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1048,40 +1189,49 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9764910666808342</v>
+        <v>0.9786129274996257</v>
       </c>
       <c r="D17">
-        <v>1.004483376006593</v>
+        <v>1.006272339151739</v>
       </c>
       <c r="E17">
-        <v>0.9871852123899774</v>
+        <v>0.9890289609882897</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.037872298694133</v>
+        <v>1.038626319525589</v>
       </c>
       <c r="J17">
-        <v>1.004883629120599</v>
+        <v>1.006918535183022</v>
       </c>
       <c r="K17">
-        <v>1.018413249419706</v>
+        <v>1.020171278129707</v>
       </c>
       <c r="L17">
-        <v>1.001421725054782</v>
+        <v>1.003232126177192</v>
       </c>
       <c r="N17">
-        <v>1.005404375662104</v>
+        <v>1.009044405741475</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.024170989042746</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.025430843989216</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.017802254266674</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1089,40 +1239,49 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9775924668806028</v>
+        <v>0.9796225205744226</v>
       </c>
       <c r="D18">
-        <v>1.005176248105931</v>
+        <v>1.006878838079876</v>
       </c>
       <c r="E18">
-        <v>0.9880501111933192</v>
+        <v>0.9898140389581469</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.03806595587921</v>
+        <v>1.038783649626787</v>
       </c>
       <c r="J18">
-        <v>1.005529574397111</v>
+        <v>1.00747810089375</v>
       </c>
       <c r="K18">
-        <v>1.018906226962174</v>
+        <v>1.020579880899265</v>
       </c>
       <c r="L18">
-        <v>1.002078353437942</v>
+        <v>1.003810942654679</v>
       </c>
       <c r="N18">
-        <v>1.005623831127903</v>
+        <v>1.009153217604928</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.024507723037259</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.025706789783807</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.017888857573129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1130,40 +1289,49 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9779749570425716</v>
+        <v>0.9799742869759752</v>
       </c>
       <c r="D19">
-        <v>1.005421108165437</v>
+        <v>1.007094552792979</v>
       </c>
       <c r="E19">
-        <v>0.9883517428641616</v>
+        <v>0.9900889572227178</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.038135891386643</v>
+        <v>1.038841287780275</v>
       </c>
       <c r="J19">
-        <v>1.005757002167295</v>
+        <v>1.00767659596651</v>
       </c>
       <c r="K19">
-        <v>1.019082872876009</v>
+        <v>1.020728045942753</v>
       </c>
       <c r="L19">
-        <v>1.002308974478073</v>
+        <v>1.004015514354798</v>
       </c>
       <c r="N19">
-        <v>1.005702146170755</v>
+        <v>1.00919570618741</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.024639117031716</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.025818662123379</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.017921134332598</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1171,40 +1339,49 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9762849445625509</v>
+        <v>0.9784246550868457</v>
       </c>
       <c r="D20">
-        <v>1.0043523540218</v>
+        <v>1.006157947698282</v>
       </c>
       <c r="E20">
-        <v>0.9870230482946777</v>
+        <v>0.988882345693048</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.037834989107028</v>
+        <v>1.038596036121906</v>
       </c>
       <c r="J20">
-        <v>1.004761675221385</v>
+        <v>1.006813373975065</v>
       </c>
       <c r="K20">
-        <v>1.018319101837591</v>
+        <v>1.020093374414108</v>
       </c>
       <c r="L20">
-        <v>1.001297985444064</v>
+        <v>1.003123543852852</v>
       </c>
       <c r="N20">
-        <v>1.005362583634804</v>
+        <v>1.00902470827155</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.024103064343676</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.025374276924614</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.017785468837876</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1212,40 +1389,49 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9706779637573001</v>
+        <v>0.973400776439496</v>
       </c>
       <c r="D21">
-        <v>1.000809543287018</v>
+        <v>1.00313799418123</v>
       </c>
       <c r="E21">
-        <v>0.982625082402274</v>
+        <v>0.9849952372936487</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.036820108909468</v>
+        <v>1.037803600306836</v>
       </c>
       <c r="J21">
-        <v>1.001454924499706</v>
+        <v>1.004054289263376</v>
       </c>
       <c r="K21">
-        <v>1.015775594836907</v>
+        <v>1.018060159182979</v>
       </c>
       <c r="L21">
-        <v>0.9979432779316667</v>
+        <v>1.000266566774982</v>
       </c>
       <c r="N21">
-        <v>1.004233106775356</v>
+        <v>1.008704857883311</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.022307944267918</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.023940300758158</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.017353606270564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1253,40 +1439,49 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9670548722343552</v>
+        <v>0.9701579965171845</v>
       </c>
       <c r="D22">
-        <v>0.9985197413022356</v>
+        <v>1.001189402532074</v>
       </c>
       <c r="E22">
-        <v>0.9797905363369215</v>
+        <v>0.9824937287902037</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.036149476272324</v>
+        <v>1.037278347849429</v>
       </c>
       <c r="J22">
-        <v>0.9993123933667549</v>
+        <v>1.002266253907887</v>
       </c>
       <c r="K22">
-        <v>1.014120579551957</v>
+        <v>1.016737333892265</v>
       </c>
       <c r="L22">
-        <v>0.9957732664313449</v>
+        <v>0.9984201526029468</v>
       </c>
       <c r="N22">
-        <v>1.00349930282409</v>
+        <v>1.008484297801375</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.021124004904811</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.022989964997044</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.01706891543402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1294,40 +1489,49 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9689696153765434</v>
+        <v>0.9718509018075807</v>
       </c>
       <c r="D23">
-        <v>0.9997224547616749</v>
+        <v>1.002196485031532</v>
       </c>
       <c r="E23">
-        <v>0.9812857211949616</v>
+        <v>0.9837940171923051</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.036500152775598</v>
+        <v>1.037545418318534</v>
       </c>
       <c r="J23">
-        <v>1.000439599057154</v>
+        <v>1.003186535980027</v>
       </c>
       <c r="K23">
-        <v>1.014986472852851</v>
+        <v>1.017412748517291</v>
       </c>
       <c r="L23">
-        <v>0.996915607685979</v>
+        <v>0.9993730663656256</v>
       </c>
       <c r="N23">
-        <v>1.003883586515369</v>
+        <v>1.008551713748961</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.021726443834523</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.023456785807436</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.017211827646495</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1335,40 +1539,49 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.976355243015152</v>
+        <v>0.9784891915205308</v>
       </c>
       <c r="D24">
-        <v>1.004385922046579</v>
+        <v>1.006186003042123</v>
       </c>
       <c r="E24">
-        <v>0.9870753422073693</v>
+        <v>0.9889297202530828</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.037839994145045</v>
+        <v>1.038598881880924</v>
       </c>
       <c r="J24">
-        <v>1.004794872902664</v>
+        <v>1.006841187887477</v>
       </c>
       <c r="K24">
-        <v>1.018336451287496</v>
+        <v>1.020105349485269</v>
       </c>
       <c r="L24">
-        <v>1.001333295773227</v>
+        <v>1.003154072052967</v>
       </c>
       <c r="N24">
-        <v>1.005371145190922</v>
+        <v>1.009026125660426</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.024087486881221</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.025352248589039</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.017785825445245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1376,37 +1589,46 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9845884690710029</v>
+        <v>0.9861705719827849</v>
       </c>
       <c r="D25">
-        <v>1.009607987544982</v>
+        <v>1.010857417930063</v>
       </c>
       <c r="E25">
-        <v>0.9935657172582665</v>
+        <v>0.9949435923941267</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.039289743140056</v>
+        <v>1.0398187367923</v>
       </c>
       <c r="J25">
-        <v>1.009645861878797</v>
+        <v>1.011172486266913</v>
       </c>
       <c r="K25">
-        <v>1.022058960599778</v>
+        <v>1.023289492535306</v>
       </c>
       <c r="L25">
-        <v>1.006264745173356</v>
+        <v>1.007620913010049</v>
       </c>
       <c r="N25">
-        <v>1.007027315210989</v>
+        <v>1.010151477145499</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.026716660571643</v>
+        <v>1.027600433978475</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.018470024023749</v>
       </c>
     </row>
   </sheetData>
